--- a/BackTest/2020-01-16 BackTest IOST.xlsx
+++ b/BackTest/2020-01-16 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.253</v>
+        <v>6.23</v>
       </c>
       <c r="C2" t="n">
-        <v>6.253</v>
+        <v>6.241</v>
       </c>
       <c r="D2" t="n">
-        <v>6.253</v>
+        <v>6.241</v>
       </c>
       <c r="E2" t="n">
-        <v>6.253</v>
+        <v>6.23</v>
       </c>
       <c r="F2" t="n">
-        <v>210960.9327</v>
+        <v>50210.1093</v>
       </c>
       <c r="G2" t="n">
-        <v>6.206216666666668</v>
+        <v>6.203850000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.279</v>
+        <v>6.253</v>
       </c>
       <c r="C3" t="n">
-        <v>6.279</v>
+        <v>6.253</v>
       </c>
       <c r="D3" t="n">
-        <v>6.279</v>
+        <v>6.253</v>
       </c>
       <c r="E3" t="n">
-        <v>6.279</v>
+        <v>6.253</v>
       </c>
       <c r="F3" t="n">
-        <v>81.9689</v>
+        <v>210960.9327</v>
       </c>
       <c r="G3" t="n">
-        <v>6.206716666666668</v>
+        <v>6.206216666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.253</v>
+        <v>6.279</v>
       </c>
       <c r="C4" t="n">
-        <v>6.253</v>
+        <v>6.279</v>
       </c>
       <c r="D4" t="n">
-        <v>6.253</v>
+        <v>6.279</v>
       </c>
       <c r="E4" t="n">
-        <v>6.253</v>
+        <v>6.279</v>
       </c>
       <c r="F4" t="n">
-        <v>4485.0977</v>
+        <v>81.9689</v>
       </c>
       <c r="G4" t="n">
-        <v>6.207583333333334</v>
+        <v>6.206716666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.26</v>
+        <v>6.253</v>
       </c>
       <c r="C5" t="n">
-        <v>6.302</v>
+        <v>6.253</v>
       </c>
       <c r="D5" t="n">
-        <v>6.302</v>
+        <v>6.253</v>
       </c>
       <c r="E5" t="n">
-        <v>6.26</v>
+        <v>6.253</v>
       </c>
       <c r="F5" t="n">
-        <v>6000</v>
+        <v>4485.0977</v>
       </c>
       <c r="G5" t="n">
-        <v>6.209283333333334</v>
+        <v>6.207583333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.295</v>
+        <v>6.26</v>
       </c>
       <c r="C6" t="n">
-        <v>6.295</v>
+        <v>6.302</v>
       </c>
       <c r="D6" t="n">
-        <v>6.295</v>
+        <v>6.302</v>
       </c>
       <c r="E6" t="n">
-        <v>6.295</v>
+        <v>6.26</v>
       </c>
       <c r="F6" t="n">
-        <v>50879.1579</v>
+        <v>6000</v>
       </c>
       <c r="G6" t="n">
-        <v>6.209250000000001</v>
+        <v>6.209283333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.297</v>
+        <v>6.295</v>
       </c>
       <c r="C7" t="n">
-        <v>6.297</v>
+        <v>6.295</v>
       </c>
       <c r="D7" t="n">
-        <v>6.297</v>
+        <v>6.295</v>
       </c>
       <c r="E7" t="n">
-        <v>6.297</v>
+        <v>6.295</v>
       </c>
       <c r="F7" t="n">
-        <v>91634</v>
+        <v>50879.1579</v>
       </c>
       <c r="G7" t="n">
-        <v>6.210866666666669</v>
+        <v>6.209250000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.298</v>
+        <v>6.297</v>
       </c>
       <c r="C8" t="n">
-        <v>6.298</v>
+        <v>6.297</v>
       </c>
       <c r="D8" t="n">
-        <v>6.298</v>
+        <v>6.297</v>
       </c>
       <c r="E8" t="n">
-        <v>6.298</v>
+        <v>6.297</v>
       </c>
       <c r="F8" t="n">
-        <v>6222</v>
+        <v>91634</v>
       </c>
       <c r="G8" t="n">
-        <v>6.212150000000002</v>
+        <v>6.210866666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.296</v>
+        <v>6.298</v>
       </c>
       <c r="C9" t="n">
-        <v>6.296</v>
+        <v>6.298</v>
       </c>
       <c r="D9" t="n">
-        <v>6.296</v>
+        <v>6.298</v>
       </c>
       <c r="E9" t="n">
-        <v>6.296</v>
+        <v>6.298</v>
       </c>
       <c r="F9" t="n">
-        <v>33233.6942</v>
+        <v>6222</v>
       </c>
       <c r="G9" t="n">
-        <v>6.213250000000001</v>
+        <v>6.212150000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>6.296</v>
       </c>
       <c r="C10" t="n">
-        <v>6.295</v>
+        <v>6.296</v>
       </c>
       <c r="D10" t="n">
         <v>6.296</v>
       </c>
       <c r="E10" t="n">
-        <v>6.295</v>
+        <v>6.296</v>
       </c>
       <c r="F10" t="n">
-        <v>7448.005</v>
+        <v>33233.6942</v>
       </c>
       <c r="G10" t="n">
-        <v>6.214483333333335</v>
+        <v>6.213250000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.293</v>
+        <v>6.296</v>
       </c>
       <c r="C11" t="n">
-        <v>6.293</v>
+        <v>6.295</v>
       </c>
       <c r="D11" t="n">
-        <v>6.293</v>
+        <v>6.296</v>
       </c>
       <c r="E11" t="n">
-        <v>6.293</v>
+        <v>6.295</v>
       </c>
       <c r="F11" t="n">
-        <v>69222</v>
+        <v>7448.005</v>
       </c>
       <c r="G11" t="n">
-        <v>6.215816666666668</v>
+        <v>6.214483333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.26</v>
+        <v>6.293</v>
       </c>
       <c r="C12" t="n">
-        <v>6.26</v>
+        <v>6.293</v>
       </c>
       <c r="D12" t="n">
-        <v>6.26</v>
+        <v>6.293</v>
       </c>
       <c r="E12" t="n">
-        <v>6.26</v>
+        <v>6.293</v>
       </c>
       <c r="F12" t="n">
-        <v>50879.1579</v>
+        <v>69222</v>
       </c>
       <c r="G12" t="n">
-        <v>6.215483333333335</v>
+        <v>6.215816666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="C13" t="n">
-        <v>6.29</v>
+        <v>6.26</v>
       </c>
       <c r="D13" t="n">
-        <v>6.29</v>
+        <v>6.26</v>
       </c>
       <c r="E13" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="F13" t="n">
-        <v>36177.1601</v>
+        <v>50879.1579</v>
       </c>
       <c r="G13" t="n">
-        <v>6.216316666666668</v>
+        <v>6.215483333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.302</v>
+        <v>6.27</v>
       </c>
       <c r="C14" t="n">
-        <v>6.302</v>
+        <v>6.29</v>
       </c>
       <c r="D14" t="n">
-        <v>6.302</v>
+        <v>6.29</v>
       </c>
       <c r="E14" t="n">
-        <v>6.302</v>
+        <v>6.27</v>
       </c>
       <c r="F14" t="n">
-        <v>305.0099</v>
+        <v>36177.1601</v>
       </c>
       <c r="G14" t="n">
-        <v>6.217816666666669</v>
+        <v>6.216316666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.263</v>
+        <v>6.302</v>
       </c>
       <c r="C15" t="n">
-        <v>6.263</v>
+        <v>6.302</v>
       </c>
       <c r="D15" t="n">
-        <v>6.263</v>
+        <v>6.302</v>
       </c>
       <c r="E15" t="n">
-        <v>6.263</v>
+        <v>6.302</v>
       </c>
       <c r="F15" t="n">
-        <v>152953.6135</v>
+        <v>305.0099</v>
       </c>
       <c r="G15" t="n">
-        <v>6.217533333333336</v>
+        <v>6.217816666666669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.264</v>
+        <v>6.263</v>
       </c>
       <c r="C16" t="n">
-        <v>6.264</v>
+        <v>6.263</v>
       </c>
       <c r="D16" t="n">
-        <v>6.264</v>
+        <v>6.263</v>
       </c>
       <c r="E16" t="n">
-        <v>6.264</v>
+        <v>6.263</v>
       </c>
       <c r="F16" t="n">
-        <v>122143.8844</v>
+        <v>152953.6135</v>
       </c>
       <c r="G16" t="n">
-        <v>6.218400000000003</v>
+        <v>6.217533333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>6.264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001</v>
+        <v>122143.8844</v>
       </c>
       <c r="G17" t="n">
-        <v>6.219300000000003</v>
+        <v>6.218400000000003</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.306</v>
+        <v>6.264</v>
       </c>
       <c r="C18" t="n">
-        <v>6.306</v>
+        <v>6.264</v>
       </c>
       <c r="D18" t="n">
-        <v>6.306</v>
+        <v>6.264</v>
       </c>
       <c r="E18" t="n">
-        <v>6.306</v>
+        <v>6.264</v>
       </c>
       <c r="F18" t="n">
-        <v>837.9334</v>
+        <v>0.0001</v>
       </c>
       <c r="G18" t="n">
-        <v>6.220850000000002</v>
+        <v>6.219300000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.308</v>
+        <v>6.306</v>
       </c>
       <c r="C19" t="n">
-        <v>6.32</v>
+        <v>6.306</v>
       </c>
       <c r="D19" t="n">
-        <v>6.32</v>
+        <v>6.306</v>
       </c>
       <c r="E19" t="n">
-        <v>6.308</v>
+        <v>6.306</v>
       </c>
       <c r="F19" t="n">
-        <v>34633.4599</v>
+        <v>837.9334</v>
       </c>
       <c r="G19" t="n">
-        <v>6.222633333333335</v>
+        <v>6.220850000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.297</v>
+        <v>6.308</v>
       </c>
       <c r="C20" t="n">
-        <v>6.323</v>
+        <v>6.32</v>
       </c>
       <c r="D20" t="n">
-        <v>6.323</v>
+        <v>6.32</v>
       </c>
       <c r="E20" t="n">
-        <v>6.296</v>
+        <v>6.308</v>
       </c>
       <c r="F20" t="n">
-        <v>316726.0977</v>
+        <v>34633.4599</v>
       </c>
       <c r="G20" t="n">
-        <v>6.224650000000001</v>
+        <v>6.222633333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.322</v>
+        <v>6.297</v>
       </c>
       <c r="C21" t="n">
-        <v>6.322</v>
+        <v>6.323</v>
       </c>
       <c r="D21" t="n">
-        <v>6.322</v>
+        <v>6.323</v>
       </c>
       <c r="E21" t="n">
-        <v>6.322</v>
+        <v>6.296</v>
       </c>
       <c r="F21" t="n">
-        <v>30000</v>
+        <v>316726.0977</v>
       </c>
       <c r="G21" t="n">
-        <v>6.225816666666669</v>
+        <v>6.224650000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.323</v>
+        <v>6.322</v>
       </c>
       <c r="C22" t="n">
-        <v>6.324</v>
+        <v>6.322</v>
       </c>
       <c r="D22" t="n">
-        <v>6.324</v>
+        <v>6.322</v>
       </c>
       <c r="E22" t="n">
-        <v>6.323</v>
+        <v>6.322</v>
       </c>
       <c r="F22" t="n">
-        <v>8363.189899999999</v>
+        <v>30000</v>
       </c>
       <c r="G22" t="n">
-        <v>6.227266666666668</v>
+        <v>6.225816666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.298</v>
+        <v>6.323</v>
       </c>
       <c r="C23" t="n">
-        <v>6.329</v>
+        <v>6.324</v>
       </c>
       <c r="D23" t="n">
-        <v>6.329</v>
+        <v>6.324</v>
       </c>
       <c r="E23" t="n">
-        <v>6.295</v>
+        <v>6.323</v>
       </c>
       <c r="F23" t="n">
-        <v>698527.7813</v>
+        <v>8363.189899999999</v>
       </c>
       <c r="G23" t="n">
-        <v>6.228533333333335</v>
+        <v>6.227266666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.3</v>
+        <v>6.298</v>
       </c>
       <c r="C24" t="n">
-        <v>6.3</v>
+        <v>6.329</v>
       </c>
       <c r="D24" t="n">
-        <v>6.3</v>
+        <v>6.329</v>
       </c>
       <c r="E24" t="n">
-        <v>6.3</v>
+        <v>6.295</v>
       </c>
       <c r="F24" t="n">
-        <v>249733.2103</v>
+        <v>698527.7813</v>
       </c>
       <c r="G24" t="n">
-        <v>6.230366666666669</v>
+        <v>6.228533333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.296</v>
+        <v>6.3</v>
       </c>
       <c r="C25" t="n">
-        <v>6.294</v>
+        <v>6.3</v>
       </c>
       <c r="D25" t="n">
-        <v>6.296</v>
+        <v>6.3</v>
       </c>
       <c r="E25" t="n">
-        <v>6.294</v>
+        <v>6.3</v>
       </c>
       <c r="F25" t="n">
-        <v>39803.3913</v>
+        <v>249733.2103</v>
       </c>
       <c r="G25" t="n">
-        <v>6.233383333333335</v>
+        <v>6.230366666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.3</v>
+        <v>6.296</v>
       </c>
       <c r="C26" t="n">
-        <v>6.3</v>
+        <v>6.294</v>
       </c>
       <c r="D26" t="n">
-        <v>6.3</v>
+        <v>6.296</v>
       </c>
       <c r="E26" t="n">
-        <v>6.3</v>
+        <v>6.294</v>
       </c>
       <c r="F26" t="n">
-        <v>1148.9544</v>
+        <v>39803.3913</v>
       </c>
       <c r="G26" t="n">
-        <v>6.237350000000002</v>
+        <v>6.233383333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.33</v>
+        <v>6.3</v>
       </c>
       <c r="C27" t="n">
-        <v>6.33</v>
+        <v>6.3</v>
       </c>
       <c r="D27" t="n">
-        <v>6.33</v>
+        <v>6.3</v>
       </c>
       <c r="E27" t="n">
-        <v>6.33</v>
+        <v>6.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2687.7557</v>
+        <v>1148.9544</v>
       </c>
       <c r="G27" t="n">
-        <v>6.240350000000002</v>
+        <v>6.237350000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.333</v>
+        <v>6.33</v>
       </c>
       <c r="C28" t="n">
-        <v>6.333</v>
+        <v>6.33</v>
       </c>
       <c r="D28" t="n">
-        <v>6.333</v>
+        <v>6.33</v>
       </c>
       <c r="E28" t="n">
-        <v>6.333</v>
+        <v>6.33</v>
       </c>
       <c r="F28" t="n">
-        <v>846.9647</v>
+        <v>2687.7557</v>
       </c>
       <c r="G28" t="n">
-        <v>6.242900000000002</v>
+        <v>6.240350000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>6.333</v>
       </c>
       <c r="F29" t="n">
-        <v>426.4636</v>
+        <v>846.9647</v>
       </c>
       <c r="G29" t="n">
-        <v>6.244616666666669</v>
+        <v>6.242900000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.335</v>
+        <v>6.333</v>
       </c>
       <c r="C30" t="n">
-        <v>6.336</v>
+        <v>6.333</v>
       </c>
       <c r="D30" t="n">
-        <v>6.36</v>
+        <v>6.333</v>
       </c>
       <c r="E30" t="n">
-        <v>6.335</v>
+        <v>6.333</v>
       </c>
       <c r="F30" t="n">
-        <v>173069.5736</v>
+        <v>426.4636</v>
       </c>
       <c r="G30" t="n">
-        <v>6.246166666666669</v>
+        <v>6.244616666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.336</v>
+        <v>6.335</v>
       </c>
       <c r="C31" t="n">
         <v>6.336</v>
       </c>
       <c r="D31" t="n">
-        <v>6.336</v>
+        <v>6.36</v>
       </c>
       <c r="E31" t="n">
-        <v>6.336</v>
+        <v>6.335</v>
       </c>
       <c r="F31" t="n">
-        <v>7558.7392</v>
+        <v>173069.5736</v>
       </c>
       <c r="G31" t="n">
-        <v>6.247483333333336</v>
+        <v>6.246166666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.33</v>
+        <v>6.336</v>
       </c>
       <c r="C32" t="n">
         <v>6.336</v>
@@ -1492,13 +1492,13 @@
         <v>6.336</v>
       </c>
       <c r="E32" t="n">
-        <v>6.33</v>
+        <v>6.336</v>
       </c>
       <c r="F32" t="n">
-        <v>51507.1176</v>
+        <v>7558.7392</v>
       </c>
       <c r="G32" t="n">
-        <v>6.24941666666667</v>
+        <v>6.247483333333336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.358</v>
+        <v>6.33</v>
       </c>
       <c r="C33" t="n">
-        <v>6.358</v>
+        <v>6.336</v>
       </c>
       <c r="D33" t="n">
-        <v>6.358</v>
+        <v>6.336</v>
       </c>
       <c r="E33" t="n">
-        <v>6.358</v>
+        <v>6.33</v>
       </c>
       <c r="F33" t="n">
-        <v>4469.2915</v>
+        <v>51507.1176</v>
       </c>
       <c r="G33" t="n">
-        <v>6.25156666666667</v>
+        <v>6.24941666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.359</v>
+        <v>6.358</v>
       </c>
       <c r="C34" t="n">
-        <v>6.359</v>
+        <v>6.358</v>
       </c>
       <c r="D34" t="n">
-        <v>6.359</v>
+        <v>6.358</v>
       </c>
       <c r="E34" t="n">
-        <v>6.359</v>
+        <v>6.358</v>
       </c>
       <c r="F34" t="n">
-        <v>50483.8501</v>
+        <v>4469.2915</v>
       </c>
       <c r="G34" t="n">
-        <v>6.255166666666669</v>
+        <v>6.25156666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>6.359</v>
       </c>
       <c r="F35" t="n">
-        <v>15144.8797</v>
+        <v>50483.8501</v>
       </c>
       <c r="G35" t="n">
-        <v>6.257266666666669</v>
+        <v>6.255166666666669</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>6.359</v>
       </c>
       <c r="F36" t="n">
-        <v>2152.2186</v>
+        <v>15144.8797</v>
       </c>
       <c r="G36" t="n">
-        <v>6.259516666666669</v>
+        <v>6.257266666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.303</v>
+        <v>6.359</v>
       </c>
       <c r="C37" t="n">
-        <v>6.303</v>
+        <v>6.359</v>
       </c>
       <c r="D37" t="n">
-        <v>6.303</v>
+        <v>6.359</v>
       </c>
       <c r="E37" t="n">
-        <v>6.303</v>
+        <v>6.359</v>
       </c>
       <c r="F37" t="n">
-        <v>15499.2498</v>
+        <v>2152.2186</v>
       </c>
       <c r="G37" t="n">
-        <v>6.260450000000002</v>
+        <v>6.259516666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.3</v>
+        <v>6.303</v>
       </c>
       <c r="C38" t="n">
-        <v>6.3</v>
+        <v>6.303</v>
       </c>
       <c r="D38" t="n">
-        <v>6.3</v>
+        <v>6.303</v>
       </c>
       <c r="E38" t="n">
-        <v>6.3</v>
+        <v>6.303</v>
       </c>
       <c r="F38" t="n">
-        <v>41525.5114</v>
+        <v>15499.2498</v>
       </c>
       <c r="G38" t="n">
-        <v>6.261616666666669</v>
+        <v>6.260450000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.302</v>
+        <v>6.3</v>
       </c>
       <c r="C39" t="n">
-        <v>6.301</v>
+        <v>6.3</v>
       </c>
       <c r="D39" t="n">
-        <v>6.302</v>
+        <v>6.3</v>
       </c>
       <c r="E39" t="n">
-        <v>6.301</v>
+        <v>6.3</v>
       </c>
       <c r="F39" t="n">
-        <v>5735.2943</v>
+        <v>41525.5114</v>
       </c>
       <c r="G39" t="n">
-        <v>6.262666666666669</v>
+        <v>6.261616666666669</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.294</v>
+        <v>6.302</v>
       </c>
       <c r="C40" t="n">
-        <v>6.294</v>
+        <v>6.301</v>
       </c>
       <c r="D40" t="n">
-        <v>6.294</v>
+        <v>6.302</v>
       </c>
       <c r="E40" t="n">
-        <v>6.294</v>
+        <v>6.301</v>
       </c>
       <c r="F40" t="n">
-        <v>170893.493</v>
+        <v>5735.2943</v>
       </c>
       <c r="G40" t="n">
-        <v>6.263833333333335</v>
+        <v>6.262666666666669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>6.294</v>
       </c>
       <c r="C41" t="n">
-        <v>6.2</v>
+        <v>6.294</v>
       </c>
       <c r="D41" t="n">
         <v>6.294</v>
       </c>
       <c r="E41" t="n">
-        <v>6.2</v>
+        <v>6.294</v>
       </c>
       <c r="F41" t="n">
-        <v>180319.2183</v>
+        <v>170893.493</v>
       </c>
       <c r="G41" t="n">
-        <v>6.263600000000001</v>
+        <v>6.263833333333335</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.259</v>
+        <v>6.294</v>
       </c>
       <c r="C42" t="n">
         <v>6.2</v>
       </c>
       <c r="D42" t="n">
-        <v>6.259</v>
+        <v>6.294</v>
       </c>
       <c r="E42" t="n">
         <v>6.2</v>
       </c>
       <c r="F42" t="n">
-        <v>1006456.7777</v>
+        <v>180319.2183</v>
       </c>
       <c r="G42" t="n">
-        <v>6.263200000000001</v>
+        <v>6.263600000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>6.259</v>
+      </c>
+      <c r="C43" t="n">
         <v>6.2</v>
       </c>
-      <c r="C43" t="n">
-        <v>6.236</v>
-      </c>
       <c r="D43" t="n">
-        <v>6.236</v>
+        <v>6.259</v>
       </c>
       <c r="E43" t="n">
         <v>6.2</v>
       </c>
       <c r="F43" t="n">
-        <v>2322247.2034</v>
+        <v>1006456.7777</v>
       </c>
       <c r="G43" t="n">
-        <v>6.265283333333334</v>
+        <v>6.263200000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="C44" t="n">
-        <v>6.18</v>
+        <v>6.236</v>
       </c>
       <c r="D44" t="n">
-        <v>6.18</v>
+        <v>6.236</v>
       </c>
       <c r="E44" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="F44" t="n">
-        <v>13946.7924</v>
+        <v>2322247.2034</v>
       </c>
       <c r="G44" t="n">
-        <v>6.266600000000001</v>
+        <v>6.265283333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>6.18</v>
       </c>
       <c r="C45" t="n">
-        <v>6.229</v>
+        <v>6.18</v>
       </c>
       <c r="D45" t="n">
-        <v>6.229</v>
+        <v>6.18</v>
       </c>
       <c r="E45" t="n">
         <v>6.18</v>
       </c>
       <c r="F45" t="n">
-        <v>10668.3856</v>
+        <v>13946.7924</v>
       </c>
       <c r="G45" t="n">
-        <v>6.267933333333334</v>
+        <v>6.266600000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.21</v>
+        <v>6.18</v>
       </c>
       <c r="C46" t="n">
-        <v>6.21</v>
+        <v>6.229</v>
       </c>
       <c r="D46" t="n">
-        <v>6.21</v>
+        <v>6.229</v>
       </c>
       <c r="E46" t="n">
-        <v>6.21</v>
+        <v>6.18</v>
       </c>
       <c r="F46" t="n">
-        <v>129657.3088</v>
+        <v>10668.3856</v>
       </c>
       <c r="G46" t="n">
-        <v>6.269100000000001</v>
+        <v>6.267933333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>6.21</v>
       </c>
       <c r="C47" t="n">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="D47" t="n">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="E47" t="n">
         <v>6.21</v>
       </c>
       <c r="F47" t="n">
-        <v>3600</v>
+        <v>129657.3088</v>
       </c>
       <c r="G47" t="n">
-        <v>6.271266666666667</v>
+        <v>6.269100000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>6.21</v>
       </c>
       <c r="C48" t="n">
-        <v>6.21</v>
+        <v>6.25</v>
       </c>
       <c r="D48" t="n">
-        <v>6.21</v>
+        <v>6.25</v>
       </c>
       <c r="E48" t="n">
         <v>6.21</v>
       </c>
       <c r="F48" t="n">
-        <v>111513.0175</v>
+        <v>3600</v>
       </c>
       <c r="G48" t="n">
-        <v>6.272450000000001</v>
+        <v>6.271266666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.211</v>
+        <v>6.21</v>
       </c>
       <c r="C49" t="n">
         <v>6.21</v>
       </c>
       <c r="D49" t="n">
-        <v>6.211</v>
+        <v>6.21</v>
       </c>
       <c r="E49" t="n">
         <v>6.21</v>
       </c>
       <c r="F49" t="n">
-        <v>4520.7287</v>
+        <v>111513.0175</v>
       </c>
       <c r="G49" t="n">
-        <v>6.273633333333334</v>
+        <v>6.272450000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,32 +2113,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.249</v>
+        <v>6.211</v>
       </c>
       <c r="C50" t="n">
-        <v>6.249</v>
+        <v>6.21</v>
       </c>
       <c r="D50" t="n">
-        <v>6.249</v>
+        <v>6.211</v>
       </c>
       <c r="E50" t="n">
-        <v>6.249</v>
+        <v>6.21</v>
       </c>
       <c r="F50" t="n">
-        <v>110264.3471</v>
+        <v>4520.7287</v>
       </c>
       <c r="G50" t="n">
-        <v>6.275133333333334</v>
+        <v>6.273633333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2154,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.251</v>
+        <v>6.249</v>
       </c>
       <c r="C51" t="n">
-        <v>6.275</v>
+        <v>6.249</v>
       </c>
       <c r="D51" t="n">
-        <v>6.275</v>
+        <v>6.249</v>
       </c>
       <c r="E51" t="n">
-        <v>6.251</v>
+        <v>6.249</v>
       </c>
       <c r="F51" t="n">
-        <v>25648.0534</v>
+        <v>110264.3471</v>
       </c>
       <c r="G51" t="n">
-        <v>6.2769</v>
+        <v>6.275133333333334</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2172,12 +2178,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>6.249</v>
-      </c>
-      <c r="K51" t="n">
-        <v>6.249</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+        <v>6.21</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2187,38 +2195,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>6.251</v>
+      </c>
+      <c r="C52" t="n">
         <v>6.275</v>
-      </c>
-      <c r="C52" t="n">
-        <v>6.246</v>
       </c>
       <c r="D52" t="n">
         <v>6.275</v>
       </c>
       <c r="E52" t="n">
-        <v>6.246</v>
+        <v>6.251</v>
       </c>
       <c r="F52" t="n">
-        <v>42621.7713</v>
+        <v>25648.0534</v>
       </c>
       <c r="G52" t="n">
-        <v>6.27775</v>
+        <v>6.2769</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>6.275</v>
-      </c>
-      <c r="K52" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2230,35 +2234,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.302</v>
+        <v>6.275</v>
       </c>
       <c r="C53" t="n">
-        <v>6.311</v>
+        <v>6.246</v>
       </c>
       <c r="D53" t="n">
-        <v>6.311</v>
+        <v>6.275</v>
       </c>
       <c r="E53" t="n">
-        <v>6.302</v>
+        <v>6.246</v>
       </c>
       <c r="F53" t="n">
-        <v>73496.10249999999</v>
+        <v>42621.7713</v>
       </c>
       <c r="G53" t="n">
-        <v>6.2792</v>
+        <v>6.27775</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>6.246</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2273,35 +2273,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.28</v>
+        <v>6.302</v>
       </c>
       <c r="C54" t="n">
-        <v>6.272</v>
+        <v>6.311</v>
       </c>
       <c r="D54" t="n">
-        <v>6.28</v>
+        <v>6.311</v>
       </c>
       <c r="E54" t="n">
-        <v>6.272</v>
+        <v>6.302</v>
       </c>
       <c r="F54" t="n">
-        <v>21606.8817</v>
+        <v>73496.10249999999</v>
       </c>
       <c r="G54" t="n">
-        <v>6.28</v>
+        <v>6.2792</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>6.311</v>
-      </c>
-      <c r="K54" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2319,20 +2315,20 @@
         <v>6.28</v>
       </c>
       <c r="C55" t="n">
-        <v>6.28</v>
+        <v>6.272</v>
       </c>
       <c r="D55" t="n">
         <v>6.28</v>
       </c>
       <c r="E55" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="F55" t="n">
+        <v>21606.8817</v>
+      </c>
+      <c r="G55" t="n">
         <v>6.28</v>
       </c>
-      <c r="F55" t="n">
-        <v>3429.237</v>
-      </c>
-      <c r="G55" t="n">
-        <v>6.280933333333333</v>
-      </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
@@ -2340,9 +2336,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2357,22 +2351,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="C56" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="D56" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="E56" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="F56" t="n">
-        <v>10566.5876</v>
+        <v>3429.237</v>
       </c>
       <c r="G56" t="n">
-        <v>6.2822</v>
+        <v>6.280933333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2381,9 +2375,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,22 +2390,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="C57" t="n">
-        <v>6.228</v>
+        <v>6.3</v>
       </c>
       <c r="D57" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="E57" t="n">
-        <v>6.228</v>
+        <v>6.3</v>
       </c>
       <c r="F57" t="n">
-        <v>101448.587</v>
+        <v>10566.5876</v>
       </c>
       <c r="G57" t="n">
-        <v>6.282266666666668</v>
+        <v>6.2822</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2422,9 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2439,22 +2429,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.26</v>
+        <v>6.28</v>
       </c>
       <c r="C58" t="n">
-        <v>6.261</v>
+        <v>6.228</v>
       </c>
       <c r="D58" t="n">
-        <v>6.302</v>
+        <v>6.28</v>
       </c>
       <c r="E58" t="n">
-        <v>6.26</v>
+        <v>6.228</v>
       </c>
       <c r="F58" t="n">
-        <v>70167.4926</v>
+        <v>101448.587</v>
       </c>
       <c r="G58" t="n">
-        <v>6.282883333333334</v>
+        <v>6.282266666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2463,9 +2453,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,22 +2468,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.309</v>
+        <v>6.26</v>
       </c>
       <c r="C59" t="n">
+        <v>6.261</v>
+      </c>
+      <c r="D59" t="n">
         <v>6.302</v>
       </c>
-      <c r="D59" t="n">
-        <v>6.33</v>
-      </c>
       <c r="E59" t="n">
-        <v>6.302</v>
+        <v>6.26</v>
       </c>
       <c r="F59" t="n">
-        <v>38416.8845</v>
+        <v>70167.4926</v>
       </c>
       <c r="G59" t="n">
-        <v>6.284183333333335</v>
+        <v>6.282883333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2504,9 +2492,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2521,22 +2507,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.331</v>
+        <v>6.309</v>
       </c>
       <c r="C60" t="n">
-        <v>6.331</v>
+        <v>6.302</v>
       </c>
       <c r="D60" t="n">
-        <v>6.331</v>
+        <v>6.33</v>
       </c>
       <c r="E60" t="n">
-        <v>6.331</v>
+        <v>6.302</v>
       </c>
       <c r="F60" t="n">
-        <v>10410.123</v>
+        <v>38416.8845</v>
       </c>
       <c r="G60" t="n">
-        <v>6.286333333333335</v>
+        <v>6.284183333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2545,9 +2531,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2574,10 +2558,10 @@
         <v>6.331</v>
       </c>
       <c r="F61" t="n">
-        <v>2457.8386</v>
+        <v>10410.123</v>
       </c>
       <c r="G61" t="n">
-        <v>6.287833333333336</v>
+        <v>6.286333333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,9 +2570,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,22 +2585,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.338</v>
+        <v>6.331</v>
       </c>
       <c r="C62" t="n">
-        <v>6.338</v>
+        <v>6.331</v>
       </c>
       <c r="D62" t="n">
-        <v>6.338</v>
+        <v>6.331</v>
       </c>
       <c r="E62" t="n">
-        <v>6.338</v>
+        <v>6.331</v>
       </c>
       <c r="F62" t="n">
-        <v>3405.9707</v>
+        <v>2457.8386</v>
       </c>
       <c r="G62" t="n">
-        <v>6.289250000000004</v>
+        <v>6.287833333333336</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2627,9 +2609,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,22 +2624,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.323</v>
+        <v>6.338</v>
       </c>
       <c r="C63" t="n">
-        <v>6.31</v>
+        <v>6.338</v>
       </c>
       <c r="D63" t="n">
-        <v>6.323</v>
+        <v>6.338</v>
       </c>
       <c r="E63" t="n">
-        <v>6.31</v>
+        <v>6.338</v>
       </c>
       <c r="F63" t="n">
-        <v>26471.0793</v>
+        <v>3405.9707</v>
       </c>
       <c r="G63" t="n">
-        <v>6.28976666666667</v>
+        <v>6.289250000000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2668,9 +2648,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,22 +2663,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.308</v>
+        <v>6.323</v>
       </c>
       <c r="C64" t="n">
-        <v>6.315</v>
+        <v>6.31</v>
       </c>
       <c r="D64" t="n">
-        <v>6.315</v>
+        <v>6.323</v>
       </c>
       <c r="E64" t="n">
-        <v>6.308</v>
+        <v>6.31</v>
       </c>
       <c r="F64" t="n">
-        <v>57700.4012</v>
+        <v>26471.0793</v>
       </c>
       <c r="G64" t="n">
-        <v>6.290800000000004</v>
+        <v>6.28976666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2709,9 +2687,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2726,22 +2702,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.33</v>
+        <v>6.308</v>
       </c>
       <c r="C65" t="n">
-        <v>6.33</v>
+        <v>6.315</v>
       </c>
       <c r="D65" t="n">
-        <v>6.33</v>
+        <v>6.315</v>
       </c>
       <c r="E65" t="n">
-        <v>6.33</v>
+        <v>6.308</v>
       </c>
       <c r="F65" t="n">
-        <v>21802.3883</v>
+        <v>57700.4012</v>
       </c>
       <c r="G65" t="n">
-        <v>6.29126666666667</v>
+        <v>6.290800000000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2750,9 +2726,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2767,22 +2741,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.327</v>
+        <v>6.33</v>
       </c>
       <c r="C66" t="n">
-        <v>6.327</v>
+        <v>6.33</v>
       </c>
       <c r="D66" t="n">
-        <v>6.327</v>
+        <v>6.33</v>
       </c>
       <c r="E66" t="n">
-        <v>6.327</v>
+        <v>6.33</v>
       </c>
       <c r="F66" t="n">
-        <v>72755.4198</v>
+        <v>21802.3883</v>
       </c>
       <c r="G66" t="n">
-        <v>6.291800000000003</v>
+        <v>6.29126666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2791,9 +2765,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,19 +2783,19 @@
         <v>6.327</v>
       </c>
       <c r="C67" t="n">
-        <v>6.296</v>
+        <v>6.327</v>
       </c>
       <c r="D67" t="n">
         <v>6.327</v>
       </c>
       <c r="E67" t="n">
-        <v>6.296</v>
+        <v>6.327</v>
       </c>
       <c r="F67" t="n">
-        <v>1333.2571</v>
+        <v>72755.4198</v>
       </c>
       <c r="G67" t="n">
-        <v>6.291783333333336</v>
+        <v>6.291800000000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2832,9 +2804,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2849,22 +2819,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.3</v>
+        <v>6.327</v>
       </c>
       <c r="C68" t="n">
-        <v>6.3</v>
+        <v>6.296</v>
       </c>
       <c r="D68" t="n">
-        <v>6.3</v>
+        <v>6.327</v>
       </c>
       <c r="E68" t="n">
-        <v>6.211</v>
+        <v>6.296</v>
       </c>
       <c r="F68" t="n">
-        <v>325136.6765</v>
+        <v>1333.2571</v>
       </c>
       <c r="G68" t="n">
-        <v>6.291816666666668</v>
+        <v>6.291783333333336</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2873,9 +2843,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,22 +2858,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.31</v>
+        <v>6.3</v>
       </c>
       <c r="C69" t="n">
-        <v>6.31</v>
+        <v>6.3</v>
       </c>
       <c r="D69" t="n">
-        <v>6.31</v>
+        <v>6.3</v>
       </c>
       <c r="E69" t="n">
-        <v>6.31</v>
+        <v>6.211</v>
       </c>
       <c r="F69" t="n">
-        <v>1347.0036</v>
+        <v>325136.6765</v>
       </c>
       <c r="G69" t="n">
-        <v>6.292050000000002</v>
+        <v>6.291816666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2914,9 +2882,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2931,22 +2897,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.341</v>
+        <v>6.31</v>
       </c>
       <c r="C70" t="n">
-        <v>6.341</v>
+        <v>6.31</v>
       </c>
       <c r="D70" t="n">
-        <v>6.341</v>
+        <v>6.31</v>
       </c>
       <c r="E70" t="n">
-        <v>6.341</v>
+        <v>6.31</v>
       </c>
       <c r="F70" t="n">
-        <v>2775.4325</v>
+        <v>1347.0036</v>
       </c>
       <c r="G70" t="n">
-        <v>6.292816666666669</v>
+        <v>6.292050000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2955,9 +2921,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2972,22 +2936,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.349</v>
+        <v>6.341</v>
       </c>
       <c r="C71" t="n">
-        <v>6.349</v>
+        <v>6.341</v>
       </c>
       <c r="D71" t="n">
-        <v>6.349</v>
+        <v>6.341</v>
       </c>
       <c r="E71" t="n">
-        <v>6.349</v>
+        <v>6.341</v>
       </c>
       <c r="F71" t="n">
-        <v>93360</v>
+        <v>2775.4325</v>
       </c>
       <c r="G71" t="n">
-        <v>6.293750000000002</v>
+        <v>6.292816666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2996,9 +2960,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3013,22 +2975,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.359</v>
+        <v>6.349</v>
       </c>
       <c r="C72" t="n">
-        <v>6.359</v>
+        <v>6.349</v>
       </c>
       <c r="D72" t="n">
-        <v>6.359</v>
+        <v>6.349</v>
       </c>
       <c r="E72" t="n">
-        <v>6.359</v>
+        <v>6.349</v>
       </c>
       <c r="F72" t="n">
-        <v>51526</v>
+        <v>93360</v>
       </c>
       <c r="G72" t="n">
-        <v>6.295400000000002</v>
+        <v>6.293750000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3037,9 +2999,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3066,10 +3026,10 @@
         <v>6.359</v>
       </c>
       <c r="F73" t="n">
-        <v>18568.9979</v>
+        <v>51526</v>
       </c>
       <c r="G73" t="n">
-        <v>6.296550000000001</v>
+        <v>6.295400000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3078,9 +3038,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,22 +3053,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.348</v>
+        <v>6.359</v>
       </c>
       <c r="C74" t="n">
-        <v>6.37</v>
+        <v>6.359</v>
       </c>
       <c r="D74" t="n">
-        <v>6.37</v>
+        <v>6.359</v>
       </c>
       <c r="E74" t="n">
-        <v>6.339</v>
+        <v>6.359</v>
       </c>
       <c r="F74" t="n">
-        <v>150577.368</v>
+        <v>18568.9979</v>
       </c>
       <c r="G74" t="n">
-        <v>6.297683333333334</v>
+        <v>6.296550000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3119,9 +3077,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3136,22 +3092,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.342</v>
+        <v>6.348</v>
       </c>
       <c r="C75" t="n">
-        <v>6.342</v>
+        <v>6.37</v>
       </c>
       <c r="D75" t="n">
-        <v>6.342</v>
+        <v>6.37</v>
       </c>
       <c r="E75" t="n">
-        <v>6.342</v>
+        <v>6.339</v>
       </c>
       <c r="F75" t="n">
-        <v>8486.701300000001</v>
+        <v>150577.368</v>
       </c>
       <c r="G75" t="n">
-        <v>6.299000000000001</v>
+        <v>6.297683333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3160,9 +3116,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3177,22 +3131,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.341</v>
+        <v>6.342</v>
       </c>
       <c r="C76" t="n">
-        <v>6.331</v>
+        <v>6.342</v>
       </c>
       <c r="D76" t="n">
-        <v>6.341</v>
+        <v>6.342</v>
       </c>
       <c r="E76" t="n">
-        <v>6.331</v>
+        <v>6.342</v>
       </c>
       <c r="F76" t="n">
-        <v>101114.603</v>
+        <v>8486.701300000001</v>
       </c>
       <c r="G76" t="n">
-        <v>6.300116666666668</v>
+        <v>6.299000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3201,9 +3155,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3218,22 +3170,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.331</v>
+        <v>6.341</v>
       </c>
       <c r="C77" t="n">
         <v>6.331</v>
       </c>
       <c r="D77" t="n">
-        <v>6.331</v>
+        <v>6.341</v>
       </c>
       <c r="E77" t="n">
         <v>6.331</v>
       </c>
       <c r="F77" t="n">
-        <v>6571.63</v>
+        <v>101114.603</v>
       </c>
       <c r="G77" t="n">
-        <v>6.301233333333334</v>
+        <v>6.300116666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3242,9 +3194,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3271,10 +3221,10 @@
         <v>6.331</v>
       </c>
       <c r="F78" t="n">
-        <v>2422.7269</v>
+        <v>6571.63</v>
       </c>
       <c r="G78" t="n">
-        <v>6.301650000000001</v>
+        <v>6.301233333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3283,9 +3233,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3303,19 +3251,19 @@
         <v>6.331</v>
       </c>
       <c r="C79" t="n">
-        <v>6.252</v>
+        <v>6.331</v>
       </c>
       <c r="D79" t="n">
         <v>6.331</v>
       </c>
       <c r="E79" t="n">
-        <v>6.252</v>
+        <v>6.331</v>
       </c>
       <c r="F79" t="n">
-        <v>363006.7106</v>
+        <v>2422.7269</v>
       </c>
       <c r="G79" t="n">
-        <v>6.300516666666669</v>
+        <v>6.301650000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3324,9 +3272,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,22 +3287,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.32</v>
+        <v>6.331</v>
       </c>
       <c r="C80" t="n">
-        <v>6.33</v>
+        <v>6.252</v>
       </c>
       <c r="D80" t="n">
-        <v>6.33</v>
+        <v>6.331</v>
       </c>
       <c r="E80" t="n">
-        <v>6.32</v>
+        <v>6.252</v>
       </c>
       <c r="F80" t="n">
-        <v>6565.2977</v>
+        <v>363006.7106</v>
       </c>
       <c r="G80" t="n">
-        <v>6.300633333333336</v>
+        <v>6.300516666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3365,9 +3311,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,10 +3338,10 @@
         <v>6.32</v>
       </c>
       <c r="F81" t="n">
-        <v>82479.4691</v>
+        <v>6565.2977</v>
       </c>
       <c r="G81" t="n">
-        <v>6.300766666666669</v>
+        <v>6.300633333333336</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3406,9 +3350,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3423,7 +3365,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.33</v>
+        <v>6.32</v>
       </c>
       <c r="C82" t="n">
         <v>6.33</v>
@@ -3432,13 +3374,13 @@
         <v>6.33</v>
       </c>
       <c r="E82" t="n">
-        <v>6.33</v>
+        <v>6.32</v>
       </c>
       <c r="F82" t="n">
-        <v>93987.6237</v>
+        <v>82479.4691</v>
       </c>
       <c r="G82" t="n">
-        <v>6.300866666666668</v>
+        <v>6.300766666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3447,9 +3389,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,22 +3404,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.302</v>
+        <v>6.33</v>
       </c>
       <c r="C83" t="n">
-        <v>6.302</v>
+        <v>6.33</v>
       </c>
       <c r="D83" t="n">
-        <v>6.302</v>
+        <v>6.33</v>
       </c>
       <c r="E83" t="n">
-        <v>6.302</v>
+        <v>6.33</v>
       </c>
       <c r="F83" t="n">
-        <v>3571.6543</v>
+        <v>93987.6237</v>
       </c>
       <c r="G83" t="n">
-        <v>6.300416666666668</v>
+        <v>6.300866666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3488,9 +3428,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,22 +3443,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.33</v>
+        <v>6.302</v>
       </c>
       <c r="C84" t="n">
-        <v>6.33</v>
+        <v>6.302</v>
       </c>
       <c r="D84" t="n">
-        <v>6.33</v>
+        <v>6.302</v>
       </c>
       <c r="E84" t="n">
-        <v>6.33</v>
+        <v>6.302</v>
       </c>
       <c r="F84" t="n">
-        <v>433.0881</v>
+        <v>3571.6543</v>
       </c>
       <c r="G84" t="n">
-        <v>6.300916666666668</v>
+        <v>6.300416666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3529,9 +3467,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,10 +3494,10 @@
         <v>6.33</v>
       </c>
       <c r="F85" t="n">
-        <v>64438.2375</v>
+        <v>433.0881</v>
       </c>
       <c r="G85" t="n">
-        <v>6.301516666666668</v>
+        <v>6.300916666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3570,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3587,22 +3521,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.341</v>
+        <v>6.33</v>
       </c>
       <c r="C86" t="n">
-        <v>6.363</v>
+        <v>6.33</v>
       </c>
       <c r="D86" t="n">
-        <v>6.363</v>
+        <v>6.33</v>
       </c>
       <c r="E86" t="n">
-        <v>6.341</v>
+        <v>6.33</v>
       </c>
       <c r="F86" t="n">
-        <v>120000</v>
+        <v>64438.2375</v>
       </c>
       <c r="G86" t="n">
-        <v>6.302566666666667</v>
+        <v>6.301516666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3611,9 +3545,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,22 +3560,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.352</v>
+        <v>6.341</v>
       </c>
       <c r="C87" t="n">
-        <v>6.39</v>
+        <v>6.363</v>
       </c>
       <c r="D87" t="n">
-        <v>6.39</v>
+        <v>6.363</v>
       </c>
       <c r="E87" t="n">
-        <v>6.352</v>
+        <v>6.341</v>
       </c>
       <c r="F87" t="n">
-        <v>134194.2654</v>
+        <v>120000</v>
       </c>
       <c r="G87" t="n">
-        <v>6.303566666666668</v>
+        <v>6.302566666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3652,9 +3584,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,22 +3599,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>6.352</v>
+      </c>
+      <c r="C88" t="n">
         <v>6.39</v>
       </c>
-      <c r="C88" t="n">
-        <v>6.41</v>
-      </c>
       <c r="D88" t="n">
-        <v>6.41</v>
+        <v>6.39</v>
       </c>
       <c r="E88" t="n">
-        <v>6.39</v>
+        <v>6.352</v>
       </c>
       <c r="F88" t="n">
-        <v>45273.5246</v>
+        <v>134194.2654</v>
       </c>
       <c r="G88" t="n">
-        <v>6.304850000000001</v>
+        <v>6.303566666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3693,9 +3623,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,7 +3638,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.41</v>
+        <v>6.39</v>
       </c>
       <c r="C89" t="n">
         <v>6.41</v>
@@ -3719,13 +3647,13 @@
         <v>6.41</v>
       </c>
       <c r="E89" t="n">
-        <v>6.41</v>
+        <v>6.39</v>
       </c>
       <c r="F89" t="n">
-        <v>3228.9543</v>
+        <v>45273.5246</v>
       </c>
       <c r="G89" t="n">
-        <v>6.306133333333334</v>
+        <v>6.304850000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3734,9 +3662,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3751,22 +3677,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.392</v>
+        <v>6.41</v>
       </c>
       <c r="C90" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="D90" t="n">
-        <v>6.392</v>
+        <v>6.41</v>
       </c>
       <c r="E90" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="F90" t="n">
-        <v>22040.0139</v>
+        <v>3228.9543</v>
       </c>
       <c r="G90" t="n">
-        <v>6.307033333333334</v>
+        <v>6.306133333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3775,9 +3701,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,22 +3716,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.39</v>
+        <v>6.392</v>
       </c>
       <c r="C91" t="n">
         <v>6.39</v>
       </c>
       <c r="D91" t="n">
-        <v>6.39</v>
+        <v>6.392</v>
       </c>
       <c r="E91" t="n">
         <v>6.39</v>
       </c>
       <c r="F91" t="n">
-        <v>1461.9194</v>
+        <v>22040.0139</v>
       </c>
       <c r="G91" t="n">
-        <v>6.307933333333334</v>
+        <v>6.307033333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3816,9 +3740,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3833,22 +3755,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.41</v>
+        <v>6.39</v>
       </c>
       <c r="C92" t="n">
-        <v>6.437</v>
+        <v>6.39</v>
       </c>
       <c r="D92" t="n">
-        <v>6.437</v>
+        <v>6.39</v>
       </c>
       <c r="E92" t="n">
-        <v>6.41</v>
+        <v>6.39</v>
       </c>
       <c r="F92" t="n">
-        <v>12057.9139</v>
+        <v>1461.9194</v>
       </c>
       <c r="G92" t="n">
-        <v>6.309616666666667</v>
+        <v>6.307933333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3857,9 +3779,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,22 +3794,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.465</v>
+        <v>6.41</v>
       </c>
       <c r="C93" t="n">
-        <v>6.475</v>
+        <v>6.437</v>
       </c>
       <c r="D93" t="n">
-        <v>6.475</v>
+        <v>6.437</v>
       </c>
       <c r="E93" t="n">
-        <v>6.465</v>
+        <v>6.41</v>
       </c>
       <c r="F93" t="n">
-        <v>4340.3562</v>
+        <v>12057.9139</v>
       </c>
       <c r="G93" t="n">
-        <v>6.311566666666667</v>
+        <v>6.309616666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3898,9 +3818,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3915,22 +3833,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.497</v>
+        <v>6.465</v>
       </c>
       <c r="C94" t="n">
-        <v>6.498</v>
+        <v>6.475</v>
       </c>
       <c r="D94" t="n">
-        <v>6.498</v>
+        <v>6.475</v>
       </c>
       <c r="E94" t="n">
-        <v>6.497</v>
+        <v>6.465</v>
       </c>
       <c r="F94" t="n">
-        <v>54041.2565</v>
+        <v>4340.3562</v>
       </c>
       <c r="G94" t="n">
-        <v>6.313883333333334</v>
+        <v>6.311566666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3939,9 +3857,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,22 +3872,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.499</v>
+        <v>6.497</v>
       </c>
       <c r="C95" t="n">
-        <v>6.499</v>
+        <v>6.498</v>
       </c>
       <c r="D95" t="n">
-        <v>6.499</v>
+        <v>6.498</v>
       </c>
       <c r="E95" t="n">
-        <v>6.499</v>
+        <v>6.497</v>
       </c>
       <c r="F95" t="n">
-        <v>20280.6513</v>
+        <v>54041.2565</v>
       </c>
       <c r="G95" t="n">
-        <v>6.316216666666667</v>
+        <v>6.313883333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3980,9 +3896,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.249</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,101 +3914,101 @@
         <v>6.499</v>
       </c>
       <c r="C96" t="n">
-        <v>6.524</v>
+        <v>6.499</v>
       </c>
       <c r="D96" t="n">
-        <v>6.524</v>
+        <v>6.499</v>
       </c>
       <c r="E96" t="n">
         <v>6.499</v>
       </c>
       <c r="F96" t="n">
+        <v>20280.6513</v>
+      </c>
+      <c r="G96" t="n">
+        <v>6.316216666666667</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.499</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.524</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.524</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6.499</v>
+      </c>
+      <c r="F97" t="n">
         <v>244256.5013</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G97" t="n">
         <v>6.318966666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.249</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1.03900704112658</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>6.515</v>
-      </c>
-      <c r="C97" t="n">
-        <v>6.502</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6.515</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6.502</v>
-      </c>
-      <c r="F97" t="n">
-        <v>14418.221</v>
-      </c>
-      <c r="G97" t="n">
-        <v>6.322283333333335</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.524</v>
+        <v>6.515</v>
       </c>
       <c r="C98" t="n">
-        <v>6.524</v>
+        <v>6.502</v>
       </c>
       <c r="D98" t="n">
-        <v>6.537</v>
+        <v>6.515</v>
       </c>
       <c r="E98" t="n">
-        <v>6.473</v>
+        <v>6.502</v>
       </c>
       <c r="F98" t="n">
-        <v>150520.5703</v>
+        <v>14418.221</v>
       </c>
       <c r="G98" t="n">
-        <v>6.326016666666669</v>
+        <v>6.322283333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4108,28 +4022,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.534</v>
+        <v>6.524</v>
       </c>
       <c r="C99" t="n">
-        <v>6.55</v>
+        <v>6.524</v>
       </c>
       <c r="D99" t="n">
-        <v>6.55</v>
+        <v>6.537</v>
       </c>
       <c r="E99" t="n">
-        <v>6.534</v>
+        <v>6.473</v>
       </c>
       <c r="F99" t="n">
-        <v>232977.1367</v>
+        <v>150520.5703</v>
       </c>
       <c r="G99" t="n">
-        <v>6.330166666666669</v>
+        <v>6.326016666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4143,28 +4057,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.546</v>
+        <v>6.534</v>
       </c>
       <c r="C100" t="n">
-        <v>6.546</v>
+        <v>6.55</v>
       </c>
       <c r="D100" t="n">
-        <v>6.546</v>
+        <v>6.55</v>
       </c>
       <c r="E100" t="n">
-        <v>6.546</v>
+        <v>6.534</v>
       </c>
       <c r="F100" t="n">
-        <v>3240.8578</v>
+        <v>232977.1367</v>
       </c>
       <c r="G100" t="n">
-        <v>6.334366666666669</v>
+        <v>6.330166666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4178,22 +4092,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.549</v>
+        <v>6.546</v>
       </c>
       <c r="C101" t="n">
-        <v>6.524</v>
+        <v>6.546</v>
       </c>
       <c r="D101" t="n">
-        <v>6.549</v>
+        <v>6.546</v>
       </c>
       <c r="E101" t="n">
-        <v>6.524</v>
+        <v>6.546</v>
       </c>
       <c r="F101" t="n">
-        <v>55146.843</v>
+        <v>3240.8578</v>
       </c>
       <c r="G101" t="n">
-        <v>6.339766666666669</v>
+        <v>6.334366666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4213,22 +4127,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.524</v>
+        <v>6.549</v>
       </c>
       <c r="C102" t="n">
         <v>6.524</v>
       </c>
       <c r="D102" t="n">
-        <v>6.524</v>
+        <v>6.549</v>
       </c>
       <c r="E102" t="n">
         <v>6.524</v>
       </c>
       <c r="F102" t="n">
-        <v>22636.2383</v>
+        <v>55146.843</v>
       </c>
       <c r="G102" t="n">
-        <v>6.345166666666669</v>
+        <v>6.339766666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4248,28 +4162,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.53</v>
+        <v>6.524</v>
       </c>
       <c r="C103" t="n">
         <v>6.524</v>
       </c>
       <c r="D103" t="n">
-        <v>6.53</v>
+        <v>6.524</v>
       </c>
       <c r="E103" t="n">
         <v>6.524</v>
       </c>
       <c r="F103" t="n">
-        <v>723775.7654</v>
+        <v>22636.2383</v>
       </c>
       <c r="G103" t="n">
-        <v>6.34996666666667</v>
+        <v>6.345166666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4283,22 +4197,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.464</v>
+        <v>6.53</v>
       </c>
       <c r="C104" t="n">
-        <v>6.464</v>
+        <v>6.524</v>
       </c>
       <c r="D104" t="n">
-        <v>6.464</v>
+        <v>6.53</v>
       </c>
       <c r="E104" t="n">
-        <v>6.464</v>
+        <v>6.524</v>
       </c>
       <c r="F104" t="n">
-        <v>4298.7468</v>
+        <v>723775.7654</v>
       </c>
       <c r="G104" t="n">
-        <v>6.354700000000003</v>
+        <v>6.34996666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4321,19 +4235,19 @@
         <v>6.464</v>
       </c>
       <c r="C105" t="n">
-        <v>6.45</v>
+        <v>6.464</v>
       </c>
       <c r="D105" t="n">
         <v>6.464</v>
       </c>
       <c r="E105" t="n">
-        <v>6.45</v>
+        <v>6.464</v>
       </c>
       <c r="F105" t="n">
-        <v>6005.9477</v>
+        <v>4298.7468</v>
       </c>
       <c r="G105" t="n">
-        <v>6.358383333333336</v>
+        <v>6.354700000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4353,22 +4267,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.4</v>
+        <v>6.464</v>
       </c>
       <c r="C106" t="n">
-        <v>6.351</v>
+        <v>6.45</v>
       </c>
       <c r="D106" t="n">
-        <v>6.41</v>
+        <v>6.464</v>
       </c>
       <c r="E106" t="n">
-        <v>6.351</v>
+        <v>6.45</v>
       </c>
       <c r="F106" t="n">
-        <v>236468.7526</v>
+        <v>6005.9477</v>
       </c>
       <c r="G106" t="n">
-        <v>6.360733333333337</v>
+        <v>6.358383333333336</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4388,22 +4302,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.36</v>
+        <v>6.4</v>
       </c>
       <c r="C107" t="n">
-        <v>6.3</v>
+        <v>6.351</v>
       </c>
       <c r="D107" t="n">
-        <v>6.36</v>
+        <v>6.41</v>
       </c>
       <c r="E107" t="n">
-        <v>6.3</v>
+        <v>6.351</v>
       </c>
       <c r="F107" t="n">
-        <v>141329.4765</v>
+        <v>236468.7526</v>
       </c>
       <c r="G107" t="n">
-        <v>6.36156666666667</v>
+        <v>6.360733333333337</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4423,22 +4337,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.3</v>
+        <v>6.36</v>
       </c>
       <c r="C108" t="n">
         <v>6.3</v>
       </c>
       <c r="D108" t="n">
-        <v>6.3</v>
+        <v>6.36</v>
       </c>
       <c r="E108" t="n">
         <v>6.3</v>
       </c>
       <c r="F108" t="n">
-        <v>10334.9599</v>
+        <v>141329.4765</v>
       </c>
       <c r="G108" t="n">
-        <v>6.36306666666667</v>
+        <v>6.36156666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4458,22 +4372,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.272</v>
+        <v>6.3</v>
       </c>
       <c r="C109" t="n">
-        <v>6.272</v>
+        <v>6.3</v>
       </c>
       <c r="D109" t="n">
-        <v>6.272</v>
+        <v>6.3</v>
       </c>
       <c r="E109" t="n">
-        <v>6.272</v>
+        <v>6.3</v>
       </c>
       <c r="F109" t="n">
-        <v>936937.3666</v>
+        <v>10334.9599</v>
       </c>
       <c r="G109" t="n">
-        <v>6.364100000000004</v>
+        <v>6.36306666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4496,19 +4410,19 @@
         <v>6.272</v>
       </c>
       <c r="C110" t="n">
-        <v>6.36</v>
+        <v>6.272</v>
       </c>
       <c r="D110" t="n">
-        <v>6.36</v>
+        <v>6.272</v>
       </c>
       <c r="E110" t="n">
         <v>6.272</v>
       </c>
       <c r="F110" t="n">
-        <v>123595.8228</v>
+        <v>936937.3666</v>
       </c>
       <c r="G110" t="n">
-        <v>6.365950000000003</v>
+        <v>6.364100000000004</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4528,7 +4442,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.36</v>
+        <v>6.272</v>
       </c>
       <c r="C111" t="n">
         <v>6.36</v>
@@ -4537,13 +4451,13 @@
         <v>6.36</v>
       </c>
       <c r="E111" t="n">
-        <v>6.36</v>
+        <v>6.272</v>
       </c>
       <c r="F111" t="n">
-        <v>35255.0691</v>
+        <v>123595.8228</v>
       </c>
       <c r="G111" t="n">
-        <v>6.367366666666671</v>
+        <v>6.365950000000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4566,19 +4480,19 @@
         <v>6.36</v>
       </c>
       <c r="C112" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="D112" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="E112" t="n">
         <v>6.36</v>
       </c>
       <c r="F112" t="n">
-        <v>5879.0797</v>
+        <v>35255.0691</v>
       </c>
       <c r="G112" t="n">
-        <v>6.369600000000005</v>
+        <v>6.367366666666671</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4598,22 +4512,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.399</v>
+        <v>6.36</v>
       </c>
       <c r="C113" t="n">
-        <v>6.403</v>
+        <v>6.38</v>
       </c>
       <c r="D113" t="n">
-        <v>6.403</v>
+        <v>6.38</v>
       </c>
       <c r="E113" t="n">
-        <v>6.399</v>
+        <v>6.36</v>
       </c>
       <c r="F113" t="n">
-        <v>6376.192</v>
+        <v>5879.0797</v>
       </c>
       <c r="G113" t="n">
-        <v>6.371133333333338</v>
+        <v>6.369600000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4633,22 +4547,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.387</v>
+        <v>6.399</v>
       </c>
       <c r="C114" t="n">
-        <v>6.377</v>
+        <v>6.403</v>
       </c>
       <c r="D114" t="n">
         <v>6.403</v>
       </c>
       <c r="E114" t="n">
-        <v>6.377</v>
+        <v>6.399</v>
       </c>
       <c r="F114" t="n">
-        <v>135871.098</v>
+        <v>6376.192</v>
       </c>
       <c r="G114" t="n">
-        <v>6.372883333333339</v>
+        <v>6.371133333333338</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4668,22 +4582,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.45</v>
+        <v>6.387</v>
       </c>
       <c r="C115" t="n">
-        <v>6.421</v>
+        <v>6.377</v>
       </c>
       <c r="D115" t="n">
-        <v>6.45</v>
+        <v>6.403</v>
       </c>
       <c r="E115" t="n">
-        <v>6.421</v>
+        <v>6.377</v>
       </c>
       <c r="F115" t="n">
-        <v>39439.6771</v>
+        <v>135871.098</v>
       </c>
       <c r="G115" t="n">
-        <v>6.375233333333339</v>
+        <v>6.372883333333339</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4703,22 +4617,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.455</v>
+        <v>6.45</v>
       </c>
       <c r="C116" t="n">
-        <v>6.454</v>
+        <v>6.421</v>
       </c>
       <c r="D116" t="n">
-        <v>6.455</v>
+        <v>6.45</v>
       </c>
       <c r="E116" t="n">
-        <v>6.431</v>
+        <v>6.421</v>
       </c>
       <c r="F116" t="n">
-        <v>104834.9509</v>
+        <v>39439.6771</v>
       </c>
       <c r="G116" t="n">
-        <v>6.377800000000006</v>
+        <v>6.375233333333339</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4738,22 +4652,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.496</v>
+        <v>6.455</v>
       </c>
       <c r="C117" t="n">
-        <v>6.496</v>
+        <v>6.454</v>
       </c>
       <c r="D117" t="n">
-        <v>6.496</v>
+        <v>6.455</v>
       </c>
       <c r="E117" t="n">
-        <v>6.496</v>
+        <v>6.431</v>
       </c>
       <c r="F117" t="n">
-        <v>13421.1779</v>
+        <v>104834.9509</v>
       </c>
       <c r="G117" t="n">
-        <v>6.382266666666672</v>
+        <v>6.377800000000006</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4773,22 +4687,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.499</v>
+        <v>6.496</v>
       </c>
       <c r="C118" t="n">
-        <v>6.499</v>
+        <v>6.496</v>
       </c>
       <c r="D118" t="n">
-        <v>6.499</v>
+        <v>6.496</v>
       </c>
       <c r="E118" t="n">
-        <v>6.499</v>
+        <v>6.496</v>
       </c>
       <c r="F118" t="n">
-        <v>5982.7868</v>
+        <v>13421.1779</v>
       </c>
       <c r="G118" t="n">
-        <v>6.386233333333339</v>
+        <v>6.382266666666672</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4808,22 +4722,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.51</v>
+        <v>6.499</v>
       </c>
       <c r="C119" t="n">
-        <v>6.552</v>
+        <v>6.499</v>
       </c>
       <c r="D119" t="n">
-        <v>6.552</v>
+        <v>6.499</v>
       </c>
       <c r="E119" t="n">
-        <v>6.51</v>
+        <v>6.499</v>
       </c>
       <c r="F119" t="n">
-        <v>12000</v>
+        <v>5982.7868</v>
       </c>
       <c r="G119" t="n">
-        <v>6.390400000000005</v>
+        <v>6.386233333333339</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4843,22 +4757,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C120" t="n">
         <v>6.552</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6.551</v>
       </c>
       <c r="D120" t="n">
         <v>6.552</v>
       </c>
       <c r="E120" t="n">
-        <v>6.551</v>
+        <v>6.51</v>
       </c>
       <c r="F120" t="n">
-        <v>26827.9983</v>
+        <v>12000</v>
       </c>
       <c r="G120" t="n">
-        <v>6.394066666666672</v>
+        <v>6.390400000000005</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4878,22 +4792,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.58</v>
+        <v>6.552</v>
       </c>
       <c r="C121" t="n">
-        <v>6.58</v>
+        <v>6.551</v>
       </c>
       <c r="D121" t="n">
-        <v>6.59</v>
+        <v>6.552</v>
       </c>
       <c r="E121" t="n">
-        <v>6.58</v>
+        <v>6.551</v>
       </c>
       <c r="F121" t="n">
-        <v>21707.8969</v>
+        <v>26827.9983</v>
       </c>
       <c r="G121" t="n">
-        <v>6.398216666666671</v>
+        <v>6.394066666666672</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4913,22 +4827,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D122" t="n">
         <v>6.59</v>
       </c>
-      <c r="C122" t="n">
-        <v>6.599</v>
-      </c>
-      <c r="D122" t="n">
-        <v>6.599</v>
-      </c>
       <c r="E122" t="n">
-        <v>6.484</v>
+        <v>6.58</v>
       </c>
       <c r="F122" t="n">
-        <v>302477.613</v>
+        <v>21707.8969</v>
       </c>
       <c r="G122" t="n">
-        <v>6.402566666666671</v>
+        <v>6.398216666666671</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4948,7 +4862,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.599</v>
+        <v>6.59</v>
       </c>
       <c r="C123" t="n">
         <v>6.599</v>
@@ -4957,13 +4871,13 @@
         <v>6.599</v>
       </c>
       <c r="E123" t="n">
-        <v>6.599</v>
+        <v>6.484</v>
       </c>
       <c r="F123" t="n">
-        <v>61843.553</v>
+        <v>302477.613</v>
       </c>
       <c r="G123" t="n">
-        <v>6.407383333333337</v>
+        <v>6.402566666666671</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4995,10 +4909,10 @@
         <v>6.599</v>
       </c>
       <c r="F124" t="n">
-        <v>116342.8939</v>
+        <v>61843.553</v>
       </c>
       <c r="G124" t="n">
-        <v>6.41211666666667</v>
+        <v>6.407383333333337</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5018,22 +4932,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.61</v>
+        <v>6.599</v>
       </c>
       <c r="C125" t="n">
-        <v>6.611</v>
+        <v>6.599</v>
       </c>
       <c r="D125" t="n">
-        <v>6.611</v>
+        <v>6.599</v>
       </c>
       <c r="E125" t="n">
-        <v>6.61</v>
+        <v>6.599</v>
       </c>
       <c r="F125" t="n">
-        <v>106839.7365</v>
+        <v>116342.8939</v>
       </c>
       <c r="G125" t="n">
-        <v>6.416800000000004</v>
+        <v>6.41211666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5053,22 +4967,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.613</v>
+        <v>6.61</v>
       </c>
       <c r="C126" t="n">
-        <v>6.614</v>
+        <v>6.611</v>
       </c>
       <c r="D126" t="n">
-        <v>6.614</v>
+        <v>6.611</v>
       </c>
       <c r="E126" t="n">
-        <v>6.613</v>
+        <v>6.61</v>
       </c>
       <c r="F126" t="n">
-        <v>85820.7879</v>
+        <v>106839.7365</v>
       </c>
       <c r="G126" t="n">
-        <v>6.421583333333336</v>
+        <v>6.416800000000004</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5088,22 +5002,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.629</v>
+        <v>6.613</v>
       </c>
       <c r="C127" t="n">
-        <v>6.629</v>
+        <v>6.614</v>
       </c>
       <c r="D127" t="n">
-        <v>6.629</v>
+        <v>6.614</v>
       </c>
       <c r="E127" t="n">
-        <v>6.629</v>
+        <v>6.613</v>
       </c>
       <c r="F127" t="n">
-        <v>3000</v>
+        <v>85820.7879</v>
       </c>
       <c r="G127" t="n">
-        <v>6.427133333333336</v>
+        <v>6.421583333333336</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5123,22 +5037,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="C128" t="n">
-        <v>6.617</v>
+        <v>6.629</v>
       </c>
       <c r="D128" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="E128" t="n">
-        <v>6.612</v>
+        <v>6.629</v>
       </c>
       <c r="F128" t="n">
-        <v>139417.4426</v>
+        <v>3000</v>
       </c>
       <c r="G128" t="n">
-        <v>6.43241666666667</v>
+        <v>6.427133333333336</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5158,28 +5072,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.638</v>
+        <v>6.63</v>
       </c>
       <c r="C129" t="n">
-        <v>6.626</v>
+        <v>6.617</v>
       </c>
       <c r="D129" t="n">
-        <v>6.638</v>
+        <v>6.63</v>
       </c>
       <c r="E129" t="n">
-        <v>6.626</v>
+        <v>6.612</v>
       </c>
       <c r="F129" t="n">
-        <v>214697.3319</v>
+        <v>139417.4426</v>
       </c>
       <c r="G129" t="n">
-        <v>6.437683333333337</v>
+        <v>6.43241666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5193,28 +5107,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.623</v>
+        <v>6.638</v>
       </c>
       <c r="C130" t="n">
-        <v>6.673</v>
+        <v>6.626</v>
       </c>
       <c r="D130" t="n">
-        <v>6.673</v>
+        <v>6.638</v>
       </c>
       <c r="E130" t="n">
-        <v>6.623</v>
+        <v>6.626</v>
       </c>
       <c r="F130" t="n">
-        <v>46732.9242</v>
+        <v>214697.3319</v>
       </c>
       <c r="G130" t="n">
-        <v>6.44321666666667</v>
+        <v>6.437683333333337</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5228,28 +5142,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.679</v>
+        <v>6.623</v>
       </c>
       <c r="C131" t="n">
-        <v>6.679</v>
+        <v>6.673</v>
       </c>
       <c r="D131" t="n">
-        <v>6.679</v>
+        <v>6.673</v>
       </c>
       <c r="E131" t="n">
-        <v>6.679</v>
+        <v>6.623</v>
       </c>
       <c r="F131" t="n">
-        <v>17780.5811</v>
+        <v>46732.9242</v>
       </c>
       <c r="G131" t="n">
-        <v>6.44871666666667</v>
+        <v>6.44321666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5263,22 +5177,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.64</v>
+        <v>6.679</v>
       </c>
       <c r="C132" t="n">
-        <v>6.64</v>
+        <v>6.679</v>
       </c>
       <c r="D132" t="n">
-        <v>6.64</v>
+        <v>6.679</v>
       </c>
       <c r="E132" t="n">
-        <v>6.64</v>
+        <v>6.679</v>
       </c>
       <c r="F132" t="n">
-        <v>8554.129999999999</v>
+        <v>17780.5811</v>
       </c>
       <c r="G132" t="n">
-        <v>6.453400000000003</v>
+        <v>6.44871666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5298,22 +5212,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.602</v>
+        <v>6.64</v>
       </c>
       <c r="C133" t="n">
-        <v>6.598</v>
+        <v>6.64</v>
       </c>
       <c r="D133" t="n">
-        <v>6.61</v>
+        <v>6.64</v>
       </c>
       <c r="E133" t="n">
-        <v>6.597</v>
+        <v>6.64</v>
       </c>
       <c r="F133" t="n">
-        <v>9329.9953</v>
+        <v>8554.129999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>6.457383333333337</v>
+        <v>6.453400000000003</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5333,28 +5247,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.55</v>
+        <v>6.602</v>
       </c>
       <c r="C134" t="n">
-        <v>6.55</v>
+        <v>6.598</v>
       </c>
       <c r="D134" t="n">
-        <v>6.55</v>
+        <v>6.61</v>
       </c>
       <c r="E134" t="n">
-        <v>6.55</v>
+        <v>6.597</v>
       </c>
       <c r="F134" t="n">
-        <v>3695.3537</v>
+        <v>9329.9953</v>
       </c>
       <c r="G134" t="n">
-        <v>6.460383333333337</v>
+        <v>6.457383333333337</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5368,22 +5282,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.54</v>
+        <v>6.55</v>
       </c>
       <c r="C135" t="n">
-        <v>6.539</v>
+        <v>6.55</v>
       </c>
       <c r="D135" t="n">
-        <v>6.54</v>
+        <v>6.55</v>
       </c>
       <c r="E135" t="n">
-        <v>6.539</v>
+        <v>6.55</v>
       </c>
       <c r="F135" t="n">
-        <v>84105.1259</v>
+        <v>3695.3537</v>
       </c>
       <c r="G135" t="n">
-        <v>6.46366666666667</v>
+        <v>6.460383333333337</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5403,22 +5317,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C136" t="n">
         <v>6.539</v>
       </c>
-      <c r="C136" t="n">
-        <v>6.502</v>
-      </c>
       <c r="D136" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E136" t="n">
         <v>6.539</v>
       </c>
-      <c r="E136" t="n">
-        <v>6.481</v>
-      </c>
       <c r="F136" t="n">
-        <v>17202.0872</v>
+        <v>84105.1259</v>
       </c>
       <c r="G136" t="n">
-        <v>6.46651666666667</v>
+        <v>6.46366666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5438,22 +5352,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.491</v>
+        <v>6.539</v>
       </c>
       <c r="C137" t="n">
-        <v>6.55</v>
+        <v>6.502</v>
       </c>
       <c r="D137" t="n">
-        <v>6.55</v>
+        <v>6.539</v>
       </c>
       <c r="E137" t="n">
-        <v>6.491</v>
+        <v>6.481</v>
       </c>
       <c r="F137" t="n">
-        <v>142281.4547</v>
+        <v>17202.0872</v>
       </c>
       <c r="G137" t="n">
-        <v>6.47016666666667</v>
+        <v>6.46651666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5473,22 +5387,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>6.491</v>
+      </c>
+      <c r="C138" t="n">
         <v>6.55</v>
       </c>
-      <c r="C138" t="n">
-        <v>6.56</v>
-      </c>
       <c r="D138" t="n">
-        <v>6.56</v>
+        <v>6.55</v>
       </c>
       <c r="E138" t="n">
-        <v>6.55</v>
+        <v>6.491</v>
       </c>
       <c r="F138" t="n">
-        <v>104020.1636</v>
+        <v>142281.4547</v>
       </c>
       <c r="G138" t="n">
-        <v>6.473983333333337</v>
+        <v>6.47016666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5508,22 +5422,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="C139" t="n">
-        <v>6.52</v>
+        <v>6.56</v>
       </c>
       <c r="D139" t="n">
-        <v>6.52</v>
+        <v>6.56</v>
       </c>
       <c r="E139" t="n">
-        <v>6.52</v>
+        <v>6.55</v>
       </c>
       <c r="F139" t="n">
-        <v>1863</v>
+        <v>104020.1636</v>
       </c>
       <c r="G139" t="n">
-        <v>6.478450000000003</v>
+        <v>6.473983333333337</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5546,19 +5460,19 @@
         <v>6.52</v>
       </c>
       <c r="C140" t="n">
-        <v>6.587</v>
+        <v>6.52</v>
       </c>
       <c r="D140" t="n">
-        <v>6.587</v>
+        <v>6.52</v>
       </c>
       <c r="E140" t="n">
-        <v>6.512</v>
+        <v>6.52</v>
       </c>
       <c r="F140" t="n">
-        <v>56856.7588</v>
+        <v>1863</v>
       </c>
       <c r="G140" t="n">
-        <v>6.482733333333337</v>
+        <v>6.478450000000003</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5578,22 +5492,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.596</v>
+        <v>6.52</v>
       </c>
       <c r="C141" t="n">
-        <v>6.596</v>
+        <v>6.587</v>
       </c>
       <c r="D141" t="n">
-        <v>6.596</v>
+        <v>6.587</v>
       </c>
       <c r="E141" t="n">
-        <v>6.596</v>
+        <v>6.512</v>
       </c>
       <c r="F141" t="n">
-        <v>1493.1248</v>
+        <v>56856.7588</v>
       </c>
       <c r="G141" t="n">
-        <v>6.48716666666667</v>
+        <v>6.482733333333337</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5613,22 +5527,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.551</v>
+        <v>6.596</v>
       </c>
       <c r="C142" t="n">
-        <v>6.597</v>
+        <v>6.596</v>
       </c>
       <c r="D142" t="n">
-        <v>6.597</v>
+        <v>6.596</v>
       </c>
       <c r="E142" t="n">
-        <v>6.551</v>
+        <v>6.596</v>
       </c>
       <c r="F142" t="n">
-        <v>49547.923</v>
+        <v>1493.1248</v>
       </c>
       <c r="G142" t="n">
-        <v>6.49161666666667</v>
+        <v>6.48716666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5648,22 +5562,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>6.551</v>
+      </c>
+      <c r="C143" t="n">
         <v>6.597</v>
       </c>
-      <c r="C143" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D143" t="n">
-        <v>6.6</v>
+        <v>6.597</v>
       </c>
       <c r="E143" t="n">
-        <v>6.56</v>
+        <v>6.551</v>
       </c>
       <c r="F143" t="n">
-        <v>49964.4008</v>
+        <v>49547.923</v>
       </c>
       <c r="G143" t="n">
-        <v>6.496583333333336</v>
+        <v>6.49161666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5683,22 +5597,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.637</v>
+        <v>6.597</v>
       </c>
       <c r="C144" t="n">
-        <v>6.637</v>
+        <v>6.6</v>
       </c>
       <c r="D144" t="n">
-        <v>6.637</v>
+        <v>6.6</v>
       </c>
       <c r="E144" t="n">
-        <v>6.637</v>
+        <v>6.56</v>
       </c>
       <c r="F144" t="n">
-        <v>11233.4801</v>
+        <v>49964.4008</v>
       </c>
       <c r="G144" t="n">
-        <v>6.501700000000003</v>
+        <v>6.496583333333336</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5718,22 +5632,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.581</v>
+        <v>6.637</v>
       </c>
       <c r="C145" t="n">
-        <v>6.581</v>
+        <v>6.637</v>
       </c>
       <c r="D145" t="n">
-        <v>6.581</v>
+        <v>6.637</v>
       </c>
       <c r="E145" t="n">
-        <v>6.581</v>
+        <v>6.637</v>
       </c>
       <c r="F145" t="n">
-        <v>60066</v>
+        <v>11233.4801</v>
       </c>
       <c r="G145" t="n">
-        <v>6.505883333333338</v>
+        <v>6.501700000000003</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5753,22 +5667,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.636</v>
+        <v>6.581</v>
       </c>
       <c r="C146" t="n">
-        <v>6.64</v>
+        <v>6.581</v>
       </c>
       <c r="D146" t="n">
-        <v>6.64</v>
+        <v>6.581</v>
       </c>
       <c r="E146" t="n">
-        <v>6.636</v>
+        <v>6.581</v>
       </c>
       <c r="F146" t="n">
-        <v>225164.9601</v>
+        <v>60066</v>
       </c>
       <c r="G146" t="n">
-        <v>6.510500000000004</v>
+        <v>6.505883333333338</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5788,22 +5702,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.649</v>
+        <v>6.636</v>
       </c>
       <c r="C147" t="n">
-        <v>6.649</v>
+        <v>6.64</v>
       </c>
       <c r="D147" t="n">
-        <v>6.649</v>
+        <v>6.64</v>
       </c>
       <c r="E147" t="n">
-        <v>6.649</v>
+        <v>6.636</v>
       </c>
       <c r="F147" t="n">
-        <v>91634</v>
+        <v>225164.9601</v>
       </c>
       <c r="G147" t="n">
-        <v>6.514816666666671</v>
+        <v>6.510500000000004</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5823,22 +5737,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.65</v>
+        <v>6.649</v>
       </c>
       <c r="C148" t="n">
-        <v>6.653</v>
+        <v>6.649</v>
       </c>
       <c r="D148" t="n">
-        <v>6.653</v>
+        <v>6.649</v>
       </c>
       <c r="E148" t="n">
-        <v>6.65</v>
+        <v>6.649</v>
       </c>
       <c r="F148" t="n">
-        <v>27976.6774</v>
+        <v>91634</v>
       </c>
       <c r="G148" t="n">
-        <v>6.51886666666667</v>
+        <v>6.514816666666671</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5858,7 +5772,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.653</v>
+        <v>6.65</v>
       </c>
       <c r="C149" t="n">
         <v>6.653</v>
@@ -5867,13 +5781,13 @@
         <v>6.653</v>
       </c>
       <c r="E149" t="n">
-        <v>6.653</v>
+        <v>6.65</v>
       </c>
       <c r="F149" t="n">
-        <v>118341.0362</v>
+        <v>27976.6774</v>
       </c>
       <c r="G149" t="n">
-        <v>6.522916666666671</v>
+        <v>6.51886666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5893,22 +5807,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.658</v>
+        <v>6.653</v>
       </c>
       <c r="C150" t="n">
-        <v>6.679</v>
+        <v>6.653</v>
       </c>
       <c r="D150" t="n">
-        <v>6.679</v>
+        <v>6.653</v>
       </c>
       <c r="E150" t="n">
-        <v>6.658</v>
+        <v>6.653</v>
       </c>
       <c r="F150" t="n">
-        <v>79065.16220000001</v>
+        <v>118341.0362</v>
       </c>
       <c r="G150" t="n">
-        <v>6.527733333333336</v>
+        <v>6.522916666666671</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5928,7 +5842,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.679</v>
+        <v>6.658</v>
       </c>
       <c r="C151" t="n">
         <v>6.679</v>
@@ -5937,13 +5851,13 @@
         <v>6.679</v>
       </c>
       <c r="E151" t="n">
-        <v>6.679</v>
+        <v>6.658</v>
       </c>
       <c r="F151" t="n">
-        <v>37822.0804</v>
+        <v>79065.16220000001</v>
       </c>
       <c r="G151" t="n">
-        <v>6.532550000000003</v>
+        <v>6.527733333333336</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5966,19 +5880,19 @@
         <v>6.679</v>
       </c>
       <c r="C152" t="n">
-        <v>6.698</v>
+        <v>6.679</v>
       </c>
       <c r="D152" t="n">
-        <v>6.698</v>
+        <v>6.679</v>
       </c>
       <c r="E152" t="n">
         <v>6.679</v>
       </c>
       <c r="F152" t="n">
-        <v>60309.33239726</v>
+        <v>37822.0804</v>
       </c>
       <c r="G152" t="n">
-        <v>6.536900000000003</v>
+        <v>6.532550000000003</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5998,7 +5912,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.698</v>
+        <v>6.679</v>
       </c>
       <c r="C153" t="n">
         <v>6.698</v>
@@ -6007,13 +5921,13 @@
         <v>6.698</v>
       </c>
       <c r="E153" t="n">
-        <v>6.698</v>
+        <v>6.679</v>
       </c>
       <c r="F153" t="n">
-        <v>171244.6563</v>
+        <v>60309.33239726</v>
       </c>
       <c r="G153" t="n">
-        <v>6.540616666666669</v>
+        <v>6.536900000000003</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6033,22 +5947,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.696</v>
+        <v>6.698</v>
       </c>
       <c r="C154" t="n">
-        <v>6.696</v>
+        <v>6.698</v>
       </c>
       <c r="D154" t="n">
-        <v>6.696</v>
+        <v>6.698</v>
       </c>
       <c r="E154" t="n">
-        <v>6.696</v>
+        <v>6.698</v>
       </c>
       <c r="F154" t="n">
-        <v>120122.7117</v>
+        <v>171244.6563</v>
       </c>
       <c r="G154" t="n">
-        <v>6.54391666666667</v>
+        <v>6.540616666666669</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6080,10 +5994,10 @@
         <v>6.696</v>
       </c>
       <c r="F155" t="n">
-        <v>50874.0945</v>
+        <v>120122.7117</v>
       </c>
       <c r="G155" t="n">
-        <v>6.547200000000003</v>
+        <v>6.54391666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6109,16 +6023,16 @@
         <v>6.696</v>
       </c>
       <c r="D156" t="n">
-        <v>6.697</v>
+        <v>6.696</v>
       </c>
       <c r="E156" t="n">
         <v>6.696</v>
       </c>
       <c r="F156" t="n">
-        <v>136467.7189</v>
+        <v>50874.0945</v>
       </c>
       <c r="G156" t="n">
-        <v>6.55006666666667</v>
+        <v>6.547200000000003</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6138,22 +6052,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6.699</v>
+        <v>6.696</v>
       </c>
       <c r="C157" t="n">
-        <v>6.699</v>
+        <v>6.696</v>
       </c>
       <c r="D157" t="n">
-        <v>6.699</v>
+        <v>6.697</v>
       </c>
       <c r="E157" t="n">
-        <v>6.699</v>
+        <v>6.696</v>
       </c>
       <c r="F157" t="n">
-        <v>21000</v>
+        <v>136467.7189</v>
       </c>
       <c r="G157" t="n">
-        <v>6.553350000000004</v>
+        <v>6.55006666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6185,10 +6099,10 @@
         <v>6.699</v>
       </c>
       <c r="F158" t="n">
-        <v>112648.4296</v>
+        <v>21000</v>
       </c>
       <c r="G158" t="n">
-        <v>6.55626666666667</v>
+        <v>6.553350000000004</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6211,19 +6125,19 @@
         <v>6.699</v>
       </c>
       <c r="C159" t="n">
-        <v>6.7</v>
+        <v>6.699</v>
       </c>
       <c r="D159" t="n">
-        <v>6.7</v>
+        <v>6.699</v>
       </c>
       <c r="E159" t="n">
         <v>6.699</v>
       </c>
       <c r="F159" t="n">
-        <v>537134.3377</v>
+        <v>112648.4296</v>
       </c>
       <c r="G159" t="n">
-        <v>6.55876666666667</v>
+        <v>6.55626666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6243,7 +6157,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>6.7</v>
+        <v>6.699</v>
       </c>
       <c r="C160" t="n">
         <v>6.7</v>
@@ -6252,13 +6166,13 @@
         <v>6.7</v>
       </c>
       <c r="E160" t="n">
-        <v>6.7</v>
+        <v>6.699</v>
       </c>
       <c r="F160" t="n">
-        <v>198475.0456</v>
+        <v>537134.3377</v>
       </c>
       <c r="G160" t="n">
-        <v>6.561333333333336</v>
+        <v>6.55876666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6278,22 +6192,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>6.737</v>
+        <v>6.7</v>
       </c>
       <c r="C161" t="n">
-        <v>6.749</v>
+        <v>6.7</v>
       </c>
       <c r="D161" t="n">
-        <v>6.749</v>
+        <v>6.7</v>
       </c>
       <c r="E161" t="n">
-        <v>6.737</v>
+        <v>6.7</v>
       </c>
       <c r="F161" t="n">
-        <v>503083.9629</v>
+        <v>198475.0456</v>
       </c>
       <c r="G161" t="n">
-        <v>6.565083333333336</v>
+        <v>6.561333333333336</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6313,22 +6227,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.726</v>
+        <v>6.737</v>
       </c>
       <c r="C162" t="n">
-        <v>6.716</v>
+        <v>6.749</v>
       </c>
       <c r="D162" t="n">
-        <v>6.726</v>
+        <v>6.749</v>
       </c>
       <c r="E162" t="n">
-        <v>6.716</v>
+        <v>6.737</v>
       </c>
       <c r="F162" t="n">
-        <v>60309.3323</v>
+        <v>503083.9629</v>
       </c>
       <c r="G162" t="n">
-        <v>6.568283333333337</v>
+        <v>6.565083333333336</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6348,22 +6262,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>6.75</v>
+        <v>6.726</v>
       </c>
       <c r="C163" t="n">
-        <v>6.75</v>
+        <v>6.716</v>
       </c>
       <c r="D163" t="n">
-        <v>6.75</v>
+        <v>6.726</v>
       </c>
       <c r="E163" t="n">
-        <v>6.75</v>
+        <v>6.716</v>
       </c>
       <c r="F163" t="n">
-        <v>2596</v>
+        <v>60309.3323</v>
       </c>
       <c r="G163" t="n">
-        <v>6.572050000000004</v>
+        <v>6.568283333333337</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6395,10 +6309,10 @@
         <v>6.75</v>
       </c>
       <c r="F164" t="n">
-        <v>2404</v>
+        <v>2596</v>
       </c>
       <c r="G164" t="n">
-        <v>6.57681666666667</v>
+        <v>6.572050000000004</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6418,22 +6332,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="C165" t="n">
-        <v>6.741</v>
+        <v>6.75</v>
       </c>
       <c r="D165" t="n">
-        <v>6.742</v>
+        <v>6.75</v>
       </c>
       <c r="E165" t="n">
-        <v>6.737</v>
+        <v>6.75</v>
       </c>
       <c r="F165" t="n">
-        <v>6807.3838</v>
+        <v>2404</v>
       </c>
       <c r="G165" t="n">
-        <v>6.58166666666667</v>
+        <v>6.57681666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6453,22 +6367,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6.769</v>
+        <v>6.74</v>
       </c>
       <c r="C166" t="n">
-        <v>6.796</v>
+        <v>6.741</v>
       </c>
       <c r="D166" t="n">
-        <v>6.796</v>
+        <v>6.742</v>
       </c>
       <c r="E166" t="n">
-        <v>6.769</v>
+        <v>6.737</v>
       </c>
       <c r="F166" t="n">
-        <v>165416.7125</v>
+        <v>6807.3838</v>
       </c>
       <c r="G166" t="n">
-        <v>6.589083333333337</v>
+        <v>6.58166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6488,7 +6402,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6.796</v>
+        <v>6.769</v>
       </c>
       <c r="C167" t="n">
         <v>6.796</v>
@@ -6497,13 +6411,13 @@
         <v>6.796</v>
       </c>
       <c r="E167" t="n">
-        <v>6.796</v>
+        <v>6.769</v>
       </c>
       <c r="F167" t="n">
-        <v>8116.7503</v>
+        <v>165416.7125</v>
       </c>
       <c r="G167" t="n">
-        <v>6.597350000000003</v>
+        <v>6.589083333333337</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6526,19 +6440,19 @@
         <v>6.796</v>
       </c>
       <c r="C168" t="n">
-        <v>6.795</v>
+        <v>6.796</v>
       </c>
       <c r="D168" t="n">
         <v>6.796</v>
       </c>
       <c r="E168" t="n">
-        <v>6.795</v>
+        <v>6.796</v>
       </c>
       <c r="F168" t="n">
-        <v>170139.2067</v>
+        <v>8116.7503</v>
       </c>
       <c r="G168" t="n">
-        <v>6.605600000000003</v>
+        <v>6.597350000000003</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6558,22 +6472,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6.76</v>
+        <v>6.796</v>
       </c>
       <c r="C169" t="n">
-        <v>6.747</v>
+        <v>6.795</v>
       </c>
       <c r="D169" t="n">
-        <v>6.76</v>
+        <v>6.796</v>
       </c>
       <c r="E169" t="n">
-        <v>6.747</v>
+        <v>6.795</v>
       </c>
       <c r="F169" t="n">
-        <v>464353.5253</v>
+        <v>170139.2067</v>
       </c>
       <c r="G169" t="n">
-        <v>6.61351666666667</v>
+        <v>6.605600000000003</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6593,22 +6507,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6.74</v>
+        <v>6.76</v>
       </c>
       <c r="C170" t="n">
-        <v>6.744</v>
+        <v>6.747</v>
       </c>
       <c r="D170" t="n">
-        <v>6.795</v>
+        <v>6.76</v>
       </c>
       <c r="E170" t="n">
-        <v>6.74</v>
+        <v>6.747</v>
       </c>
       <c r="F170" t="n">
-        <v>173734.9346</v>
+        <v>464353.5253</v>
       </c>
       <c r="G170" t="n">
-        <v>6.619916666666669</v>
+        <v>6.61351666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6628,22 +6542,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.744</v>
+        <v>6.74</v>
       </c>
       <c r="C171" t="n">
         <v>6.744</v>
       </c>
       <c r="D171" t="n">
-        <v>6.744</v>
+        <v>6.795</v>
       </c>
       <c r="E171" t="n">
-        <v>6.744</v>
+        <v>6.74</v>
       </c>
       <c r="F171" t="n">
-        <v>24587.1709</v>
+        <v>173734.9346</v>
       </c>
       <c r="G171" t="n">
-        <v>6.62631666666667</v>
+        <v>6.619916666666669</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6663,22 +6577,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6.76</v>
+        <v>6.744</v>
       </c>
       <c r="C172" t="n">
-        <v>6.751</v>
+        <v>6.744</v>
       </c>
       <c r="D172" t="n">
-        <v>6.76</v>
+        <v>6.744</v>
       </c>
       <c r="E172" t="n">
-        <v>6.751</v>
+        <v>6.744</v>
       </c>
       <c r="F172" t="n">
-        <v>18411.8387</v>
+        <v>24587.1709</v>
       </c>
       <c r="G172" t="n">
-        <v>6.632500000000003</v>
+        <v>6.62631666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6698,22 +6612,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6.79</v>
+        <v>6.76</v>
       </c>
       <c r="C173" t="n">
-        <v>6.794</v>
+        <v>6.751</v>
       </c>
       <c r="D173" t="n">
-        <v>6.794</v>
+        <v>6.76</v>
       </c>
       <c r="E173" t="n">
-        <v>6.79</v>
+        <v>6.751</v>
       </c>
       <c r="F173" t="n">
-        <v>9390.957</v>
+        <v>18411.8387</v>
       </c>
       <c r="G173" t="n">
-        <v>6.639016666666668</v>
+        <v>6.632500000000003</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6733,22 +6647,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>6.744</v>
+        <v>6.79</v>
       </c>
       <c r="C174" t="n">
-        <v>6.744</v>
+        <v>6.794</v>
       </c>
       <c r="D174" t="n">
-        <v>6.744</v>
+        <v>6.794</v>
       </c>
       <c r="E174" t="n">
-        <v>6.744</v>
+        <v>6.79</v>
       </c>
       <c r="F174" t="n">
-        <v>4313.0026</v>
+        <v>9390.957</v>
       </c>
       <c r="G174" t="n">
-        <v>6.645133333333336</v>
+        <v>6.639016666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6771,19 +6685,19 @@
         <v>6.744</v>
       </c>
       <c r="C175" t="n">
-        <v>6.799</v>
+        <v>6.744</v>
       </c>
       <c r="D175" t="n">
-        <v>6.799</v>
+        <v>6.744</v>
       </c>
       <c r="E175" t="n">
         <v>6.744</v>
       </c>
       <c r="F175" t="n">
-        <v>136637.94597834</v>
+        <v>4313.0026</v>
       </c>
       <c r="G175" t="n">
-        <v>6.651433333333335</v>
+        <v>6.645133333333336</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6806,19 +6720,19 @@
         <v>6.744</v>
       </c>
       <c r="C176" t="n">
-        <v>6.725</v>
+        <v>6.799</v>
       </c>
       <c r="D176" t="n">
-        <v>6.754</v>
+        <v>6.799</v>
       </c>
       <c r="E176" t="n">
-        <v>6.725</v>
+        <v>6.744</v>
       </c>
       <c r="F176" t="n">
-        <v>31830.0605</v>
+        <v>136637.94597834</v>
       </c>
       <c r="G176" t="n">
-        <v>6.655950000000002</v>
+        <v>6.651433333333335</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6838,22 +6752,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6.725</v>
+        <v>6.744</v>
       </c>
       <c r="C177" t="n">
         <v>6.725</v>
       </c>
       <c r="D177" t="n">
-        <v>6.725</v>
+        <v>6.754</v>
       </c>
       <c r="E177" t="n">
         <v>6.725</v>
       </c>
       <c r="F177" t="n">
-        <v>2269.1518</v>
+        <v>31830.0605</v>
       </c>
       <c r="G177" t="n">
-        <v>6.65976666666667</v>
+        <v>6.655950000000002</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6885,10 +6799,10 @@
         <v>6.725</v>
       </c>
       <c r="F178" t="n">
-        <v>30146.267</v>
+        <v>2269.1518</v>
       </c>
       <c r="G178" t="n">
-        <v>6.663533333333336</v>
+        <v>6.65976666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6908,22 +6822,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6.7</v>
+        <v>6.725</v>
       </c>
       <c r="C179" t="n">
-        <v>6.7</v>
+        <v>6.725</v>
       </c>
       <c r="D179" t="n">
-        <v>6.7</v>
+        <v>6.725</v>
       </c>
       <c r="E179" t="n">
-        <v>6.7</v>
+        <v>6.725</v>
       </c>
       <c r="F179" t="n">
-        <v>129523.1225</v>
+        <v>30146.267</v>
       </c>
       <c r="G179" t="n">
-        <v>6.666000000000002</v>
+        <v>6.663533333333336</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6943,22 +6857,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6.66</v>
+        <v>6.7</v>
       </c>
       <c r="C180" t="n">
-        <v>6.651</v>
+        <v>6.7</v>
       </c>
       <c r="D180" t="n">
-        <v>6.66</v>
+        <v>6.7</v>
       </c>
       <c r="E180" t="n">
-        <v>6.651</v>
+        <v>6.7</v>
       </c>
       <c r="F180" t="n">
-        <v>58683.1286</v>
+        <v>129523.1225</v>
       </c>
       <c r="G180" t="n">
-        <v>6.66766666666667</v>
+        <v>6.666000000000002</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6978,22 +6892,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
       <c r="C181" t="n">
-        <v>6.63</v>
+        <v>6.651</v>
       </c>
       <c r="D181" t="n">
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
       <c r="E181" t="n">
-        <v>6.63</v>
+        <v>6.651</v>
       </c>
       <c r="F181" t="n">
-        <v>1665.6825</v>
+        <v>58683.1286</v>
       </c>
       <c r="G181" t="n">
-        <v>6.668500000000003</v>
+        <v>6.66766666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7016,19 +6930,19 @@
         <v>6.63</v>
       </c>
       <c r="C182" t="n">
-        <v>6.557</v>
+        <v>6.63</v>
       </c>
       <c r="D182" t="n">
         <v>6.63</v>
       </c>
       <c r="E182" t="n">
-        <v>6.557</v>
+        <v>6.63</v>
       </c>
       <c r="F182" t="n">
-        <v>424476.9781</v>
+        <v>1665.6825</v>
       </c>
       <c r="G182" t="n">
-        <v>6.667800000000003</v>
+        <v>6.668500000000003</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7048,22 +6962,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6.607</v>
+        <v>6.63</v>
       </c>
       <c r="C183" t="n">
-        <v>6.607</v>
+        <v>6.557</v>
       </c>
       <c r="D183" t="n">
-        <v>6.607</v>
+        <v>6.63</v>
       </c>
       <c r="E183" t="n">
-        <v>6.607</v>
+        <v>6.557</v>
       </c>
       <c r="F183" t="n">
-        <v>146.1683</v>
+        <v>424476.9781</v>
       </c>
       <c r="G183" t="n">
-        <v>6.667933333333337</v>
+        <v>6.667800000000003</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7083,22 +6997,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6.618</v>
+        <v>6.607</v>
       </c>
       <c r="C184" t="n">
-        <v>6.618</v>
+        <v>6.607</v>
       </c>
       <c r="D184" t="n">
-        <v>6.618</v>
+        <v>6.607</v>
       </c>
       <c r="E184" t="n">
-        <v>6.618</v>
+        <v>6.607</v>
       </c>
       <c r="F184" t="n">
-        <v>68650</v>
+        <v>146.1683</v>
       </c>
       <c r="G184" t="n">
-        <v>6.668250000000004</v>
+        <v>6.667933333333337</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7118,22 +7032,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6.6</v>
+        <v>6.618</v>
       </c>
       <c r="C185" t="n">
-        <v>6.6</v>
+        <v>6.618</v>
       </c>
       <c r="D185" t="n">
-        <v>6.6</v>
+        <v>6.618</v>
       </c>
       <c r="E185" t="n">
-        <v>6.6</v>
+        <v>6.618</v>
       </c>
       <c r="F185" t="n">
-        <v>3845</v>
+        <v>68650</v>
       </c>
       <c r="G185" t="n">
-        <v>6.668066666666672</v>
+        <v>6.668250000000004</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7153,22 +7067,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="C186" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="D186" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="E186" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="F186" t="n">
-        <v>3025.718</v>
+        <v>3845</v>
       </c>
       <c r="G186" t="n">
-        <v>6.668166666666672</v>
+        <v>6.668066666666672</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7188,22 +7102,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6.587</v>
+        <v>6.61</v>
       </c>
       <c r="C187" t="n">
-        <v>6.587</v>
+        <v>6.62</v>
       </c>
       <c r="D187" t="n">
-        <v>6.587</v>
+        <v>6.62</v>
       </c>
       <c r="E187" t="n">
-        <v>6.587</v>
+        <v>6.61</v>
       </c>
       <c r="F187" t="n">
-        <v>58683.1287</v>
+        <v>3025.718</v>
       </c>
       <c r="G187" t="n">
-        <v>6.667466666666671</v>
+        <v>6.668166666666672</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7223,22 +7137,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>6.59</v>
+        <v>6.587</v>
       </c>
       <c r="C188" t="n">
-        <v>6.579</v>
+        <v>6.587</v>
       </c>
       <c r="D188" t="n">
-        <v>6.59</v>
+        <v>6.587</v>
       </c>
       <c r="E188" t="n">
-        <v>6.574</v>
+        <v>6.587</v>
       </c>
       <c r="F188" t="n">
-        <v>65377.8625</v>
+        <v>58683.1287</v>
       </c>
       <c r="G188" t="n">
-        <v>6.666833333333338</v>
+        <v>6.667466666666671</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7258,22 +7172,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6.573</v>
+        <v>6.59</v>
       </c>
       <c r="C189" t="n">
-        <v>6.573</v>
+        <v>6.579</v>
       </c>
       <c r="D189" t="n">
-        <v>6.573</v>
+        <v>6.59</v>
       </c>
       <c r="E189" t="n">
-        <v>6.573</v>
+        <v>6.574</v>
       </c>
       <c r="F189" t="n">
-        <v>29096.0935</v>
+        <v>65377.8625</v>
       </c>
       <c r="G189" t="n">
-        <v>6.665950000000005</v>
+        <v>6.666833333333338</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7293,22 +7207,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6.63</v>
+        <v>6.573</v>
       </c>
       <c r="C190" t="n">
-        <v>6.642</v>
+        <v>6.573</v>
       </c>
       <c r="D190" t="n">
-        <v>6.642</v>
+        <v>6.573</v>
       </c>
       <c r="E190" t="n">
-        <v>6.63</v>
+        <v>6.573</v>
       </c>
       <c r="F190" t="n">
-        <v>17580.5098</v>
+        <v>29096.0935</v>
       </c>
       <c r="G190" t="n">
-        <v>6.665433333333338</v>
+        <v>6.665950000000005</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7328,22 +7242,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6.632</v>
+        <v>6.63</v>
       </c>
       <c r="C191" t="n">
-        <v>6.651</v>
+        <v>6.642</v>
       </c>
       <c r="D191" t="n">
-        <v>6.651</v>
+        <v>6.642</v>
       </c>
       <c r="E191" t="n">
-        <v>6.632</v>
+        <v>6.63</v>
       </c>
       <c r="F191" t="n">
-        <v>87974.0742</v>
+        <v>17580.5098</v>
       </c>
       <c r="G191" t="n">
-        <v>6.664966666666672</v>
+        <v>6.665433333333338</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7363,22 +7277,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6.63</v>
+        <v>6.632</v>
       </c>
       <c r="C192" t="n">
-        <v>6.63</v>
+        <v>6.651</v>
       </c>
       <c r="D192" t="n">
-        <v>6.63</v>
+        <v>6.651</v>
       </c>
       <c r="E192" t="n">
-        <v>6.63</v>
+        <v>6.632</v>
       </c>
       <c r="F192" t="n">
-        <v>16717.0691</v>
+        <v>87974.0742</v>
       </c>
       <c r="G192" t="n">
-        <v>6.664800000000005</v>
+        <v>6.664966666666672</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7398,22 +7312,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="C193" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="D193" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="E193" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="F193" t="n">
-        <v>9835.349399999999</v>
+        <v>16717.0691</v>
       </c>
       <c r="G193" t="n">
-        <v>6.665500000000005</v>
+        <v>6.664800000000005</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7433,22 +7347,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="C194" t="n">
-        <v>6.592</v>
+        <v>6.64</v>
       </c>
       <c r="D194" t="n">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="E194" t="n">
-        <v>6.592</v>
+        <v>6.64</v>
       </c>
       <c r="F194" t="n">
-        <v>170198.2102</v>
+        <v>9835.349399999999</v>
       </c>
       <c r="G194" t="n">
-        <v>6.666200000000004</v>
+        <v>6.665500000000005</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7468,22 +7382,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="C195" t="n">
-        <v>6.593</v>
+        <v>6.592</v>
       </c>
       <c r="D195" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="E195" t="n">
-        <v>6.593</v>
+        <v>6.592</v>
       </c>
       <c r="F195" t="n">
-        <v>9606.786599999999</v>
+        <v>170198.2102</v>
       </c>
       <c r="G195" t="n">
-        <v>6.667100000000005</v>
+        <v>6.666200000000004</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7503,22 +7417,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.535</v>
+        <v>6.62</v>
       </c>
       <c r="C196" t="n">
-        <v>6.535</v>
+        <v>6.593</v>
       </c>
       <c r="D196" t="n">
-        <v>6.535</v>
+        <v>6.62</v>
       </c>
       <c r="E196" t="n">
-        <v>6.535</v>
+        <v>6.593</v>
       </c>
       <c r="F196" t="n">
-        <v>1045.5569</v>
+        <v>9606.786599999999</v>
       </c>
       <c r="G196" t="n">
-        <v>6.667650000000005</v>
+        <v>6.667100000000005</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7538,22 +7452,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6.51</v>
+        <v>6.535</v>
       </c>
       <c r="C197" t="n">
-        <v>6.51</v>
+        <v>6.535</v>
       </c>
       <c r="D197" t="n">
-        <v>6.51</v>
+        <v>6.535</v>
       </c>
       <c r="E197" t="n">
-        <v>6.51</v>
+        <v>6.535</v>
       </c>
       <c r="F197" t="n">
-        <v>2496</v>
+        <v>1045.5569</v>
       </c>
       <c r="G197" t="n">
-        <v>6.666983333333338</v>
+        <v>6.667650000000005</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7573,22 +7487,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6.436</v>
+        <v>6.51</v>
       </c>
       <c r="C198" t="n">
-        <v>6.494</v>
+        <v>6.51</v>
       </c>
       <c r="D198" t="n">
-        <v>6.494</v>
+        <v>6.51</v>
       </c>
       <c r="E198" t="n">
-        <v>6.43</v>
+        <v>6.51</v>
       </c>
       <c r="F198" t="n">
-        <v>3281377.0379</v>
+        <v>2496</v>
       </c>
       <c r="G198" t="n">
-        <v>6.665883333333338</v>
+        <v>6.666983333333338</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7608,22 +7522,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6.45</v>
+        <v>6.436</v>
       </c>
       <c r="C199" t="n">
-        <v>6.45</v>
+        <v>6.494</v>
       </c>
       <c r="D199" t="n">
-        <v>6.45</v>
+        <v>6.494</v>
       </c>
       <c r="E199" t="n">
-        <v>6.45</v>
+        <v>6.43</v>
       </c>
       <c r="F199" t="n">
-        <v>1528.5982</v>
+        <v>3281377.0379</v>
       </c>
       <c r="G199" t="n">
-        <v>6.664716666666672</v>
+        <v>6.665883333333338</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7643,22 +7557,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6.41</v>
+        <v>6.45</v>
       </c>
       <c r="C200" t="n">
-        <v>6.41</v>
+        <v>6.45</v>
       </c>
       <c r="D200" t="n">
-        <v>6.41</v>
+        <v>6.45</v>
       </c>
       <c r="E200" t="n">
-        <v>6.41</v>
+        <v>6.45</v>
       </c>
       <c r="F200" t="n">
-        <v>100</v>
+        <v>1528.5982</v>
       </c>
       <c r="G200" t="n">
-        <v>6.661766666666671</v>
+        <v>6.664716666666672</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7681,19 +7595,19 @@
         <v>6.41</v>
       </c>
       <c r="C201" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="D201" t="n">
         <v>6.41</v>
       </c>
       <c r="E201" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="F201" t="n">
-        <v>3989.2063</v>
+        <v>100</v>
       </c>
       <c r="G201" t="n">
-        <v>6.658333333333338</v>
+        <v>6.661766666666671</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7713,22 +7627,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>6.337</v>
+        <v>6.41</v>
       </c>
       <c r="C202" t="n">
-        <v>6.337</v>
+        <v>6.39</v>
       </c>
       <c r="D202" t="n">
-        <v>6.337</v>
+        <v>6.41</v>
       </c>
       <c r="E202" t="n">
-        <v>6.337</v>
+        <v>6.39</v>
       </c>
       <c r="F202" t="n">
-        <v>156724.5795</v>
+        <v>3989.2063</v>
       </c>
       <c r="G202" t="n">
-        <v>6.654000000000005</v>
+        <v>6.658333333333338</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7748,22 +7662,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.336</v>
+        <v>6.337</v>
       </c>
       <c r="C203" t="n">
-        <v>6.336</v>
+        <v>6.337</v>
       </c>
       <c r="D203" t="n">
-        <v>6.336</v>
+        <v>6.337</v>
       </c>
       <c r="E203" t="n">
-        <v>6.336</v>
+        <v>6.337</v>
       </c>
       <c r="F203" t="n">
-        <v>3371.3902</v>
+        <v>156724.5795</v>
       </c>
       <c r="G203" t="n">
-        <v>6.649600000000005</v>
+        <v>6.654000000000005</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7783,22 +7697,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6.34</v>
+        <v>6.336</v>
       </c>
       <c r="C204" t="n">
-        <v>6.338</v>
+        <v>6.336</v>
       </c>
       <c r="D204" t="n">
-        <v>6.35</v>
+        <v>6.336</v>
       </c>
       <c r="E204" t="n">
-        <v>6.338</v>
+        <v>6.336</v>
       </c>
       <c r="F204" t="n">
-        <v>8326.0237</v>
+        <v>3371.3902</v>
       </c>
       <c r="G204" t="n">
-        <v>6.644616666666672</v>
+        <v>6.649600000000005</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7818,22 +7732,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>6.4</v>
+        <v>6.34</v>
       </c>
       <c r="C205" t="n">
-        <v>6.348</v>
+        <v>6.338</v>
       </c>
       <c r="D205" t="n">
-        <v>6.4</v>
+        <v>6.35</v>
       </c>
       <c r="E205" t="n">
-        <v>6.348</v>
+        <v>6.338</v>
       </c>
       <c r="F205" t="n">
-        <v>211922.7409</v>
+        <v>8326.0237</v>
       </c>
       <c r="G205" t="n">
-        <v>6.640733333333339</v>
+        <v>6.644616666666672</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7853,22 +7767,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>6.34</v>
+        <v>6.4</v>
       </c>
       <c r="C206" t="n">
-        <v>6.34</v>
+        <v>6.348</v>
       </c>
       <c r="D206" t="n">
-        <v>6.34</v>
+        <v>6.4</v>
       </c>
       <c r="E206" t="n">
-        <v>6.34</v>
+        <v>6.348</v>
       </c>
       <c r="F206" t="n">
-        <v>800</v>
+        <v>211922.7409</v>
       </c>
       <c r="G206" t="n">
-        <v>6.635733333333338</v>
+        <v>6.640733333333339</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7888,22 +7802,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>6.31</v>
+        <v>6.34</v>
       </c>
       <c r="C207" t="n">
-        <v>6.306</v>
+        <v>6.34</v>
       </c>
       <c r="D207" t="n">
-        <v>6.31</v>
+        <v>6.34</v>
       </c>
       <c r="E207" t="n">
-        <v>6.306</v>
+        <v>6.34</v>
       </c>
       <c r="F207" t="n">
-        <v>128357.8114</v>
+        <v>800</v>
       </c>
       <c r="G207" t="n">
-        <v>6.630016666666672</v>
+        <v>6.635733333333338</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7926,19 +7840,19 @@
         <v>6.31</v>
       </c>
       <c r="C208" t="n">
-        <v>6.31</v>
+        <v>6.306</v>
       </c>
       <c r="D208" t="n">
         <v>6.31</v>
       </c>
       <c r="E208" t="n">
-        <v>6.31</v>
+        <v>6.306</v>
       </c>
       <c r="F208" t="n">
-        <v>657.4233</v>
+        <v>128357.8114</v>
       </c>
       <c r="G208" t="n">
-        <v>6.624300000000004</v>
+        <v>6.630016666666672</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7958,22 +7872,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6.28</v>
+        <v>6.31</v>
       </c>
       <c r="C209" t="n">
-        <v>6.28</v>
+        <v>6.31</v>
       </c>
       <c r="D209" t="n">
-        <v>6.28</v>
+        <v>6.31</v>
       </c>
       <c r="E209" t="n">
-        <v>6.28</v>
+        <v>6.31</v>
       </c>
       <c r="F209" t="n">
-        <v>18623.566</v>
+        <v>657.4233</v>
       </c>
       <c r="G209" t="n">
-        <v>6.618083333333336</v>
+        <v>6.624300000000004</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7993,22 +7907,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6.273</v>
+        <v>6.28</v>
       </c>
       <c r="C210" t="n">
-        <v>6.273</v>
+        <v>6.28</v>
       </c>
       <c r="D210" t="n">
-        <v>6.273</v>
+        <v>6.28</v>
       </c>
       <c r="E210" t="n">
-        <v>6.273</v>
+        <v>6.28</v>
       </c>
       <c r="F210" t="n">
-        <v>392.7528</v>
+        <v>18623.566</v>
       </c>
       <c r="G210" t="n">
-        <v>6.611316666666671</v>
+        <v>6.618083333333336</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8028,22 +7942,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6.215</v>
+        <v>6.273</v>
       </c>
       <c r="C211" t="n">
-        <v>6.191</v>
+        <v>6.273</v>
       </c>
       <c r="D211" t="n">
-        <v>6.215</v>
+        <v>6.273</v>
       </c>
       <c r="E211" t="n">
-        <v>6.191</v>
+        <v>6.273</v>
       </c>
       <c r="F211" t="n">
-        <v>46297.7907</v>
+        <v>392.7528</v>
       </c>
       <c r="G211" t="n">
-        <v>6.603183333333337</v>
+        <v>6.611316666666671</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8063,22 +7977,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6.295</v>
+        <v>6.215</v>
       </c>
       <c r="C212" t="n">
-        <v>6.33</v>
+        <v>6.191</v>
       </c>
       <c r="D212" t="n">
-        <v>6.33</v>
+        <v>6.215</v>
       </c>
       <c r="E212" t="n">
-        <v>6.294</v>
+        <v>6.191</v>
       </c>
       <c r="F212" t="n">
-        <v>123934.2836</v>
+        <v>46297.7907</v>
       </c>
       <c r="G212" t="n">
-        <v>6.597050000000005</v>
+        <v>6.603183333333337</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8098,31 +8012,35 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6.321</v>
+        <v>6.295</v>
       </c>
       <c r="C213" t="n">
-        <v>6.347</v>
+        <v>6.33</v>
       </c>
       <c r="D213" t="n">
-        <v>6.347</v>
+        <v>6.33</v>
       </c>
       <c r="E213" t="n">
-        <v>6.321</v>
+        <v>6.294</v>
       </c>
       <c r="F213" t="n">
-        <v>15936.57</v>
+        <v>123934.2836</v>
       </c>
       <c r="G213" t="n">
-        <v>6.591200000000004</v>
+        <v>6.597050000000005</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.191</v>
+      </c>
+      <c r="K213" t="n">
+        <v>6.191</v>
+      </c>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
@@ -8133,32 +8051,40 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6.34</v>
+        <v>6.321</v>
       </c>
       <c r="C214" t="n">
-        <v>6.355</v>
+        <v>6.347</v>
       </c>
       <c r="D214" t="n">
-        <v>6.355</v>
+        <v>6.347</v>
       </c>
       <c r="E214" t="n">
-        <v>6.34</v>
+        <v>6.321</v>
       </c>
       <c r="F214" t="n">
-        <v>6000</v>
+        <v>15936.57</v>
       </c>
       <c r="G214" t="n">
-        <v>6.585516666666671</v>
+        <v>6.591200000000004</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K214" t="n">
+        <v>6.191</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8168,22 +8094,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6.341</v>
+        <v>6.34</v>
       </c>
       <c r="C215" t="n">
-        <v>6.365</v>
+        <v>6.355</v>
       </c>
       <c r="D215" t="n">
-        <v>6.365</v>
+        <v>6.355</v>
       </c>
       <c r="E215" t="n">
-        <v>6.341</v>
+        <v>6.34</v>
       </c>
       <c r="F215" t="n">
-        <v>9962.046200000001</v>
+        <v>6000</v>
       </c>
       <c r="G215" t="n">
-        <v>6.580000000000004</v>
+        <v>6.585516666666671</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8192,8 +8118,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>6.191</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8203,22 +8135,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.33</v>
+        <v>6.341</v>
       </c>
       <c r="C216" t="n">
-        <v>6.287</v>
+        <v>6.365</v>
       </c>
       <c r="D216" t="n">
-        <v>6.33</v>
+        <v>6.365</v>
       </c>
       <c r="E216" t="n">
-        <v>6.287</v>
+        <v>6.341</v>
       </c>
       <c r="F216" t="n">
-        <v>65339.3569</v>
+        <v>9962.046200000001</v>
       </c>
       <c r="G216" t="n">
-        <v>6.573183333333336</v>
+        <v>6.580000000000004</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8238,22 +8170,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.32</v>
+        <v>6.33</v>
       </c>
       <c r="C217" t="n">
-        <v>6.32</v>
+        <v>6.287</v>
       </c>
       <c r="D217" t="n">
-        <v>6.32</v>
+        <v>6.33</v>
       </c>
       <c r="E217" t="n">
-        <v>6.32</v>
+        <v>6.287</v>
       </c>
       <c r="F217" t="n">
-        <v>79800</v>
+        <v>65339.3569</v>
       </c>
       <c r="G217" t="n">
-        <v>6.56686666666667</v>
+        <v>6.573183333333336</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8273,35 +8205,31 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6.338</v>
+        <v>6.32</v>
       </c>
       <c r="C218" t="n">
-        <v>6.338</v>
+        <v>6.32</v>
       </c>
       <c r="D218" t="n">
-        <v>6.338</v>
+        <v>6.32</v>
       </c>
       <c r="E218" t="n">
-        <v>6.338</v>
+        <v>6.32</v>
       </c>
       <c r="F218" t="n">
-        <v>202618.3766</v>
+        <v>79800</v>
       </c>
       <c r="G218" t="n">
-        <v>6.560850000000003</v>
+        <v>6.56686666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K218" t="n">
-        <v>6.32</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
@@ -8315,37 +8243,29 @@
         <v>6.338</v>
       </c>
       <c r="C219" t="n">
-        <v>6.438</v>
+        <v>6.338</v>
       </c>
       <c r="D219" t="n">
-        <v>6.438</v>
+        <v>6.338</v>
       </c>
       <c r="E219" t="n">
         <v>6.338</v>
       </c>
       <c r="F219" t="n">
-        <v>565117.85</v>
+        <v>202618.3766</v>
       </c>
       <c r="G219" t="n">
-        <v>6.556483333333336</v>
+        <v>6.560850000000003</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>6.338</v>
-      </c>
-      <c r="K219" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8355,40 +8275,32 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.445</v>
+        <v>6.338</v>
       </c>
       <c r="C220" t="n">
-        <v>6.445</v>
+        <v>6.438</v>
       </c>
       <c r="D220" t="n">
-        <v>6.445</v>
+        <v>6.438</v>
       </c>
       <c r="E220" t="n">
-        <v>6.445</v>
+        <v>6.338</v>
       </c>
       <c r="F220" t="n">
-        <v>2245.9687</v>
+        <v>565117.85</v>
       </c>
       <c r="G220" t="n">
-        <v>6.552233333333336</v>
+        <v>6.556483333333336</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>6.438</v>
-      </c>
-      <c r="K220" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8398,35 +8310,31 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6.454</v>
+        <v>6.445</v>
       </c>
       <c r="C221" t="n">
-        <v>6.459</v>
+        <v>6.445</v>
       </c>
       <c r="D221" t="n">
-        <v>6.459</v>
+        <v>6.445</v>
       </c>
       <c r="E221" t="n">
-        <v>6.454</v>
+        <v>6.445</v>
       </c>
       <c r="F221" t="n">
-        <v>2514.6752402</v>
+        <v>2245.9687</v>
       </c>
       <c r="G221" t="n">
-        <v>6.547400000000002</v>
+        <v>6.552233333333336</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="K221" t="n">
-        <v>6.445</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
@@ -8437,7 +8345,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6.459</v>
+        <v>6.454</v>
       </c>
       <c r="C222" t="n">
         <v>6.459</v>
@@ -8446,31 +8354,23 @@
         <v>6.459</v>
       </c>
       <c r="E222" t="n">
-        <v>6.459</v>
+        <v>6.454</v>
       </c>
       <c r="F222" t="n">
-        <v>18012.084</v>
+        <v>2514.6752402</v>
       </c>
       <c r="G222" t="n">
-        <v>6.543116666666669</v>
+        <v>6.547400000000002</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="K222" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8480,22 +8380,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6.445</v>
+        <v>6.459</v>
       </c>
       <c r="C223" t="n">
-        <v>6.481</v>
+        <v>6.459</v>
       </c>
       <c r="D223" t="n">
-        <v>6.484</v>
+        <v>6.459</v>
       </c>
       <c r="E223" t="n">
-        <v>6.433</v>
+        <v>6.459</v>
       </c>
       <c r="F223" t="n">
-        <v>786147.5268</v>
+        <v>18012.084</v>
       </c>
       <c r="G223" t="n">
-        <v>6.538633333333336</v>
+        <v>6.543116666666669</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8504,14 +8404,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8521,40 +8415,32 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6.486</v>
+        <v>6.445</v>
       </c>
       <c r="C224" t="n">
-        <v>6.461</v>
+        <v>6.481</v>
       </c>
       <c r="D224" t="n">
-        <v>6.489</v>
+        <v>6.484</v>
       </c>
       <c r="E224" t="n">
-        <v>6.461</v>
+        <v>6.433</v>
       </c>
       <c r="F224" t="n">
-        <v>234616.27327962</v>
+        <v>786147.5268</v>
       </c>
       <c r="G224" t="n">
-        <v>6.533816666666669</v>
+        <v>6.538633333333336</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>6.481</v>
-      </c>
-      <c r="K224" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8564,22 +8450,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6.461</v>
+        <v>6.486</v>
       </c>
       <c r="C225" t="n">
         <v>6.461</v>
       </c>
       <c r="D225" t="n">
-        <v>6.461</v>
+        <v>6.489</v>
       </c>
       <c r="E225" t="n">
         <v>6.461</v>
       </c>
       <c r="F225" t="n">
-        <v>7965.3666</v>
+        <v>234616.27327962</v>
       </c>
       <c r="G225" t="n">
-        <v>6.529150000000003</v>
+        <v>6.533816666666669</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8588,14 +8474,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8605,22 +8485,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="C226" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="D226" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="E226" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="F226" t="n">
-        <v>2131.3423</v>
+        <v>7965.3666</v>
       </c>
       <c r="G226" t="n">
-        <v>6.523583333333336</v>
+        <v>6.529150000000003</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8629,14 +8509,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8646,22 +8520,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="C227" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="D227" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="E227" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="F227" t="n">
-        <v>1410.6661</v>
+        <v>2131.3423</v>
       </c>
       <c r="G227" t="n">
-        <v>6.518000000000003</v>
+        <v>6.523583333333336</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8670,14 +8544,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8687,22 +8555,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6.44</v>
+        <v>6.461</v>
       </c>
       <c r="C228" t="n">
-        <v>6.44</v>
+        <v>6.461</v>
       </c>
       <c r="D228" t="n">
-        <v>6.44</v>
+        <v>6.461</v>
       </c>
       <c r="E228" t="n">
-        <v>6.44</v>
+        <v>6.461</v>
       </c>
       <c r="F228" t="n">
-        <v>2009.6759</v>
+        <v>1410.6661</v>
       </c>
       <c r="G228" t="n">
-        <v>6.512083333333337</v>
+        <v>6.518000000000003</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8711,14 +8579,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8728,22 +8590,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6.434</v>
+        <v>6.44</v>
       </c>
       <c r="C229" t="n">
-        <v>6.434</v>
+        <v>6.44</v>
       </c>
       <c r="D229" t="n">
-        <v>6.434</v>
+        <v>6.44</v>
       </c>
       <c r="E229" t="n">
-        <v>6.434</v>
+        <v>6.44</v>
       </c>
       <c r="F229" t="n">
-        <v>54154.9897</v>
+        <v>2009.6759</v>
       </c>
       <c r="G229" t="n">
-        <v>6.50686666666667</v>
+        <v>6.512083333333337</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8752,14 +8614,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8769,22 +8625,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6.406</v>
+        <v>6.434</v>
       </c>
       <c r="C230" t="n">
-        <v>6.406</v>
+        <v>6.434</v>
       </c>
       <c r="D230" t="n">
-        <v>6.406</v>
+        <v>6.434</v>
       </c>
       <c r="E230" t="n">
-        <v>6.406</v>
+        <v>6.434</v>
       </c>
       <c r="F230" t="n">
-        <v>34290</v>
+        <v>54154.9897</v>
       </c>
       <c r="G230" t="n">
-        <v>6.501233333333336</v>
+        <v>6.50686666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8793,14 +8649,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8810,22 +8660,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6.409</v>
+        <v>6.406</v>
       </c>
       <c r="C231" t="n">
-        <v>6.409</v>
+        <v>6.406</v>
       </c>
       <c r="D231" t="n">
-        <v>6.409</v>
+        <v>6.406</v>
       </c>
       <c r="E231" t="n">
-        <v>6.409</v>
+        <v>6.406</v>
       </c>
       <c r="F231" t="n">
-        <v>45000</v>
+        <v>34290</v>
       </c>
       <c r="G231" t="n">
-        <v>6.495650000000002</v>
+        <v>6.501233333333336</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8834,14 +8684,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8851,22 +8695,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6.46</v>
+        <v>6.409</v>
       </c>
       <c r="C232" t="n">
-        <v>6.531</v>
+        <v>6.409</v>
       </c>
       <c r="D232" t="n">
-        <v>6.531</v>
+        <v>6.409</v>
       </c>
       <c r="E232" t="n">
-        <v>6.46</v>
+        <v>6.409</v>
       </c>
       <c r="F232" t="n">
-        <v>394530.7699</v>
+        <v>45000</v>
       </c>
       <c r="G232" t="n">
-        <v>6.491983333333336</v>
+        <v>6.495650000000002</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8875,14 +8719,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8892,7 +8730,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6.531</v>
+        <v>6.46</v>
       </c>
       <c r="C233" t="n">
         <v>6.531</v>
@@ -8901,13 +8739,13 @@
         <v>6.531</v>
       </c>
       <c r="E233" t="n">
-        <v>6.531</v>
+        <v>6.46</v>
       </c>
       <c r="F233" t="n">
-        <v>2597.5063</v>
+        <v>394530.7699</v>
       </c>
       <c r="G233" t="n">
-        <v>6.487600000000003</v>
+        <v>6.491983333333336</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8916,14 +8754,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8933,22 +8765,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6.6</v>
+        <v>6.531</v>
       </c>
       <c r="C234" t="n">
-        <v>6.53</v>
+        <v>6.531</v>
       </c>
       <c r="D234" t="n">
-        <v>6.6</v>
+        <v>6.531</v>
       </c>
       <c r="E234" t="n">
-        <v>6.53</v>
+        <v>6.531</v>
       </c>
       <c r="F234" t="n">
-        <v>9860.6266</v>
+        <v>2597.5063</v>
       </c>
       <c r="G234" t="n">
-        <v>6.484033333333335</v>
+        <v>6.487600000000003</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8957,14 +8789,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8974,22 +8800,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6.535</v>
+        <v>6.6</v>
       </c>
       <c r="C235" t="n">
-        <v>6.535</v>
+        <v>6.53</v>
       </c>
       <c r="D235" t="n">
-        <v>6.535</v>
+        <v>6.6</v>
       </c>
       <c r="E235" t="n">
-        <v>6.535</v>
+        <v>6.53</v>
       </c>
       <c r="F235" t="n">
-        <v>40056.4365</v>
+        <v>9860.6266</v>
       </c>
       <c r="G235" t="n">
-        <v>6.479633333333337</v>
+        <v>6.484033333333335</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8998,14 +8824,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9015,22 +8835,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6.52</v>
+        <v>6.535</v>
       </c>
       <c r="C236" t="n">
-        <v>6.52</v>
+        <v>6.535</v>
       </c>
       <c r="D236" t="n">
-        <v>6.52</v>
+        <v>6.535</v>
       </c>
       <c r="E236" t="n">
-        <v>6.52</v>
+        <v>6.535</v>
       </c>
       <c r="F236" t="n">
-        <v>16999.1439</v>
+        <v>40056.4365</v>
       </c>
       <c r="G236" t="n">
-        <v>6.476216666666669</v>
+        <v>6.479633333333337</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9039,14 +8859,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9056,22 +8870,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="C237" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="D237" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="E237" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="F237" t="n">
-        <v>2033.7363</v>
+        <v>16999.1439</v>
       </c>
       <c r="G237" t="n">
-        <v>6.472833333333336</v>
+        <v>6.476216666666669</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9080,14 +8894,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9097,22 +8905,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6.491</v>
+        <v>6.522</v>
       </c>
       <c r="C238" t="n">
-        <v>6.476</v>
+        <v>6.522</v>
       </c>
       <c r="D238" t="n">
-        <v>6.491</v>
+        <v>6.522</v>
       </c>
       <c r="E238" t="n">
-        <v>6.476</v>
+        <v>6.522</v>
       </c>
       <c r="F238" t="n">
-        <v>1721.0547</v>
+        <v>2033.7363</v>
       </c>
       <c r="G238" t="n">
-        <v>6.468683333333335</v>
+        <v>6.472833333333336</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9121,14 +8929,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9138,22 +8940,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6.48</v>
+        <v>6.491</v>
       </c>
       <c r="C239" t="n">
-        <v>6.442</v>
+        <v>6.476</v>
       </c>
       <c r="D239" t="n">
-        <v>6.48</v>
+        <v>6.491</v>
       </c>
       <c r="E239" t="n">
-        <v>6.442</v>
+        <v>6.476</v>
       </c>
       <c r="F239" t="n">
-        <v>49890</v>
+        <v>1721.0547</v>
       </c>
       <c r="G239" t="n">
-        <v>6.464383333333335</v>
+        <v>6.468683333333335</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9162,14 +8964,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9179,22 +8975,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="C240" t="n">
-        <v>6.45</v>
+        <v>6.442</v>
       </c>
       <c r="D240" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="E240" t="n">
-        <v>6.45</v>
+        <v>6.442</v>
       </c>
       <c r="F240" t="n">
-        <v>100892.7887</v>
+        <v>49890</v>
       </c>
       <c r="G240" t="n">
-        <v>6.461033333333335</v>
+        <v>6.464383333333335</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9203,14 +8999,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9220,22 +9010,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>6.451</v>
+        <v>6.45</v>
       </c>
       <c r="C241" t="n">
-        <v>6.463</v>
+        <v>6.45</v>
       </c>
       <c r="D241" t="n">
-        <v>6.463</v>
+        <v>6.45</v>
       </c>
       <c r="E241" t="n">
-        <v>6.451</v>
+        <v>6.45</v>
       </c>
       <c r="F241" t="n">
-        <v>85486.9081</v>
+        <v>100892.7887</v>
       </c>
       <c r="G241" t="n">
-        <v>6.458250000000002</v>
+        <v>6.461033333333335</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9244,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9261,7 +9045,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>6.463</v>
+        <v>6.451</v>
       </c>
       <c r="C242" t="n">
         <v>6.463</v>
@@ -9270,13 +9054,13 @@
         <v>6.463</v>
       </c>
       <c r="E242" t="n">
-        <v>6.463</v>
+        <v>6.451</v>
       </c>
       <c r="F242" t="n">
-        <v>80</v>
+        <v>85486.9081</v>
       </c>
       <c r="G242" t="n">
-        <v>6.456683333333335</v>
+        <v>6.458250000000002</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9285,14 +9069,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9302,22 +9080,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>6.462</v>
+        <v>6.463</v>
       </c>
       <c r="C243" t="n">
-        <v>6.462</v>
+        <v>6.463</v>
       </c>
       <c r="D243" t="n">
-        <v>6.462</v>
+        <v>6.463</v>
       </c>
       <c r="E243" t="n">
-        <v>6.462</v>
+        <v>6.463</v>
       </c>
       <c r="F243" t="n">
-        <v>5493.4855</v>
+        <v>80</v>
       </c>
       <c r="G243" t="n">
-        <v>6.454266666666668</v>
+        <v>6.456683333333335</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9326,14 +9104,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9343,22 +9115,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="C244" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="D244" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="E244" t="n">
-        <v>6.461</v>
+        <v>6.462</v>
       </c>
       <c r="F244" t="n">
-        <v>150</v>
+        <v>5493.4855</v>
       </c>
       <c r="G244" t="n">
-        <v>6.451650000000002</v>
+        <v>6.454266666666668</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9367,14 +9139,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9384,22 +9150,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="C245" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="D245" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="E245" t="n">
-        <v>6.462</v>
+        <v>6.461</v>
       </c>
       <c r="F245" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G245" t="n">
-        <v>6.449350000000001</v>
+        <v>6.451650000000002</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9408,14 +9174,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9425,22 +9185,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>6.479</v>
+        <v>6.462</v>
       </c>
       <c r="C246" t="n">
-        <v>6.53</v>
+        <v>6.462</v>
       </c>
       <c r="D246" t="n">
-        <v>6.53</v>
+        <v>6.462</v>
       </c>
       <c r="E246" t="n">
-        <v>6.479</v>
+        <v>6.462</v>
       </c>
       <c r="F246" t="n">
-        <v>6000</v>
+        <v>80</v>
       </c>
       <c r="G246" t="n">
-        <v>6.447850000000001</v>
+        <v>6.449350000000001</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9449,14 +9209,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9466,22 +9220,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>6.487</v>
+        <v>6.479</v>
       </c>
       <c r="C247" t="n">
-        <v>6.487</v>
+        <v>6.53</v>
       </c>
       <c r="D247" t="n">
-        <v>6.487</v>
+        <v>6.53</v>
       </c>
       <c r="E247" t="n">
-        <v>6.487</v>
+        <v>6.479</v>
       </c>
       <c r="F247" t="n">
-        <v>979.2606</v>
+        <v>6000</v>
       </c>
       <c r="G247" t="n">
-        <v>6.446183333333335</v>
+        <v>6.447850000000001</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9490,14 +9244,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9507,22 +9255,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>6.48</v>
+        <v>6.487</v>
       </c>
       <c r="C248" t="n">
-        <v>6.48</v>
+        <v>6.487</v>
       </c>
       <c r="D248" t="n">
-        <v>6.48</v>
+        <v>6.487</v>
       </c>
       <c r="E248" t="n">
-        <v>6.48</v>
+        <v>6.487</v>
       </c>
       <c r="F248" t="n">
-        <v>74542.87850000001</v>
+        <v>979.2606</v>
       </c>
       <c r="G248" t="n">
-        <v>6.444533333333335</v>
+        <v>6.446183333333335</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9531,14 +9279,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9560,10 +9302,10 @@
         <v>6.48</v>
       </c>
       <c r="F249" t="n">
-        <v>22458.2938</v>
+        <v>74542.87850000001</v>
       </c>
       <c r="G249" t="n">
-        <v>6.442983333333335</v>
+        <v>6.444533333333335</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9572,14 +9314,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9601,10 +9337,10 @@
         <v>6.48</v>
       </c>
       <c r="F250" t="n">
-        <v>60138.0414</v>
+        <v>22458.2938</v>
       </c>
       <c r="G250" t="n">
-        <v>6.440283333333336</v>
+        <v>6.442983333333335</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9613,14 +9349,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9633,19 +9363,19 @@
         <v>6.48</v>
       </c>
       <c r="C251" t="n">
-        <v>6.499</v>
+        <v>6.48</v>
       </c>
       <c r="D251" t="n">
-        <v>6.499</v>
+        <v>6.48</v>
       </c>
       <c r="E251" t="n">
         <v>6.48</v>
       </c>
       <c r="F251" t="n">
-        <v>159048.0237</v>
+        <v>60138.0414</v>
       </c>
       <c r="G251" t="n">
-        <v>6.437750000000003</v>
+        <v>6.440283333333336</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9654,14 +9384,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9671,7 +9395,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>6.499</v>
+        <v>6.48</v>
       </c>
       <c r="C252" t="n">
         <v>6.499</v>
@@ -9680,13 +9404,13 @@
         <v>6.499</v>
       </c>
       <c r="E252" t="n">
-        <v>6.499</v>
+        <v>6.48</v>
       </c>
       <c r="F252" t="n">
-        <v>17608.8553</v>
+        <v>159048.0237</v>
       </c>
       <c r="G252" t="n">
-        <v>6.43556666666667</v>
+        <v>6.437750000000003</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9695,14 +9419,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9724,10 +9442,10 @@
         <v>6.499</v>
       </c>
       <c r="F253" t="n">
-        <v>29258.5211</v>
+        <v>17608.8553</v>
       </c>
       <c r="G253" t="n">
-        <v>6.43321666666667</v>
+        <v>6.43556666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9736,14 +9454,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9753,22 +9465,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>6.51</v>
+        <v>6.499</v>
       </c>
       <c r="C254" t="n">
-        <v>6.51</v>
+        <v>6.499</v>
       </c>
       <c r="D254" t="n">
-        <v>6.51</v>
+        <v>6.499</v>
       </c>
       <c r="E254" t="n">
-        <v>6.51</v>
+        <v>6.499</v>
       </c>
       <c r="F254" t="n">
-        <v>6324.4803</v>
+        <v>29258.5211</v>
       </c>
       <c r="G254" t="n">
-        <v>6.431850000000003</v>
+        <v>6.43321666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9777,14 +9489,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9806,10 +9512,10 @@
         <v>6.51</v>
       </c>
       <c r="F255" t="n">
-        <v>434.2647</v>
+        <v>6324.4803</v>
       </c>
       <c r="G255" t="n">
-        <v>6.43046666666667</v>
+        <v>6.431850000000003</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9818,14 +9524,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9835,22 +9535,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>6.53</v>
+        <v>6.51</v>
       </c>
       <c r="C256" t="n">
-        <v>6.53</v>
+        <v>6.51</v>
       </c>
       <c r="D256" t="n">
-        <v>6.53</v>
+        <v>6.51</v>
       </c>
       <c r="E256" t="n">
-        <v>6.53</v>
+        <v>6.51</v>
       </c>
       <c r="F256" t="n">
-        <v>100</v>
+        <v>434.2647</v>
       </c>
       <c r="G256" t="n">
-        <v>6.430383333333336</v>
+        <v>6.43046666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9859,14 +9559,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9876,22 +9570,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>6.526</v>
+        <v>6.53</v>
       </c>
       <c r="C257" t="n">
-        <v>6.526</v>
+        <v>6.53</v>
       </c>
       <c r="D257" t="n">
-        <v>6.526</v>
+        <v>6.53</v>
       </c>
       <c r="E257" t="n">
-        <v>6.526</v>
+        <v>6.53</v>
       </c>
       <c r="F257" t="n">
-        <v>73000</v>
+        <v>100</v>
       </c>
       <c r="G257" t="n">
-        <v>6.430650000000003</v>
+        <v>6.430383333333336</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9900,14 +9594,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9917,22 +9605,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>6.54</v>
+        <v>6.526</v>
       </c>
       <c r="C258" t="n">
-        <v>6.54</v>
+        <v>6.526</v>
       </c>
       <c r="D258" t="n">
-        <v>6.54</v>
+        <v>6.526</v>
       </c>
       <c r="E258" t="n">
-        <v>6.54</v>
+        <v>6.526</v>
       </c>
       <c r="F258" t="n">
-        <v>150</v>
+        <v>73000</v>
       </c>
       <c r="G258" t="n">
-        <v>6.43141666666667</v>
+        <v>6.430650000000003</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9941,14 +9629,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9958,22 +9640,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>6.566</v>
+        <v>6.54</v>
       </c>
       <c r="C259" t="n">
-        <v>6.566</v>
+        <v>6.54</v>
       </c>
       <c r="D259" t="n">
-        <v>6.566</v>
+        <v>6.54</v>
       </c>
       <c r="E259" t="n">
-        <v>6.566</v>
+        <v>6.54</v>
       </c>
       <c r="F259" t="n">
-        <v>7827.8035</v>
+        <v>150</v>
       </c>
       <c r="G259" t="n">
-        <v>6.433350000000003</v>
+        <v>6.43141666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9982,14 +9664,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9999,22 +9675,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>6.561</v>
+        <v>6.566</v>
       </c>
       <c r="C260" t="n">
-        <v>6.576</v>
+        <v>6.566</v>
       </c>
       <c r="D260" t="n">
-        <v>6.576</v>
+        <v>6.566</v>
       </c>
       <c r="E260" t="n">
-        <v>6.561</v>
+        <v>6.566</v>
       </c>
       <c r="F260" t="n">
-        <v>1409.2606</v>
+        <v>7827.8035</v>
       </c>
       <c r="G260" t="n">
-        <v>6.43611666666667</v>
+        <v>6.433350000000003</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10023,14 +9699,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10040,22 +9710,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>6.577</v>
+        <v>6.561</v>
       </c>
       <c r="C261" t="n">
-        <v>6.577</v>
+        <v>6.576</v>
       </c>
       <c r="D261" t="n">
-        <v>6.577</v>
+        <v>6.576</v>
       </c>
       <c r="E261" t="n">
-        <v>6.577</v>
+        <v>6.561</v>
       </c>
       <c r="F261" t="n">
-        <v>12358.6017</v>
+        <v>1409.2606</v>
       </c>
       <c r="G261" t="n">
-        <v>6.439233333333337</v>
+        <v>6.43611666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10064,14 +9734,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10081,22 +9745,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>6.581</v>
+        <v>6.577</v>
       </c>
       <c r="C262" t="n">
-        <v>6.581</v>
+        <v>6.577</v>
       </c>
       <c r="D262" t="n">
-        <v>6.581</v>
+        <v>6.577</v>
       </c>
       <c r="E262" t="n">
-        <v>6.581</v>
+        <v>6.577</v>
       </c>
       <c r="F262" t="n">
-        <v>100</v>
+        <v>12358.6017</v>
       </c>
       <c r="G262" t="n">
-        <v>6.443300000000004</v>
+        <v>6.439233333333337</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10105,14 +9769,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10134,10 +9792,10 @@
         <v>6.581</v>
       </c>
       <c r="F263" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="G263" t="n">
-        <v>6.447383333333337</v>
+        <v>6.443300000000004</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10146,14 +9804,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10175,10 +9827,10 @@
         <v>6.581</v>
       </c>
       <c r="F264" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="G264" t="n">
-        <v>6.451433333333338</v>
+        <v>6.447383333333337</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10187,14 +9839,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10204,22 +9850,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>6.59</v>
+        <v>6.581</v>
       </c>
       <c r="C265" t="n">
-        <v>6.59</v>
+        <v>6.581</v>
       </c>
       <c r="D265" t="n">
-        <v>6.59</v>
+        <v>6.581</v>
       </c>
       <c r="E265" t="n">
-        <v>6.59</v>
+        <v>6.581</v>
       </c>
       <c r="F265" t="n">
-        <v>1335.3873</v>
+        <v>1000</v>
       </c>
       <c r="G265" t="n">
-        <v>6.45546666666667</v>
+        <v>6.451433333333338</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10228,14 +9874,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10245,22 +9885,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>6.598</v>
+        <v>6.59</v>
       </c>
       <c r="C266" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="D266" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="E266" t="n">
-        <v>6.598</v>
+        <v>6.59</v>
       </c>
       <c r="F266" t="n">
-        <v>6000</v>
+        <v>1335.3873</v>
       </c>
       <c r="G266" t="n">
-        <v>6.460133333333337</v>
+        <v>6.45546666666667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10269,14 +9909,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10286,22 +9920,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>6.601</v>
+        <v>6.598</v>
       </c>
       <c r="C267" t="n">
-        <v>6.601</v>
+        <v>6.62</v>
       </c>
       <c r="D267" t="n">
-        <v>6.601</v>
+        <v>6.62</v>
       </c>
       <c r="E267" t="n">
-        <v>6.601</v>
+        <v>6.598</v>
       </c>
       <c r="F267" t="n">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="G267" t="n">
-        <v>6.465050000000004</v>
+        <v>6.460133333333337</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10310,14 +9944,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10327,22 +9955,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>6.61</v>
+        <v>6.601</v>
       </c>
       <c r="C268" t="n">
-        <v>6.61</v>
+        <v>6.601</v>
       </c>
       <c r="D268" t="n">
-        <v>6.61</v>
+        <v>6.601</v>
       </c>
       <c r="E268" t="n">
-        <v>6.61</v>
+        <v>6.601</v>
       </c>
       <c r="F268" t="n">
         <v>100</v>
       </c>
       <c r="G268" t="n">
-        <v>6.470050000000004</v>
+        <v>6.465050000000004</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10351,14 +9979,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10368,22 +9990,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="C269" t="n">
-        <v>6.664</v>
+        <v>6.61</v>
       </c>
       <c r="D269" t="n">
-        <v>6.664</v>
+        <v>6.61</v>
       </c>
       <c r="E269" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="F269" t="n">
-        <v>240000</v>
+        <v>100</v>
       </c>
       <c r="G269" t="n">
-        <v>6.476450000000004</v>
+        <v>6.470050000000004</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10392,14 +10014,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10409,22 +10025,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="C270" t="n">
-        <v>6.62</v>
+        <v>6.664</v>
       </c>
       <c r="D270" t="n">
-        <v>6.62</v>
+        <v>6.664</v>
       </c>
       <c r="E270" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="F270" t="n">
-        <v>7196.865</v>
+        <v>240000</v>
       </c>
       <c r="G270" t="n">
-        <v>6.482233333333338</v>
+        <v>6.476450000000004</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10433,14 +10049,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10450,22 +10060,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="C271" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="D271" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="E271" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="F271" t="n">
-        <v>100</v>
+        <v>7196.865</v>
       </c>
       <c r="G271" t="n">
-        <v>6.489550000000005</v>
+        <v>6.482233333333338</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10474,14 +10084,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10494,19 +10098,19 @@
         <v>6.63</v>
       </c>
       <c r="C272" t="n">
-        <v>6.599</v>
+        <v>6.63</v>
       </c>
       <c r="D272" t="n">
         <v>6.63</v>
       </c>
       <c r="E272" t="n">
-        <v>6.599</v>
+        <v>6.63</v>
       </c>
       <c r="F272" t="n">
-        <v>8803.1032</v>
+        <v>100</v>
       </c>
       <c r="G272" t="n">
-        <v>6.494033333333338</v>
+        <v>6.489550000000005</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10515,14 +10119,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10532,22 +10130,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
       <c r="C273" t="n">
-        <v>6.6</v>
+        <v>6.599</v>
       </c>
       <c r="D273" t="n">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
       <c r="E273" t="n">
-        <v>6.6</v>
+        <v>6.599</v>
       </c>
       <c r="F273" t="n">
-        <v>39175.8835</v>
+        <v>8803.1032</v>
       </c>
       <c r="G273" t="n">
-        <v>6.498250000000005</v>
+        <v>6.494033333333338</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10556,14 +10154,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10585,10 +10177,10 @@
         <v>6.6</v>
       </c>
       <c r="F274" t="n">
-        <v>3691.4372</v>
+        <v>39175.8835</v>
       </c>
       <c r="G274" t="n">
-        <v>6.502333333333339</v>
+        <v>6.498250000000005</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10597,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10614,22 +10200,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>6.619</v>
+        <v>6.6</v>
       </c>
       <c r="C275" t="n">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
       <c r="D275" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="E275" t="n">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
       <c r="F275" t="n">
-        <v>388436.0319</v>
+        <v>3691.4372</v>
       </c>
       <c r="G275" t="n">
-        <v>6.505750000000005</v>
+        <v>6.502333333333339</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10638,14 +10224,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10655,22 +10235,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>6.569</v>
+        <v>6.619</v>
       </c>
       <c r="C276" t="n">
-        <v>6.569</v>
+        <v>6.57</v>
       </c>
       <c r="D276" t="n">
-        <v>6.569</v>
+        <v>6.62</v>
       </c>
       <c r="E276" t="n">
-        <v>6.569</v>
+        <v>6.57</v>
       </c>
       <c r="F276" t="n">
-        <v>6318.3095</v>
+        <v>388436.0319</v>
       </c>
       <c r="G276" t="n">
-        <v>6.510450000000006</v>
+        <v>6.505750000000005</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10679,14 +10259,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10696,22 +10270,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6.632</v>
+        <v>6.569</v>
       </c>
       <c r="C277" t="n">
-        <v>6.632</v>
+        <v>6.569</v>
       </c>
       <c r="D277" t="n">
-        <v>6.632</v>
+        <v>6.569</v>
       </c>
       <c r="E277" t="n">
-        <v>6.632</v>
+        <v>6.569</v>
       </c>
       <c r="F277" t="n">
-        <v>3459.3853</v>
+        <v>6318.3095</v>
       </c>
       <c r="G277" t="n">
-        <v>6.515650000000006</v>
+        <v>6.510450000000006</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10720,14 +10294,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10737,22 +10305,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>6.58</v>
+        <v>6.632</v>
       </c>
       <c r="C278" t="n">
-        <v>6.58</v>
+        <v>6.632</v>
       </c>
       <c r="D278" t="n">
-        <v>6.58</v>
+        <v>6.632</v>
       </c>
       <c r="E278" t="n">
-        <v>6.58</v>
+        <v>6.632</v>
       </c>
       <c r="F278" t="n">
-        <v>5817.1718</v>
+        <v>3459.3853</v>
       </c>
       <c r="G278" t="n">
-        <v>6.519683333333338</v>
+        <v>6.515650000000006</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10761,14 +10329,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10778,22 +10340,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="C279" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="D279" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="E279" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="F279" t="n">
-        <v>3317.591</v>
+        <v>5817.1718</v>
       </c>
       <c r="G279" t="n">
-        <v>6.521883333333339</v>
+        <v>6.519683333333338</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10802,14 +10364,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10819,22 +10375,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="C280" t="n">
-        <v>6.547</v>
+        <v>6.57</v>
       </c>
       <c r="D280" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="E280" t="n">
-        <v>6.547</v>
+        <v>6.57</v>
       </c>
       <c r="F280" t="n">
-        <v>125660.8592</v>
+        <v>3317.591</v>
       </c>
       <c r="G280" t="n">
-        <v>6.523583333333339</v>
+        <v>6.521883333333339</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10843,14 +10399,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10860,22 +10410,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>6.555</v>
+        <v>6.58</v>
       </c>
       <c r="C281" t="n">
-        <v>6.555</v>
+        <v>6.547</v>
       </c>
       <c r="D281" t="n">
-        <v>6.555</v>
+        <v>6.58</v>
       </c>
       <c r="E281" t="n">
-        <v>6.555</v>
+        <v>6.547</v>
       </c>
       <c r="F281" t="n">
-        <v>4348.4895</v>
+        <v>125660.8592</v>
       </c>
       <c r="G281" t="n">
-        <v>6.52518333333334</v>
+        <v>6.523583333333339</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10884,14 +10434,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10901,22 +10445,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>6.56</v>
+        <v>6.555</v>
       </c>
       <c r="C282" t="n">
-        <v>6.56</v>
+        <v>6.555</v>
       </c>
       <c r="D282" t="n">
-        <v>6.56</v>
+        <v>6.555</v>
       </c>
       <c r="E282" t="n">
-        <v>6.56</v>
+        <v>6.555</v>
       </c>
       <c r="F282" t="n">
-        <v>98474.3594</v>
+        <v>4348.4895</v>
       </c>
       <c r="G282" t="n">
-        <v>6.526866666666673</v>
+        <v>6.52518333333334</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10925,14 +10469,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10942,22 +10480,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>6.579</v>
+        <v>6.56</v>
       </c>
       <c r="C283" t="n">
-        <v>6.579</v>
+        <v>6.56</v>
       </c>
       <c r="D283" t="n">
-        <v>6.579</v>
+        <v>6.56</v>
       </c>
       <c r="E283" t="n">
-        <v>6.579</v>
+        <v>6.56</v>
       </c>
       <c r="F283" t="n">
-        <v>28136.9888</v>
+        <v>98474.3594</v>
       </c>
       <c r="G283" t="n">
-        <v>6.528500000000006</v>
+        <v>6.526866666666673</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10966,14 +10504,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10986,19 +10518,19 @@
         <v>6.579</v>
       </c>
       <c r="C284" t="n">
-        <v>6.571</v>
+        <v>6.579</v>
       </c>
       <c r="D284" t="n">
         <v>6.579</v>
       </c>
       <c r="E284" t="n">
-        <v>6.571</v>
+        <v>6.579</v>
       </c>
       <c r="F284" t="n">
-        <v>107873.5087</v>
+        <v>28136.9888</v>
       </c>
       <c r="G284" t="n">
-        <v>6.53033333333334</v>
+        <v>6.528500000000006</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11007,14 +10539,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11024,22 +10550,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>6.574</v>
+        <v>6.579</v>
       </c>
       <c r="C285" t="n">
-        <v>6.599</v>
+        <v>6.571</v>
       </c>
       <c r="D285" t="n">
-        <v>6.599</v>
+        <v>6.579</v>
       </c>
       <c r="E285" t="n">
-        <v>6.574</v>
+        <v>6.571</v>
       </c>
       <c r="F285" t="n">
-        <v>119507.4362</v>
+        <v>107873.5087</v>
       </c>
       <c r="G285" t="n">
-        <v>6.532633333333339</v>
+        <v>6.53033333333334</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11048,14 +10574,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11065,22 +10585,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>6.566</v>
+        <v>6.574</v>
       </c>
       <c r="C286" t="n">
-        <v>6.542</v>
+        <v>6.599</v>
       </c>
       <c r="D286" t="n">
-        <v>6.566</v>
+        <v>6.599</v>
       </c>
       <c r="E286" t="n">
-        <v>6.542</v>
+        <v>6.574</v>
       </c>
       <c r="F286" t="n">
-        <v>42811.5461</v>
+        <v>119507.4362</v>
       </c>
       <c r="G286" t="n">
-        <v>6.533966666666672</v>
+        <v>6.532633333333339</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -11089,14 +10609,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11106,22 +10620,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>6.542</v>
+        <v>6.566</v>
       </c>
       <c r="C287" t="n">
         <v>6.542</v>
       </c>
       <c r="D287" t="n">
-        <v>6.542</v>
+        <v>6.566</v>
       </c>
       <c r="E287" t="n">
         <v>6.542</v>
       </c>
       <c r="F287" t="n">
-        <v>5217.451</v>
+        <v>42811.5461</v>
       </c>
       <c r="G287" t="n">
-        <v>6.535316666666672</v>
+        <v>6.533966666666672</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11130,14 +10644,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11147,22 +10655,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>6.566</v>
+        <v>6.542</v>
       </c>
       <c r="C288" t="n">
-        <v>6.566</v>
+        <v>6.542</v>
       </c>
       <c r="D288" t="n">
-        <v>6.566</v>
+        <v>6.542</v>
       </c>
       <c r="E288" t="n">
-        <v>6.566</v>
+        <v>6.542</v>
       </c>
       <c r="F288" t="n">
-        <v>1122.3981</v>
+        <v>5217.451</v>
       </c>
       <c r="G288" t="n">
-        <v>6.537416666666672</v>
+        <v>6.535316666666672</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11171,14 +10679,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11188,22 +10690,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>6.542</v>
+        <v>6.566</v>
       </c>
       <c r="C289" t="n">
-        <v>6.542</v>
+        <v>6.566</v>
       </c>
       <c r="D289" t="n">
-        <v>6.542</v>
+        <v>6.566</v>
       </c>
       <c r="E289" t="n">
-        <v>6.542</v>
+        <v>6.566</v>
       </c>
       <c r="F289" t="n">
-        <v>100898.0523</v>
+        <v>1122.3981</v>
       </c>
       <c r="G289" t="n">
-        <v>6.539216666666671</v>
+        <v>6.537416666666672</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11212,14 +10714,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11229,22 +10725,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>6.541</v>
+        <v>6.542</v>
       </c>
       <c r="C290" t="n">
-        <v>6.541</v>
+        <v>6.542</v>
       </c>
       <c r="D290" t="n">
-        <v>6.541</v>
+        <v>6.542</v>
       </c>
       <c r="E290" t="n">
-        <v>6.541</v>
+        <v>6.542</v>
       </c>
       <c r="F290" t="n">
-        <v>1540.4971</v>
+        <v>100898.0523</v>
       </c>
       <c r="G290" t="n">
-        <v>6.54146666666667</v>
+        <v>6.539216666666671</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11253,14 +10749,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11270,22 +10760,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>6.534</v>
+        <v>6.541</v>
       </c>
       <c r="C291" t="n">
-        <v>6.534</v>
+        <v>6.541</v>
       </c>
       <c r="D291" t="n">
-        <v>6.534</v>
+        <v>6.541</v>
       </c>
       <c r="E291" t="n">
-        <v>6.534</v>
+        <v>6.541</v>
       </c>
       <c r="F291" t="n">
-        <v>93459.50290000001</v>
+        <v>1540.4971</v>
       </c>
       <c r="G291" t="n">
-        <v>6.543550000000004</v>
+        <v>6.54146666666667</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11294,14 +10784,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11311,39 +10795,68 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
+        <v>6.534</v>
+      </c>
+      <c r="C292" t="n">
+        <v>6.534</v>
+      </c>
+      <c r="D292" t="n">
+        <v>6.534</v>
+      </c>
+      <c r="E292" t="n">
+        <v>6.534</v>
+      </c>
+      <c r="F292" t="n">
+        <v>93459.50290000001</v>
+      </c>
+      <c r="G292" t="n">
+        <v>6.543550000000004</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
         <v>6.57</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C293" t="n">
         <v>6.57</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D293" t="n">
         <v>6.57</v>
       </c>
-      <c r="E292" t="n">
+      <c r="E293" t="n">
         <v>6.57</v>
       </c>
-      <c r="F292" t="n">
+      <c r="F293" t="n">
         <v>61142.4741</v>
       </c>
-      <c r="G292" t="n">
+      <c r="G293" t="n">
         <v>6.544200000000004</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest IOST.xlsx
+++ b/BackTest/2020-01-16 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>50210.1093</v>
       </c>
       <c r="G2" t="n">
+        <v>6.195466666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.203850000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>210960.9327</v>
       </c>
       <c r="G3" t="n">
+        <v>6.204333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.206216666666668</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.241</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.241</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>81.9689</v>
       </c>
       <c r="G4" t="n">
+        <v>6.213666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.206716666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>6.241</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>4485.0977</v>
       </c>
       <c r="G5" t="n">
+        <v>6.221266666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.207583333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>6.241</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,21 @@
         <v>6000</v>
       </c>
       <c r="G6" t="n">
+        <v>6.230799999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.209283333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +659,21 @@
         <v>50879.1579</v>
       </c>
       <c r="G7" t="n">
+        <v>6.239199999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.209250000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +697,21 @@
         <v>91634</v>
       </c>
       <c r="G8" t="n">
+        <v>6.245999999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.210866666666669</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +735,21 @@
         <v>6222</v>
       </c>
       <c r="G9" t="n">
+        <v>6.250933333333331</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.212150000000002</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +773,21 @@
         <v>33233.6942</v>
       </c>
       <c r="G10" t="n">
+        <v>6.255733333333331</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.213250000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +811,27 @@
         <v>7448.005</v>
       </c>
       <c r="G11" t="n">
+        <v>6.260466666666664</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.214483333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.296</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +855,25 @@
         <v>69222</v>
       </c>
       <c r="G12" t="n">
+        <v>6.265066666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.215816666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +897,27 @@
         <v>50879.1579</v>
       </c>
       <c r="G13" t="n">
+        <v>6.267466666666665</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.215483333333335</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.293</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +941,27 @@
         <v>36177.1601</v>
       </c>
       <c r="G14" t="n">
+        <v>6.271866666666665</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.216316666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.26</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +985,27 @@
         <v>305.0099</v>
       </c>
       <c r="G15" t="n">
+        <v>6.277066666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.217816666666669</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.29</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1029,27 @@
         <v>152953.6135</v>
       </c>
       <c r="G16" t="n">
+        <v>6.281133333333331</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.217533333333336</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.302</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1073,27 @@
         <v>122143.8844</v>
       </c>
       <c r="G17" t="n">
+        <v>6.282666666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.218400000000003</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.263</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1117,27 @@
         <v>0.0001</v>
       </c>
       <c r="G18" t="n">
+        <v>6.283399999999998</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.219300000000003</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.264</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1161,27 @@
         <v>837.9334</v>
       </c>
       <c r="G19" t="n">
+        <v>6.285199999999998</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.220850000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.264</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1205,27 @@
         <v>34633.4599</v>
       </c>
       <c r="G20" t="n">
+        <v>6.289666666666664</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.222633333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.306</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1249,27 @@
         <v>316726.0977</v>
       </c>
       <c r="G21" t="n">
+        <v>6.291066666666664</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.224650000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.32</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1293,25 @@
         <v>30000</v>
       </c>
       <c r="G22" t="n">
+        <v>6.292866666666664</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.225816666666669</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1335,25 @@
         <v>8363.189899999999</v>
       </c>
       <c r="G23" t="n">
+        <v>6.294666666666664</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.227266666666668</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1377,25 @@
         <v>698527.7813</v>
       </c>
       <c r="G24" t="n">
+        <v>6.29673333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.228533333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1419,25 @@
         <v>249733.2103</v>
       </c>
       <c r="G25" t="n">
+        <v>6.296999999999996</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.230366666666669</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1461,25 @@
         <v>39803.3913</v>
       </c>
       <c r="G26" t="n">
+        <v>6.296933333333329</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.233383333333335</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1503,25 @@
         <v>1148.9544</v>
       </c>
       <c r="G27" t="n">
+        <v>6.297399999999995</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.237350000000002</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1545,27 @@
         <v>2687.7557</v>
       </c>
       <c r="G28" t="n">
+        <v>6.302066666666661</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.240350000000002</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.3</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1589,27 @@
         <v>846.9647</v>
       </c>
       <c r="G29" t="n">
+        <v>6.304933333333327</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.242900000000002</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.33</v>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1633,25 @@
         <v>426.4636</v>
       </c>
       <c r="G30" t="n">
+        <v>6.306999999999993</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.244616666666669</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1675,25 @@
         <v>173069.5736</v>
       </c>
       <c r="G31" t="n">
+        <v>6.31186666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.246166666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1717,25 @@
         <v>7558.7392</v>
       </c>
       <c r="G32" t="n">
+        <v>6.31666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.247483333333336</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1759,25 @@
         <v>51507.1176</v>
       </c>
       <c r="G33" t="n">
+        <v>6.321466666666661</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.24941666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1801,25 @@
         <v>4469.2915</v>
       </c>
       <c r="G34" t="n">
+        <v>6.324933333333328</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.25156666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1843,25 @@
         <v>50483.8501</v>
       </c>
       <c r="G35" t="n">
+        <v>6.327533333333326</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.255166666666669</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1885,25 @@
         <v>15144.8797</v>
       </c>
       <c r="G36" t="n">
+        <v>6.329933333333327</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.257266666666669</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1927,25 @@
         <v>2152.2186</v>
       </c>
       <c r="G37" t="n">
+        <v>6.332399999999993</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.259516666666669</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1969,25 @@
         <v>15499.2498</v>
       </c>
       <c r="G38" t="n">
+        <v>6.330999999999992</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.260450000000002</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2011,27 @@
         <v>41525.5114</v>
       </c>
       <c r="G39" t="n">
+        <v>6.32906666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.261616666666669</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.303</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2055,27 @@
         <v>5735.2943</v>
       </c>
       <c r="G40" t="n">
+        <v>6.329133333333327</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.262666666666669</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.3</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2099,27 @@
         <v>170893.493</v>
       </c>
       <c r="G41" t="n">
+        <v>6.329133333333327</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.263833333333335</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.301</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2143,27 @@
         <v>180319.2183</v>
       </c>
       <c r="G42" t="n">
+        <v>6.32246666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.263600000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.294</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2187,27 @@
         <v>1006456.7777</v>
       </c>
       <c r="G43" t="n">
+        <v>6.313799999999994</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.263200000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6.2</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2231,27 @@
         <v>2322247.2034</v>
       </c>
       <c r="G44" t="n">
+        <v>6.307333333333328</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.265283333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.2</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2275,25 @@
         <v>13946.7924</v>
       </c>
       <c r="G45" t="n">
+        <v>6.297133333333327</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.266600000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2317,27 @@
         <v>10668.3856</v>
       </c>
       <c r="G46" t="n">
+        <v>6.289999999999994</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.267933333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.18</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2361,27 @@
         <v>129657.3088</v>
       </c>
       <c r="G47" t="n">
+        <v>6.281599999999994</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.269100000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6.229</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2405,27 @@
         <v>3600</v>
       </c>
       <c r="G48" t="n">
+        <v>6.27586666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.271266666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.21</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2449,27 @@
         <v>111513.0175</v>
       </c>
       <c r="G49" t="n">
+        <v>6.265999999999993</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.272450000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.25</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,24 +2493,27 @@
         <v>4520.7287</v>
       </c>
       <c r="G50" t="n">
+        <v>6.256066666666659</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.273633333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>6.21</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2169,24 +2537,27 @@
         <v>110264.3471</v>
       </c>
       <c r="G51" t="n">
+        <v>6.248733333333326</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.275133333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>6.21</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,22 +2581,25 @@
         <v>25648.0534</v>
       </c>
       <c r="G52" t="n">
+        <v>6.243133333333327</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.2769</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,22 +2623,25 @@
         <v>42621.7713</v>
       </c>
       <c r="G53" t="n">
+        <v>6.239333333333327</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.27775</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,22 +2665,25 @@
         <v>73496.10249999999</v>
       </c>
       <c r="G54" t="n">
+        <v>6.24006666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.2792</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,22 +2707,25 @@
         <v>21606.8817</v>
       </c>
       <c r="G55" t="n">
+        <v>6.238133333333327</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.28</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,22 +2749,25 @@
         <v>3429.237</v>
       </c>
       <c r="G56" t="n">
+        <v>6.237199999999993</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.280933333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2405,22 +2791,25 @@
         <v>10566.5876</v>
       </c>
       <c r="G57" t="n">
+        <v>6.24386666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.2822</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,22 +2833,25 @@
         <v>101448.587</v>
       </c>
       <c r="G58" t="n">
+        <v>6.245733333333326</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.282266666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,22 +2875,25 @@
         <v>70167.4926</v>
       </c>
       <c r="G59" t="n">
+        <v>6.247399999999993</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.282883333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,22 +2917,25 @@
         <v>38416.8845</v>
       </c>
       <c r="G60" t="n">
+        <v>6.255533333333326</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.284183333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2561,22 +2959,25 @@
         <v>10410.123</v>
       </c>
       <c r="G61" t="n">
+        <v>6.262333333333326</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.286333333333335</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2600,22 +3001,25 @@
         <v>2457.8386</v>
       </c>
       <c r="G62" t="n">
+        <v>6.270399999999993</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.287833333333336</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2639,22 +3043,25 @@
         <v>3405.9707</v>
       </c>
       <c r="G63" t="n">
+        <v>6.276266666666659</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.289250000000004</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,22 +3085,25 @@
         <v>26471.0793</v>
       </c>
       <c r="G64" t="n">
+        <v>6.282933333333327</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.28976666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2717,22 +3127,25 @@
         <v>57700.4012</v>
       </c>
       <c r="G65" t="n">
+        <v>6.289933333333327</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.290800000000004</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,22 +3169,25 @@
         <v>21802.3883</v>
       </c>
       <c r="G66" t="n">
+        <v>6.295333333333327</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.29126666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2795,22 +3211,25 @@
         <v>72755.4198</v>
       </c>
       <c r="G67" t="n">
+        <v>6.298799999999994</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.291800000000003</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,22 +3253,25 @@
         <v>1333.2571</v>
       </c>
       <c r="G68" t="n">
+        <v>6.302133333333328</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.291783333333336</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2873,22 +3295,25 @@
         <v>325136.6765</v>
       </c>
       <c r="G69" t="n">
+        <v>6.301399999999993</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.291816666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,22 +3337,25 @@
         <v>1347.0036</v>
       </c>
       <c r="G70" t="n">
+        <v>6.303933333333327</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.292050000000002</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,22 +3379,25 @@
         <v>2775.4325</v>
       </c>
       <c r="G71" t="n">
+        <v>6.307999999999993</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.292816666666669</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2990,22 +3421,25 @@
         <v>93360</v>
       </c>
       <c r="G72" t="n">
+        <v>6.311266666666659</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.293750000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,22 +3463,25 @@
         <v>51526</v>
       </c>
       <c r="G73" t="n">
+        <v>6.319999999999993</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.295400000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,22 +3505,25 @@
         <v>18568.9979</v>
       </c>
       <c r="G74" t="n">
+        <v>6.326533333333327</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.296550000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,22 +3547,25 @@
         <v>150577.368</v>
       </c>
       <c r="G75" t="n">
+        <v>6.33106666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.297683333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,22 +3589,25 @@
         <v>8486.701300000001</v>
       </c>
       <c r="G76" t="n">
+        <v>6.331799999999992</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.299000000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3185,22 +3631,25 @@
         <v>101114.603</v>
       </c>
       <c r="G77" t="n">
+        <v>6.331799999999992</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.300116666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,22 +3673,25 @@
         <v>6571.63</v>
       </c>
       <c r="G78" t="n">
+        <v>6.331333333333327</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.301233333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3263,22 +3715,25 @@
         <v>2422.7269</v>
       </c>
       <c r="G79" t="n">
+        <v>6.332733333333326</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.301650000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,22 +3757,25 @@
         <v>363006.7106</v>
       </c>
       <c r="G80" t="n">
+        <v>6.328533333333326</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.300516666666669</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3341,22 +3799,25 @@
         <v>6565.2977</v>
       </c>
       <c r="G81" t="n">
+        <v>6.328533333333326</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.300633333333336</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,22 +3841,25 @@
         <v>82479.4691</v>
       </c>
       <c r="G82" t="n">
+        <v>6.328733333333327</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.300766666666669</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3419,22 +3883,25 @@
         <v>93987.6237</v>
       </c>
       <c r="G83" t="n">
+        <v>6.330999999999992</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.300866666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,22 +3925,25 @@
         <v>3571.6543</v>
       </c>
       <c r="G84" t="n">
+        <v>6.331133333333326</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.300416666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3497,22 +3967,25 @@
         <v>433.0881</v>
       </c>
       <c r="G85" t="n">
+        <v>6.332466666666659</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.300916666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,22 +4009,25 @@
         <v>64438.2375</v>
       </c>
       <c r="G86" t="n">
+        <v>6.331733333333326</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.301516666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,22 +4051,25 @@
         <v>120000</v>
       </c>
       <c r="G87" t="n">
+        <v>6.332666666666658</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.302566666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,22 +4093,25 @@
         <v>134194.2654</v>
       </c>
       <c r="G88" t="n">
+        <v>6.334733333333326</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.303566666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,22 +4135,25 @@
         <v>45273.5246</v>
       </c>
       <c r="G89" t="n">
+        <v>6.338133333333326</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.304850000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,22 +4177,25 @@
         <v>3228.9543</v>
       </c>
       <c r="G90" t="n">
+        <v>6.340799999999992</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.306133333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3731,22 +4219,25 @@
         <v>22040.0139</v>
       </c>
       <c r="G91" t="n">
+        <v>6.343999999999992</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.307033333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,22 +4261,25 @@
         <v>1461.9194</v>
       </c>
       <c r="G92" t="n">
+        <v>6.347933333333326</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.307933333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,22 +4303,25 @@
         <v>12057.9139</v>
       </c>
       <c r="G93" t="n">
+        <v>6.354999999999992</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.309616666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,22 +4345,25 @@
         <v>4340.3562</v>
       </c>
       <c r="G94" t="n">
+        <v>6.364599999999991</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.311566666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3887,22 +4387,25 @@
         <v>54041.2565</v>
       </c>
       <c r="G95" t="n">
+        <v>6.380999999999991</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.313883333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,22 +4429,25 @@
         <v>20280.6513</v>
       </c>
       <c r="G96" t="n">
+        <v>6.392266666666658</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.316216666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,22 +4471,27 @@
         <v>244256.5013</v>
       </c>
       <c r="G97" t="n">
+        <v>6.405199999999992</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.318966666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4002,18 +4513,25 @@
         <v>14418.221</v>
       </c>
       <c r="G98" t="n">
+        <v>6.416666666666658</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.322283333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,18 +4555,25 @@
         <v>150520.5703</v>
       </c>
       <c r="G99" t="n">
+        <v>6.431466666666657</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.326016666666669</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,18 +4597,25 @@
         <v>232977.1367</v>
       </c>
       <c r="G100" t="n">
+        <v>6.446133333333324</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.330166666666669</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,18 +4639,25 @@
         <v>3240.8578</v>
       </c>
       <c r="G101" t="n">
+        <v>6.460533333333325</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.334366666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,18 +4681,25 @@
         <v>55146.843</v>
       </c>
       <c r="G102" t="n">
+        <v>6.471266666666659</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.339766666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,18 +4723,25 @@
         <v>22636.2383</v>
       </c>
       <c r="G103" t="n">
+        <v>6.480199999999992</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.345166666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,18 +4765,25 @@
         <v>723775.7654</v>
       </c>
       <c r="G104" t="n">
+        <v>6.487799999999992</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.34996666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,18 +4807,25 @@
         <v>4298.7468</v>
       </c>
       <c r="G105" t="n">
+        <v>6.491399999999993</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.354700000000003</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,18 +4849,25 @@
         <v>6005.9477</v>
       </c>
       <c r="G106" t="n">
+        <v>6.495399999999992</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.358383333333336</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4317,18 +4891,25 @@
         <v>236468.7526</v>
       </c>
       <c r="G107" t="n">
+        <v>6.492799999999992</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.360733333333337</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,18 +4933,25 @@
         <v>141329.4765</v>
       </c>
       <c r="G108" t="n">
+        <v>6.483666666666659</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.36156666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,18 +4975,25 @@
         <v>10334.9599</v>
       </c>
       <c r="G109" t="n">
+        <v>6.471999999999992</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.36306666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,18 +5017,25 @@
         <v>936937.3666</v>
       </c>
       <c r="G110" t="n">
+        <v>6.456933333333326</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.364100000000004</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,18 +5059,27 @@
         <v>123595.8228</v>
       </c>
       <c r="G111" t="n">
+        <v>6.44766666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.365950000000003</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>6.272</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,18 +5103,27 @@
         <v>35255.0691</v>
       </c>
       <c r="G112" t="n">
+        <v>6.436733333333326</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.367366666666671</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>6.36</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4527,18 +5147,27 @@
         <v>5879.0797</v>
       </c>
       <c r="G113" t="n">
+        <v>6.428599999999992</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.369600000000005</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>6.36</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,18 +5191,27 @@
         <v>6376.192</v>
       </c>
       <c r="G114" t="n">
+        <v>6.420533333333326</v>
+      </c>
+      <c r="H114" t="n">
         <v>6.371133333333338</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>6.38</v>
+      </c>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,18 +5235,25 @@
         <v>135871.098</v>
       </c>
       <c r="G115" t="n">
+        <v>6.408999999999993</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.372883333333339</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,18 +5277,25 @@
         <v>39439.6771</v>
       </c>
       <c r="G116" t="n">
+        <v>6.40066666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.375233333333339</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,18 +5319,25 @@
         <v>104834.9509</v>
       </c>
       <c r="G117" t="n">
+        <v>6.395999999999992</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.377800000000006</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,18 +5361,25 @@
         <v>13421.1779</v>
       </c>
       <c r="G118" t="n">
+        <v>6.394133333333325</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.382266666666672</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,18 +5403,25 @@
         <v>5982.7868</v>
       </c>
       <c r="G119" t="n">
+        <v>6.392466666666659</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.386233333333339</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,18 +5445,25 @@
         <v>12000</v>
       </c>
       <c r="G120" t="n">
+        <v>6.398333333333325</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.390400000000005</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +5487,25 @@
         <v>26827.9983</v>
       </c>
       <c r="G121" t="n">
+        <v>6.405066666666658</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.394066666666672</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,18 +5529,25 @@
         <v>21707.8969</v>
       </c>
       <c r="G122" t="n">
+        <v>6.420333333333326</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.398216666666671</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,18 +5571,25 @@
         <v>302477.613</v>
       </c>
       <c r="G123" t="n">
+        <v>6.440266666666659</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.402566666666671</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,18 +5613,25 @@
         <v>61843.553</v>
       </c>
       <c r="G124" t="n">
+        <v>6.460199999999992</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.407383333333337</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,18 +5655,25 @@
         <v>116342.8939</v>
       </c>
       <c r="G125" t="n">
+        <v>6.481999999999993</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.41211666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,18 +5697,25 @@
         <v>106839.7365</v>
       </c>
       <c r="G126" t="n">
+        <v>6.498733333333326</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.416800000000004</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,18 +5739,25 @@
         <v>85820.7879</v>
       </c>
       <c r="G127" t="n">
+        <v>6.51566666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.421583333333336</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,18 +5781,25 @@
         <v>3000</v>
       </c>
       <c r="G128" t="n">
+        <v>6.53226666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.427133333333336</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,18 +5823,25 @@
         <v>139417.4426</v>
       </c>
       <c r="G129" t="n">
+        <v>6.546533333333327</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.43241666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,18 +5865,25 @@
         <v>214697.3319</v>
       </c>
       <c r="G130" t="n">
+        <v>6.563133333333328</v>
+      </c>
+      <c r="H130" t="n">
         <v>6.437683333333337</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,18 +5907,25 @@
         <v>46732.9242</v>
       </c>
       <c r="G131" t="n">
+        <v>6.579933333333328</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.44321666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,18 +5949,25 @@
         <v>17780.5811</v>
       </c>
       <c r="G132" t="n">
+        <v>6.594933333333328</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.44871666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,18 +5991,25 @@
         <v>8554.129999999999</v>
       </c>
       <c r="G133" t="n">
+        <v>6.604533333333328</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.453400000000003</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,18 +6033,25 @@
         <v>9329.9953</v>
       </c>
       <c r="G134" t="n">
+        <v>6.611133333333329</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.457383333333337</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,18 +6075,25 @@
         <v>3695.3537</v>
       </c>
       <c r="G135" t="n">
+        <v>6.610999999999995</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.460383333333337</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,18 +6117,25 @@
         <v>84105.1259</v>
       </c>
       <c r="G136" t="n">
+        <v>6.610199999999995</v>
+      </c>
+      <c r="H136" t="n">
         <v>6.46366666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,18 +6159,25 @@
         <v>17202.0872</v>
       </c>
       <c r="G137" t="n">
+        <v>6.604999999999995</v>
+      </c>
+      <c r="H137" t="n">
         <v>6.46651666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,18 +6201,25 @@
         <v>142281.4547</v>
       </c>
       <c r="G138" t="n">
+        <v>6.601733333333328</v>
+      </c>
+      <c r="H138" t="n">
         <v>6.47016666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5437,18 +6243,25 @@
         <v>104020.1636</v>
       </c>
       <c r="G139" t="n">
+        <v>6.599133333333328</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.473983333333337</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,18 +6285,25 @@
         <v>1863</v>
       </c>
       <c r="G140" t="n">
+        <v>6.593866666666661</v>
+      </c>
+      <c r="H140" t="n">
         <v>6.478450000000003</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5507,18 +6327,25 @@
         <v>56856.7588</v>
       </c>
       <c r="G141" t="n">
+        <v>6.592266666666661</v>
+      </c>
+      <c r="H141" t="n">
         <v>6.482733333333337</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,18 +6369,25 @@
         <v>1493.1248</v>
       </c>
       <c r="G142" t="n">
+        <v>6.591066666666661</v>
+      </c>
+      <c r="H142" t="n">
         <v>6.48716666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5577,18 +6411,25 @@
         <v>49547.923</v>
       </c>
       <c r="G143" t="n">
+        <v>6.588933333333327</v>
+      </c>
+      <c r="H143" t="n">
         <v>6.49161666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,18 +6453,25 @@
         <v>49964.4008</v>
       </c>
       <c r="G144" t="n">
+        <v>6.587799999999993</v>
+      </c>
+      <c r="H144" t="n">
         <v>6.496583333333336</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,18 +6495,25 @@
         <v>11233.4801</v>
       </c>
       <c r="G145" t="n">
+        <v>6.588533333333326</v>
+      </c>
+      <c r="H145" t="n">
         <v>6.501700000000003</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,18 +6537,25 @@
         <v>60066</v>
       </c>
       <c r="G146" t="n">
+        <v>6.582399999999993</v>
+      </c>
+      <c r="H146" t="n">
         <v>6.505883333333338</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,18 +6579,25 @@
         <v>225164.9601</v>
       </c>
       <c r="G147" t="n">
+        <v>6.579799999999993</v>
+      </c>
+      <c r="H147" t="n">
         <v>6.510500000000004</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,18 +6621,25 @@
         <v>91634</v>
       </c>
       <c r="G148" t="n">
+        <v>6.580399999999993</v>
+      </c>
+      <c r="H148" t="n">
         <v>6.514816666666671</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5787,18 +6663,25 @@
         <v>27976.6774</v>
       </c>
       <c r="G149" t="n">
+        <v>6.58406666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>6.51886666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,18 +6705,25 @@
         <v>118341.0362</v>
       </c>
       <c r="G150" t="n">
+        <v>6.590933333333327</v>
+      </c>
+      <c r="H150" t="n">
         <v>6.522916666666671</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5857,18 +6747,25 @@
         <v>79065.16220000001</v>
       </c>
       <c r="G151" t="n">
+        <v>6.60026666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>6.527733333333336</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,18 +6789,25 @@
         <v>37822.0804</v>
       </c>
       <c r="G152" t="n">
+        <v>6.612066666666661</v>
+      </c>
+      <c r="H152" t="n">
         <v>6.532550000000003</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5927,18 +6831,25 @@
         <v>60309.33239726</v>
       </c>
       <c r="G153" t="n">
+        <v>6.621933333333327</v>
+      </c>
+      <c r="H153" t="n">
         <v>6.536900000000003</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,18 +6873,25 @@
         <v>171244.6563</v>
       </c>
       <c r="G154" t="n">
+        <v>6.631133333333326</v>
+      </c>
+      <c r="H154" t="n">
         <v>6.540616666666669</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5997,18 +6915,25 @@
         <v>120122.7117</v>
       </c>
       <c r="G155" t="n">
+        <v>6.64286666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>6.54391666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,18 +6957,25 @@
         <v>50874.0945</v>
       </c>
       <c r="G156" t="n">
+        <v>6.650133333333327</v>
+      </c>
+      <c r="H156" t="n">
         <v>6.547200000000003</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,18 +6999,25 @@
         <v>136467.7189</v>
       </c>
       <c r="G157" t="n">
+        <v>6.656799999999993</v>
+      </c>
+      <c r="H157" t="n">
         <v>6.55006666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,18 +7041,25 @@
         <v>21000</v>
       </c>
       <c r="G158" t="n">
+        <v>6.663599999999993</v>
+      </c>
+      <c r="H158" t="n">
         <v>6.553350000000004</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6137,18 +7083,25 @@
         <v>112648.4296</v>
       </c>
       <c r="G159" t="n">
+        <v>6.670199999999993</v>
+      </c>
+      <c r="H159" t="n">
         <v>6.55626666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,18 +7125,25 @@
         <v>537134.3377</v>
       </c>
       <c r="G160" t="n">
+        <v>6.674399999999993</v>
+      </c>
+      <c r="H160" t="n">
         <v>6.55876666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,20 +7167,25 @@
         <v>198475.0456</v>
       </c>
       <c r="G161" t="n">
+        <v>6.682333333333327</v>
+      </c>
+      <c r="H161" t="n">
         <v>6.561333333333336</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6242,18 +7207,21 @@
         <v>503083.9629</v>
       </c>
       <c r="G162" t="n">
+        <v>6.689599999999993</v>
+      </c>
+      <c r="H162" t="n">
         <v>6.565083333333336</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,18 +7245,21 @@
         <v>60309.3323</v>
       </c>
       <c r="G163" t="n">
+        <v>6.694066666666659</v>
+      </c>
+      <c r="H163" t="n">
         <v>6.568283333333337</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,18 +7283,21 @@
         <v>2596</v>
       </c>
       <c r="G164" t="n">
+        <v>6.700533333333325</v>
+      </c>
+      <c r="H164" t="n">
         <v>6.572050000000004</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6347,18 +7321,21 @@
         <v>2404</v>
       </c>
       <c r="G165" t="n">
+        <v>6.706999999999992</v>
+      </c>
+      <c r="H165" t="n">
         <v>6.57681666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6382,18 +7359,21 @@
         <v>6807.3838</v>
       </c>
       <c r="G166" t="n">
+        <v>6.711133333333325</v>
+      </c>
+      <c r="H166" t="n">
         <v>6.58166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,18 +7397,21 @@
         <v>165416.7125</v>
       </c>
       <c r="G167" t="n">
+        <v>6.718933333333325</v>
+      </c>
+      <c r="H167" t="n">
         <v>6.589083333333337</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,18 +7435,21 @@
         <v>8116.7503</v>
       </c>
       <c r="G168" t="n">
+        <v>6.72546666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>6.597350000000003</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,18 +7473,21 @@
         <v>170139.2067</v>
       </c>
       <c r="G169" t="n">
+        <v>6.731933333333327</v>
+      </c>
+      <c r="H169" t="n">
         <v>6.605600000000003</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6522,18 +7511,21 @@
         <v>464353.5253</v>
       </c>
       <c r="G170" t="n">
+        <v>6.735333333333327</v>
+      </c>
+      <c r="H170" t="n">
         <v>6.61351666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6557,18 +7549,21 @@
         <v>173734.9346</v>
       </c>
       <c r="G171" t="n">
+        <v>6.738533333333327</v>
+      </c>
+      <c r="H171" t="n">
         <v>6.619916666666669</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6592,18 +7587,21 @@
         <v>24587.1709</v>
       </c>
       <c r="G172" t="n">
+        <v>6.741733333333327</v>
+      </c>
+      <c r="H172" t="n">
         <v>6.62631666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6627,18 +7625,21 @@
         <v>18411.8387</v>
       </c>
       <c r="G173" t="n">
+        <v>6.745199999999994</v>
+      </c>
+      <c r="H173" t="n">
         <v>6.632500000000003</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,18 +7663,21 @@
         <v>9390.957</v>
       </c>
       <c r="G174" t="n">
+        <v>6.751533333333327</v>
+      </c>
+      <c r="H174" t="n">
         <v>6.639016666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6697,18 +7701,21 @@
         <v>4313.0026</v>
       </c>
       <c r="G175" t="n">
+        <v>6.75446666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>6.645133333333336</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6732,18 +7739,21 @@
         <v>136637.94597834</v>
       </c>
       <c r="G176" t="n">
+        <v>6.761066666666661</v>
+      </c>
+      <c r="H176" t="n">
         <v>6.651433333333335</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6767,18 +7777,21 @@
         <v>31830.0605</v>
       </c>
       <c r="G177" t="n">
+        <v>6.75946666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>6.655950000000002</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,18 +7815,21 @@
         <v>2269.1518</v>
       </c>
       <c r="G178" t="n">
+        <v>6.760066666666661</v>
+      </c>
+      <c r="H178" t="n">
         <v>6.65976666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6837,18 +7853,21 @@
         <v>30146.267</v>
       </c>
       <c r="G179" t="n">
+        <v>6.758399999999994</v>
+      </c>
+      <c r="H179" t="n">
         <v>6.663533333333336</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6872,18 +7891,21 @@
         <v>129523.1225</v>
       </c>
       <c r="G180" t="n">
+        <v>6.755066666666661</v>
+      </c>
+      <c r="H180" t="n">
         <v>6.666000000000002</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6907,18 +7929,21 @@
         <v>58683.1286</v>
       </c>
       <c r="G181" t="n">
+        <v>6.749066666666661</v>
+      </c>
+      <c r="H181" t="n">
         <v>6.66766666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6942,18 +7967,21 @@
         <v>1665.6825</v>
       </c>
       <c r="G182" t="n">
+        <v>6.737999999999993</v>
+      </c>
+      <c r="H182" t="n">
         <v>6.668500000000003</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6977,18 +8005,21 @@
         <v>424476.9781</v>
       </c>
       <c r="G183" t="n">
+        <v>6.72206666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>6.667800000000003</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7012,18 +8043,21 @@
         <v>146.1683</v>
       </c>
       <c r="G184" t="n">
+        <v>6.709533333333326</v>
+      </c>
+      <c r="H184" t="n">
         <v>6.667933333333337</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7047,18 +8081,21 @@
         <v>68650</v>
       </c>
       <c r="G185" t="n">
+        <v>6.700933333333325</v>
+      </c>
+      <c r="H185" t="n">
         <v>6.668250000000004</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7082,18 +8119,21 @@
         <v>3845</v>
       </c>
       <c r="G186" t="n">
+        <v>6.691333333333325</v>
+      </c>
+      <c r="H186" t="n">
         <v>6.668066666666672</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7117,18 +8157,21 @@
         <v>3025.718</v>
       </c>
       <c r="G187" t="n">
+        <v>6.683066666666659</v>
+      </c>
+      <c r="H187" t="n">
         <v>6.668166666666672</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7152,18 +8195,21 @@
         <v>58683.1287</v>
       </c>
       <c r="G188" t="n">
+        <v>6.672133333333325</v>
+      </c>
+      <c r="H188" t="n">
         <v>6.667466666666671</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7187,18 +8233,21 @@
         <v>65377.8625</v>
       </c>
       <c r="G189" t="n">
+        <v>6.657799999999992</v>
+      </c>
+      <c r="H189" t="n">
         <v>6.666833333333338</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7222,18 +8271,21 @@
         <v>29096.0935</v>
       </c>
       <c r="G190" t="n">
+        <v>6.646399999999992</v>
+      </c>
+      <c r="H190" t="n">
         <v>6.665950000000005</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7257,18 +8309,21 @@
         <v>17580.5098</v>
       </c>
       <c r="G191" t="n">
+        <v>6.635933333333325</v>
+      </c>
+      <c r="H191" t="n">
         <v>6.665433333333338</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7292,18 +8347,21 @@
         <v>87974.0742</v>
       </c>
       <c r="G192" t="n">
+        <v>6.630999999999991</v>
+      </c>
+      <c r="H192" t="n">
         <v>6.664966666666672</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7327,18 +8385,21 @@
         <v>16717.0691</v>
       </c>
       <c r="G193" t="n">
+        <v>6.624666666666658</v>
+      </c>
+      <c r="H193" t="n">
         <v>6.664800000000005</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7362,18 +8423,21 @@
         <v>9835.349399999999</v>
       </c>
       <c r="G194" t="n">
+        <v>6.618999999999992</v>
+      </c>
+      <c r="H194" t="n">
         <v>6.665500000000005</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7397,18 +8461,21 @@
         <v>170198.2102</v>
       </c>
       <c r="G195" t="n">
+        <v>6.611799999999992</v>
+      </c>
+      <c r="H195" t="n">
         <v>6.666200000000004</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,18 +8499,21 @@
         <v>9606.786599999999</v>
       </c>
       <c r="G196" t="n">
+        <v>6.607933333333325</v>
+      </c>
+      <c r="H196" t="n">
         <v>6.667100000000005</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7467,18 +8537,21 @@
         <v>1045.5569</v>
       </c>
       <c r="G197" t="n">
+        <v>6.601599999999992</v>
+      </c>
+      <c r="H197" t="n">
         <v>6.667650000000005</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7502,18 +8575,21 @@
         <v>2496</v>
       </c>
       <c r="G198" t="n">
+        <v>6.598466666666659</v>
+      </c>
+      <c r="H198" t="n">
         <v>6.666983333333338</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,18 +8613,21 @@
         <v>3281377.0379</v>
       </c>
       <c r="G199" t="n">
+        <v>6.590933333333326</v>
+      </c>
+      <c r="H199" t="n">
         <v>6.665883333333338</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7572,18 +8651,21 @@
         <v>1528.5982</v>
       </c>
       <c r="G200" t="n">
+        <v>6.579733333333326</v>
+      </c>
+      <c r="H200" t="n">
         <v>6.664716666666672</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7607,18 +8689,21 @@
         <v>100</v>
       </c>
       <c r="G201" t="n">
+        <v>6.56706666666666</v>
+      </c>
+      <c r="H201" t="n">
         <v>6.661766666666671</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7642,18 +8727,21 @@
         <v>3989.2063</v>
       </c>
       <c r="G202" t="n">
+        <v>6.551733333333327</v>
+      </c>
+      <c r="H202" t="n">
         <v>6.658333333333338</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7677,18 +8765,21 @@
         <v>156724.5795</v>
       </c>
       <c r="G203" t="n">
+        <v>6.53506666666666</v>
+      </c>
+      <c r="H203" t="n">
         <v>6.654000000000005</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7712,18 +8803,21 @@
         <v>3371.3902</v>
       </c>
       <c r="G204" t="n">
+        <v>6.51886666666666</v>
+      </c>
+      <c r="H204" t="n">
         <v>6.649600000000005</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7747,18 +8841,21 @@
         <v>8326.0237</v>
       </c>
       <c r="G205" t="n">
+        <v>6.503199999999993</v>
+      </c>
+      <c r="H205" t="n">
         <v>6.644616666666672</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7782,18 +8879,21 @@
         <v>211922.7409</v>
       </c>
       <c r="G206" t="n">
+        <v>6.483599999999993</v>
+      </c>
+      <c r="H206" t="n">
         <v>6.640733333333339</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7817,18 +8917,21 @@
         <v>800</v>
       </c>
       <c r="G207" t="n">
+        <v>6.46286666666666</v>
+      </c>
+      <c r="H207" t="n">
         <v>6.635733333333338</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7852,18 +8955,21 @@
         <v>128357.8114</v>
       </c>
       <c r="G208" t="n">
+        <v>6.44126666666666</v>
+      </c>
+      <c r="H208" t="n">
         <v>6.630016666666672</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7887,18 +8993,21 @@
         <v>657.4233</v>
       </c>
       <c r="G209" t="n">
+        <v>6.41926666666666</v>
+      </c>
+      <c r="H209" t="n">
         <v>6.624300000000004</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7922,18 +9031,21 @@
         <v>18623.566</v>
       </c>
       <c r="G210" t="n">
+        <v>6.398466666666661</v>
+      </c>
+      <c r="H210" t="n">
         <v>6.618083333333336</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7957,18 +9069,21 @@
         <v>392.7528</v>
       </c>
       <c r="G211" t="n">
+        <v>6.377133333333327</v>
+      </c>
+      <c r="H211" t="n">
         <v>6.611316666666671</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,18 +9107,21 @@
         <v>46297.7907</v>
       </c>
       <c r="G212" t="n">
+        <v>6.354199999999993</v>
+      </c>
+      <c r="H212" t="n">
         <v>6.603183333333337</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8027,22 +9145,21 @@
         <v>123934.2836</v>
       </c>
       <c r="G213" t="n">
+        <v>6.342199999999993</v>
+      </c>
+      <c r="H213" t="n">
         <v>6.597050000000005</v>
       </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>6.191</v>
-      </c>
-      <c r="K213" t="n">
-        <v>6.191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8066,26 +9183,21 @@
         <v>15936.57</v>
       </c>
       <c r="G214" t="n">
+        <v>6.332399999999993</v>
+      </c>
+      <c r="H214" t="n">
         <v>6.591200000000004</v>
       </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K214" t="n">
-        <v>6.191</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8109,24 +9221,21 @@
         <v>6000</v>
       </c>
       <c r="G215" t="n">
+        <v>6.32606666666666</v>
+      </c>
+      <c r="H215" t="n">
         <v>6.585516666666671</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>6.191</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8150,18 +9259,21 @@
         <v>9962.046200000001</v>
       </c>
       <c r="G216" t="n">
+        <v>6.32306666666666</v>
+      </c>
+      <c r="H216" t="n">
         <v>6.580000000000004</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8185,18 +9297,21 @@
         <v>65339.3569</v>
       </c>
       <c r="G217" t="n">
+        <v>6.316199999999993</v>
+      </c>
+      <c r="H217" t="n">
         <v>6.573183333333336</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8220,18 +9335,21 @@
         <v>79800</v>
       </c>
       <c r="G218" t="n">
+        <v>6.31506666666666</v>
+      </c>
+      <c r="H218" t="n">
         <v>6.56686666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8255,18 +9373,21 @@
         <v>202618.3766</v>
       </c>
       <c r="G219" t="n">
+        <v>6.315199999999993</v>
+      </c>
+      <c r="H219" t="n">
         <v>6.560850000000003</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8290,18 +9411,21 @@
         <v>565117.85</v>
       </c>
       <c r="G220" t="n">
+        <v>6.321866666666661</v>
+      </c>
+      <c r="H220" t="n">
         <v>6.556483333333336</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8325,18 +9449,21 @@
         <v>2245.9687</v>
       </c>
       <c r="G221" t="n">
+        <v>6.328333333333328</v>
+      </c>
+      <c r="H221" t="n">
         <v>6.552233333333336</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8360,18 +9487,21 @@
         <v>2514.6752402</v>
       </c>
       <c r="G222" t="n">
+        <v>6.336266666666661</v>
+      </c>
+      <c r="H222" t="n">
         <v>6.547400000000002</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8395,18 +9525,21 @@
         <v>18012.084</v>
       </c>
       <c r="G223" t="n">
+        <v>6.346466666666661</v>
+      </c>
+      <c r="H223" t="n">
         <v>6.543116666666669</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8430,18 +9563,21 @@
         <v>786147.5268</v>
       </c>
       <c r="G224" t="n">
+        <v>6.357866666666661</v>
+      </c>
+      <c r="H224" t="n">
         <v>6.538633333333336</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8465,18 +9601,21 @@
         <v>234616.27327962</v>
       </c>
       <c r="G225" t="n">
+        <v>6.369933333333327</v>
+      </c>
+      <c r="H225" t="n">
         <v>6.533816666666669</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8500,18 +9639,21 @@
         <v>7965.3666</v>
       </c>
       <c r="G226" t="n">
+        <v>6.382466666666661</v>
+      </c>
+      <c r="H226" t="n">
         <v>6.529150000000003</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8535,18 +9677,21 @@
         <v>2131.3423</v>
       </c>
       <c r="G227" t="n">
+        <v>6.400533333333327</v>
+      </c>
+      <c r="H227" t="n">
         <v>6.523583333333336</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8570,18 +9715,21 @@
         <v>1410.6661</v>
       </c>
       <c r="G228" t="n">
+        <v>6.409266666666661</v>
+      </c>
+      <c r="H228" t="n">
         <v>6.518000000000003</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8605,18 +9753,21 @@
         <v>2009.6759</v>
       </c>
       <c r="G229" t="n">
+        <v>6.415466666666661</v>
+      </c>
+      <c r="H229" t="n">
         <v>6.512083333333337</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8640,18 +9791,21 @@
         <v>54154.9897</v>
       </c>
       <c r="G230" t="n">
+        <v>6.420733333333327</v>
+      </c>
+      <c r="H230" t="n">
         <v>6.50686666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8675,18 +9829,21 @@
         <v>34290</v>
       </c>
       <c r="G231" t="n">
+        <v>6.423466666666661</v>
+      </c>
+      <c r="H231" t="n">
         <v>6.501233333333336</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,18 +9867,21 @@
         <v>45000</v>
       </c>
       <c r="G232" t="n">
+        <v>6.431599999999994</v>
+      </c>
+      <c r="H232" t="n">
         <v>6.495650000000002</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8745,18 +9905,21 @@
         <v>394530.7699</v>
       </c>
       <c r="G233" t="n">
+        <v>6.445666666666662</v>
+      </c>
+      <c r="H233" t="n">
         <v>6.491983333333336</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8780,18 +9943,21 @@
         <v>2597.5063</v>
       </c>
       <c r="G234" t="n">
+        <v>6.458533333333329</v>
+      </c>
+      <c r="H234" t="n">
         <v>6.487600000000003</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8815,18 +9981,21 @@
         <v>9860.6266</v>
       </c>
       <c r="G235" t="n">
+        <v>6.464666666666662</v>
+      </c>
+      <c r="H235" t="n">
         <v>6.484033333333335</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8850,18 +10019,21 @@
         <v>40056.4365</v>
       </c>
       <c r="G236" t="n">
+        <v>6.470666666666661</v>
+      </c>
+      <c r="H236" t="n">
         <v>6.479633333333337</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8885,18 +10057,21 @@
         <v>16999.1439</v>
       </c>
       <c r="G237" t="n">
+        <v>6.474733333333328</v>
+      </c>
+      <c r="H237" t="n">
         <v>6.476216666666669</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8920,18 +10095,21 @@
         <v>2033.7363</v>
       </c>
       <c r="G238" t="n">
+        <v>6.478933333333328</v>
+      </c>
+      <c r="H238" t="n">
         <v>6.472833333333336</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8955,18 +10133,21 @@
         <v>1721.0547</v>
       </c>
       <c r="G239" t="n">
+        <v>6.478599999999995</v>
+      </c>
+      <c r="H239" t="n">
         <v>6.468683333333335</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8990,18 +10171,21 @@
         <v>49890</v>
       </c>
       <c r="G240" t="n">
+        <v>6.477333333333329</v>
+      </c>
+      <c r="H240" t="n">
         <v>6.464383333333335</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9025,18 +10209,21 @@
         <v>100892.7887</v>
       </c>
       <c r="G241" t="n">
+        <v>6.476599999999995</v>
+      </c>
+      <c r="H241" t="n">
         <v>6.461033333333335</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9060,18 +10247,21 @@
         <v>85486.9081</v>
       </c>
       <c r="G242" t="n">
+        <v>6.476666666666661</v>
+      </c>
+      <c r="H242" t="n">
         <v>6.458250000000002</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9095,18 +10285,21 @@
         <v>80</v>
       </c>
       <c r="G243" t="n">
+        <v>6.476799999999995</v>
+      </c>
+      <c r="H243" t="n">
         <v>6.456683333333335</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9130,18 +10323,21 @@
         <v>5493.4855</v>
       </c>
       <c r="G244" t="n">
+        <v>6.478266666666661</v>
+      </c>
+      <c r="H244" t="n">
         <v>6.454266666666668</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9165,18 +10361,21 @@
         <v>150</v>
       </c>
       <c r="G245" t="n">
+        <v>6.480066666666661</v>
+      </c>
+      <c r="H245" t="n">
         <v>6.451650000000002</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9200,18 +10399,21 @@
         <v>80</v>
       </c>
       <c r="G246" t="n">
+        <v>6.483799999999994</v>
+      </c>
+      <c r="H246" t="n">
         <v>6.449350000000001</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9235,18 +10437,21 @@
         <v>6000</v>
       </c>
       <c r="G247" t="n">
+        <v>6.491866666666661</v>
+      </c>
+      <c r="H247" t="n">
         <v>6.447850000000001</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9270,18 +10475,21 @@
         <v>979.2606</v>
       </c>
       <c r="G248" t="n">
+        <v>6.488933333333327</v>
+      </c>
+      <c r="H248" t="n">
         <v>6.446183333333335</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9305,18 +10513,21 @@
         <v>74542.87850000001</v>
       </c>
       <c r="G249" t="n">
+        <v>6.485533333333326</v>
+      </c>
+      <c r="H249" t="n">
         <v>6.444533333333335</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9340,18 +10551,21 @@
         <v>22458.2938</v>
       </c>
       <c r="G250" t="n">
+        <v>6.482199999999994</v>
+      </c>
+      <c r="H250" t="n">
         <v>6.442983333333335</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9375,18 +10589,21 @@
         <v>60138.0414</v>
       </c>
       <c r="G251" t="n">
+        <v>6.478533333333328</v>
+      </c>
+      <c r="H251" t="n">
         <v>6.440283333333336</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9410,18 +10627,21 @@
         <v>159048.0237</v>
       </c>
       <c r="G252" t="n">
+        <v>6.477133333333327</v>
+      </c>
+      <c r="H252" t="n">
         <v>6.437750000000003</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9445,18 +10665,21 @@
         <v>17608.8553</v>
       </c>
       <c r="G253" t="n">
+        <v>6.475599999999994</v>
+      </c>
+      <c r="H253" t="n">
         <v>6.43556666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9480,18 +10703,21 @@
         <v>29258.5211</v>
       </c>
       <c r="G254" t="n">
+        <v>6.477133333333327</v>
+      </c>
+      <c r="H254" t="n">
         <v>6.43321666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9515,18 +10741,21 @@
         <v>6324.4803</v>
       </c>
       <c r="G255" t="n">
+        <v>6.48166666666666</v>
+      </c>
+      <c r="H255" t="n">
         <v>6.431850000000003</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9550,18 +10779,21 @@
         <v>434.2647</v>
       </c>
       <c r="G256" t="n">
+        <v>6.485666666666661</v>
+      </c>
+      <c r="H256" t="n">
         <v>6.43046666666667</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9585,18 +10817,21 @@
         <v>100</v>
       </c>
       <c r="G257" t="n">
+        <v>6.490133333333328</v>
+      </c>
+      <c r="H257" t="n">
         <v>6.430383333333336</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9620,18 +10855,21 @@
         <v>73000</v>
       </c>
       <c r="G258" t="n">
+        <v>6.494333333333328</v>
+      </c>
+      <c r="H258" t="n">
         <v>6.430650000000003</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9655,18 +10893,21 @@
         <v>150</v>
       </c>
       <c r="G259" t="n">
+        <v>6.499533333333328</v>
+      </c>
+      <c r="H259" t="n">
         <v>6.43141666666667</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9690,18 +10931,21 @@
         <v>7827.8035</v>
       </c>
       <c r="G260" t="n">
+        <v>6.506533333333328</v>
+      </c>
+      <c r="H260" t="n">
         <v>6.433350000000003</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9725,18 +10969,21 @@
         <v>1409.2606</v>
       </c>
       <c r="G261" t="n">
+        <v>6.514133333333328</v>
+      </c>
+      <c r="H261" t="n">
         <v>6.43611666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9760,18 +11007,21 @@
         <v>12358.6017</v>
       </c>
       <c r="G262" t="n">
+        <v>6.517266666666661</v>
+      </c>
+      <c r="H262" t="n">
         <v>6.439233333333337</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9795,18 +11045,21 @@
         <v>100</v>
       </c>
       <c r="G263" t="n">
+        <v>6.523533333333329</v>
+      </c>
+      <c r="H263" t="n">
         <v>6.443300000000004</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9830,18 +11083,21 @@
         <v>210</v>
       </c>
       <c r="G264" t="n">
+        <v>6.530266666666662</v>
+      </c>
+      <c r="H264" t="n">
         <v>6.447383333333337</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9865,18 +11121,21 @@
         <v>1000</v>
       </c>
       <c r="G265" t="n">
+        <v>6.536999999999995</v>
+      </c>
+      <c r="H265" t="n">
         <v>6.451433333333338</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9900,18 +11159,21 @@
         <v>1335.3873</v>
       </c>
       <c r="G266" t="n">
+        <v>6.544333333333328</v>
+      </c>
+      <c r="H266" t="n">
         <v>6.45546666666667</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9935,18 +11197,21 @@
         <v>6000</v>
       </c>
       <c r="G267" t="n">
+        <v>6.552399999999995</v>
+      </c>
+      <c r="H267" t="n">
         <v>6.460133333333337</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9970,18 +11235,21 @@
         <v>100</v>
       </c>
       <c r="G268" t="n">
+        <v>6.559199999999995</v>
+      </c>
+      <c r="H268" t="n">
         <v>6.465050000000004</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10005,18 +11273,21 @@
         <v>100</v>
       </c>
       <c r="G269" t="n">
+        <v>6.566599999999996</v>
+      </c>
+      <c r="H269" t="n">
         <v>6.470050000000004</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10040,18 +11311,21 @@
         <v>240000</v>
       </c>
       <c r="G270" t="n">
+        <v>6.576866666666662</v>
+      </c>
+      <c r="H270" t="n">
         <v>6.476450000000004</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10075,18 +11349,21 @@
         <v>7196.865</v>
       </c>
       <c r="G271" t="n">
+        <v>6.584199999999996</v>
+      </c>
+      <c r="H271" t="n">
         <v>6.482233333333338</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10110,18 +11387,21 @@
         <v>100</v>
       </c>
       <c r="G272" t="n">
+        <v>6.590866666666662</v>
+      </c>
+      <c r="H272" t="n">
         <v>6.489550000000005</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10145,18 +11425,21 @@
         <v>8803.1032</v>
       </c>
       <c r="G273" t="n">
+        <v>6.595733333333329</v>
+      </c>
+      <c r="H273" t="n">
         <v>6.494033333333338</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10180,18 +11463,21 @@
         <v>39175.8835</v>
       </c>
       <c r="G274" t="n">
+        <v>6.599733333333329</v>
+      </c>
+      <c r="H274" t="n">
         <v>6.498250000000005</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10215,18 +11501,21 @@
         <v>3691.4372</v>
       </c>
       <c r="G275" t="n">
+        <v>6.601999999999994</v>
+      </c>
+      <c r="H275" t="n">
         <v>6.502333333333339</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10250,18 +11539,21 @@
         <v>388436.0319</v>
       </c>
       <c r="G276" t="n">
+        <v>6.601599999999994</v>
+      </c>
+      <c r="H276" t="n">
         <v>6.505750000000005</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10285,18 +11577,21 @@
         <v>6318.3095</v>
       </c>
       <c r="G277" t="n">
+        <v>6.601066666666662</v>
+      </c>
+      <c r="H277" t="n">
         <v>6.510450000000006</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10320,18 +11615,21 @@
         <v>3459.3853</v>
       </c>
       <c r="G278" t="n">
+        <v>6.604466666666662</v>
+      </c>
+      <c r="H278" t="n">
         <v>6.515650000000006</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10355,18 +11653,21 @@
         <v>5817.1718</v>
       </c>
       <c r="G279" t="n">
+        <v>6.604399999999995</v>
+      </c>
+      <c r="H279" t="n">
         <v>6.519683333333338</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10390,18 +11691,21 @@
         <v>3317.591</v>
       </c>
       <c r="G280" t="n">
+        <v>6.60366666666666</v>
+      </c>
+      <c r="H280" t="n">
         <v>6.521883333333339</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10425,18 +11729,21 @@
         <v>125660.8592</v>
       </c>
       <c r="G281" t="n">
+        <v>6.600799999999993</v>
+      </c>
+      <c r="H281" t="n">
         <v>6.523583333333339</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10460,18 +11767,21 @@
         <v>4348.4895</v>
       </c>
       <c r="G282" t="n">
+        <v>6.596466666666659</v>
+      </c>
+      <c r="H282" t="n">
         <v>6.52518333333334</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10495,18 +11805,21 @@
         <v>98474.3594</v>
       </c>
       <c r="G283" t="n">
+        <v>6.593733333333327</v>
+      </c>
+      <c r="H283" t="n">
         <v>6.526866666666673</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10530,18 +11843,21 @@
         <v>28136.9888</v>
       </c>
       <c r="G284" t="n">
+        <v>6.591666666666659</v>
+      </c>
+      <c r="H284" t="n">
         <v>6.528500000000006</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10565,18 +11881,21 @@
         <v>107873.5087</v>
       </c>
       <c r="G285" t="n">
+        <v>6.585466666666659</v>
+      </c>
+      <c r="H285" t="n">
         <v>6.53033333333334</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10600,18 +11919,21 @@
         <v>119507.4362</v>
       </c>
       <c r="G286" t="n">
+        <v>6.584066666666659</v>
+      </c>
+      <c r="H286" t="n">
         <v>6.532633333333339</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10635,18 +11957,21 @@
         <v>42811.5461</v>
       </c>
       <c r="G287" t="n">
+        <v>6.578199999999993</v>
+      </c>
+      <c r="H287" t="n">
         <v>6.533966666666672</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10670,18 +11995,21 @@
         <v>5217.451</v>
       </c>
       <c r="G288" t="n">
+        <v>6.574399999999993</v>
+      </c>
+      <c r="H288" t="n">
         <v>6.535316666666672</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10705,18 +12033,21 @@
         <v>1122.3981</v>
       </c>
       <c r="G289" t="n">
+        <v>6.572133333333326</v>
+      </c>
+      <c r="H289" t="n">
         <v>6.537416666666672</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10740,18 +12071,21 @@
         <v>100898.0523</v>
       </c>
       <c r="G290" t="n">
+        <v>6.56826666666666</v>
+      </c>
+      <c r="H290" t="n">
         <v>6.539216666666671</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10775,18 +12109,21 @@
         <v>1540.4971</v>
       </c>
       <c r="G291" t="n">
+        <v>6.566333333333326</v>
+      </c>
+      <c r="H291" t="n">
         <v>6.54146666666667</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10810,18 +12147,21 @@
         <v>93459.50290000001</v>
       </c>
       <c r="G292" t="n">
+        <v>6.563999999999993</v>
+      </c>
+      <c r="H292" t="n">
         <v>6.543550000000004</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10845,18 +12185,401 @@
         <v>61142.4741</v>
       </c>
       <c r="G293" t="n">
+        <v>6.559866666666659</v>
+      </c>
+      <c r="H293" t="n">
         <v>6.544200000000004</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="C294" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="D294" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="E294" t="n">
+        <v>6.569</v>
+      </c>
+      <c r="F294" t="n">
+        <v>15984.1563</v>
+      </c>
+      <c r="G294" t="n">
+        <v>6.559133333333325</v>
+      </c>
+      <c r="H294" t="n">
+        <v>6.544833333333337</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C295" t="n">
+        <v>6.574</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E295" t="n">
+        <v>6.574</v>
+      </c>
+      <c r="F295" t="n">
+        <v>23661.6278</v>
+      </c>
+      <c r="G295" t="n">
+        <v>6.559399999999992</v>
+      </c>
+      <c r="H295" t="n">
+        <v>6.545566666666671</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="C296" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="D296" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="E296" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4106.2816</v>
+      </c>
+      <c r="G296" t="n">
+        <v>6.560999999999992</v>
+      </c>
+      <c r="H296" t="n">
+        <v>6.546166666666671</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C297" t="n">
+        <v>6.629</v>
+      </c>
+      <c r="D297" t="n">
+        <v>6.629</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F297" t="n">
+        <v>60995.8074</v>
+      </c>
+      <c r="G297" t="n">
+        <v>6.565933333333326</v>
+      </c>
+      <c r="H297" t="n">
+        <v>6.547983333333338</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C298" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D298" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F298" t="n">
+        <v>81189.6606</v>
+      </c>
+      <c r="G298" t="n">
+        <v>6.570599999999993</v>
+      </c>
+      <c r="H298" t="n">
+        <v>6.549783333333338</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C299" t="n">
+        <v>6.646</v>
+      </c>
+      <c r="D299" t="n">
+        <v>6.646</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F299" t="n">
+        <v>123069.802</v>
+      </c>
+      <c r="G299" t="n">
+        <v>6.575066666666659</v>
+      </c>
+      <c r="H299" t="n">
+        <v>6.552616666666672</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>6.648</v>
+      </c>
+      <c r="C300" t="n">
+        <v>6.648</v>
+      </c>
+      <c r="D300" t="n">
+        <v>6.648</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6.648</v>
+      </c>
+      <c r="F300" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G300" t="n">
+        <v>6.580199999999992</v>
+      </c>
+      <c r="H300" t="n">
+        <v>6.556050000000005</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>6.649</v>
+      </c>
+      <c r="C301" t="n">
+        <v>6.649</v>
+      </c>
+      <c r="D301" t="n">
+        <v>6.649</v>
+      </c>
+      <c r="E301" t="n">
+        <v>6.649</v>
+      </c>
+      <c r="F301" t="n">
+        <v>14545.0336</v>
+      </c>
+      <c r="G301" t="n">
+        <v>6.583533333333325</v>
+      </c>
+      <c r="H301" t="n">
+        <v>6.559366666666673</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="C302" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="D302" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="E302" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="F302" t="n">
+        <v>147302.4201</v>
+      </c>
+      <c r="G302" t="n">
+        <v>6.593399999999992</v>
+      </c>
+      <c r="H302" t="n">
+        <v>6.563150000000006</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="C303" t="n">
+        <v>6.615</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="E303" t="n">
+        <v>6.615</v>
+      </c>
+      <c r="F303" t="n">
+        <v>65731.0879</v>
+      </c>
+      <c r="G303" t="n">
+        <v>6.598266666666659</v>
+      </c>
+      <c r="H303" t="n">
+        <v>6.565683333333339</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest IOST.xlsx
+++ b/BackTest/2020-01-16 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N361"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>664006.90232727</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>621955.89212727</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.249</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +523,21 @@
         <v>538414.53932727</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.201</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +564,17 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +601,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +638,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +675,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +712,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +747,21 @@
         <v>857664.4834272701</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.221</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,24 +786,21 @@
         <v>963636.5224272701</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>6.213</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,24 +825,21 @@
         <v>848964.60462727</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>6.28</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -864,24 +864,21 @@
         <v>803441.3116272701</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>6.24</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,24 +903,21 @@
         <v>979863.2071272701</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>6.212</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -948,24 +942,21 @@
         <v>917898.63572727</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>6.28</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,24 +981,21 @@
         <v>876216.5984272701</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>6.212</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,24 +1020,21 @@
         <v>970878.85002727</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>6.21</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +1059,21 @@
         <v>970878.85002727</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>6.213</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1116,24 +1098,21 @@
         <v>705685.3440272701</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>6.213</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1158,24 +1137,21 @@
         <v>843037.8866272701</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>6.202</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1200,24 +1176,19 @@
         <v>633977.2690272701</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.252</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1242,24 +1213,21 @@
         <v>793697.6273272701</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>6.237</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1284,24 +1252,19 @@
         <v>786818.8987272701</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.253</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,24 +1289,21 @@
         <v>783946.8987272701</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>6.19</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1368,24 +1328,19 @@
         <v>716275.8987272701</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.113</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1410,24 +1365,21 @@
         <v>770964.9348272701</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>6.062</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1452,24 +1404,21 @@
         <v>914398.7306272701</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>6.15</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1494,24 +1443,21 @@
         <v>1113618.64852727</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>6.18</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1536,24 +1482,19 @@
         <v>1155460.65632727</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1578,24 +1519,19 @@
         <v>1435536.57142436</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6.243</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1622,20 +1558,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1662,20 +1595,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1702,20 +1632,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1742,20 +1669,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1782,20 +1706,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1822,20 +1743,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1862,20 +1780,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1902,20 +1817,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1942,20 +1854,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1982,20 +1891,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2022,20 +1928,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2062,20 +1965,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2102,20 +2002,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2142,20 +2039,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2182,20 +2076,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2222,20 +2113,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2262,20 +2150,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,20 +2187,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2342,20 +2224,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2382,20 +2261,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2422,20 +2298,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2462,20 +2335,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2502,20 +2372,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2542,20 +2409,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2582,20 +2446,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2622,20 +2483,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2662,20 +2520,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2702,20 +2557,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2742,20 +2594,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2782,20 +2631,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2822,20 +2668,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2862,20 +2705,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,20 +2742,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2942,20 +2779,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2982,20 +2816,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3022,20 +2853,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3062,20 +2890,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3102,20 +2927,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3142,20 +2964,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3182,20 +3001,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3222,20 +3038,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3262,20 +3075,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3302,20 +3112,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3342,20 +3149,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3382,20 +3186,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3422,20 +3223,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3462,20 +3260,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3502,20 +3297,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3542,20 +3334,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3582,20 +3371,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3622,20 +3408,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3662,20 +3445,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3702,20 +3482,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3742,20 +3519,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3782,20 +3556,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3822,20 +3593,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3862,20 +3630,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3902,20 +3667,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3942,20 +3704,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3982,20 +3741,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4022,20 +3778,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4062,20 +3815,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4102,20 +3852,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4142,20 +3889,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4182,20 +3926,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4222,20 +3963,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4262,20 +4000,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4302,20 +4037,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4342,20 +4074,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4382,20 +4111,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4422,20 +4148,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4462,20 +4185,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4502,20 +4222,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4542,20 +4259,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4582,20 +4296,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4622,20 +4333,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4662,20 +4370,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4702,20 +4407,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4742,20 +4444,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4782,20 +4481,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4822,20 +4518,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4862,20 +4555,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4902,20 +4592,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4942,20 +4629,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4982,20 +4666,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5022,20 +4703,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5062,20 +4740,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5102,20 +4777,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5142,20 +4814,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5182,20 +4851,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5222,20 +4888,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5262,20 +4925,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5302,20 +4962,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5342,20 +4999,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5382,20 +5036,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5422,20 +5073,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5462,20 +5110,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5502,20 +5147,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5542,20 +5184,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5582,20 +5221,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5622,20 +5258,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5662,20 +5295,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5702,20 +5332,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5742,20 +5369,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5782,20 +5406,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5822,20 +5443,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5862,20 +5480,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5902,20 +5517,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5942,20 +5554,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5982,20 +5591,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6022,20 +5628,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6062,20 +5665,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6102,20 +5702,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6142,20 +5739,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6182,20 +5776,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6222,20 +5813,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6262,20 +5850,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6302,20 +5887,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6342,20 +5924,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6382,20 +5961,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6422,20 +5998,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6462,20 +6035,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6502,20 +6072,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6542,18 +6109,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6580,16 +6146,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6614,18 +6181,17 @@
         <v>5337118.12732436</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6650,18 +6216,15 @@
         <v>5487638.69762436</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6686,18 +6249,15 @@
         <v>5720615.83432436</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6722,18 +6282,15 @@
         <v>5717374.97652436</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6758,18 +6315,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6794,18 +6348,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6830,18 +6381,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6866,18 +6414,15 @@
         <v>5657929.386724359</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6902,18 +6447,15 @@
         <v>5651923.439024359</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6938,18 +6480,15 @@
         <v>5415454.686424359</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6974,18 +6513,15 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7012,16 +6548,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7048,16 +6581,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7084,16 +6614,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7120,16 +6647,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7156,16 +6680,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7192,16 +6713,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7228,16 +6746,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7264,16 +6779,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7300,16 +6812,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7336,16 +6845,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7372,16 +6878,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7408,16 +6911,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7444,16 +6944,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7480,16 +6977,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7516,16 +7010,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7552,16 +7043,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7588,16 +7076,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7624,16 +7109,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7660,16 +7142,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7696,16 +7175,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7732,16 +7208,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7768,16 +7241,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7804,16 +7274,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7840,16 +7307,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7876,16 +7340,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7912,16 +7373,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7946,18 +7404,15 @@
         <v>5124078.384124357</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7984,16 +7439,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8020,16 +7472,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8056,16 +7505,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8092,16 +7538,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8128,16 +7571,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8164,16 +7604,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8200,16 +7637,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8236,16 +7670,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8272,16 +7703,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8308,16 +7736,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8342,18 +7767,15 @@
         <v>5376239.476824357</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8378,18 +7800,15 @@
         <v>5601404.436924357</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8416,16 +7835,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8452,16 +7868,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8488,16 +7901,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8524,16 +7934,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8558,18 +7965,15 @@
         <v>5800080.276524357</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8594,18 +7998,15 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8632,16 +8033,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8668,16 +8066,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8702,18 +8097,15 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8740,16 +8132,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8776,16 +8165,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8812,16 +8198,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8848,16 +8231,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8884,16 +8264,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8920,16 +8297,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8956,16 +8330,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8992,16 +8363,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9026,18 +8394,15 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9062,18 +8427,15 @@
         <v>6736964.481721617</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9098,18 +8460,15 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9134,18 +8493,15 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9170,18 +8526,15 @@
         <v>6732241.987521618</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9206,18 +8559,15 @@
         <v>6267888.462221618</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9242,18 +8592,15 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9278,18 +8625,15 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9314,18 +8658,15 @@
         <v>6112565.366321618</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9350,18 +8691,15 @@
         <v>6121956.323321618</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9386,18 +8724,15 @@
         <v>6117643.320721618</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9422,18 +8757,15 @@
         <v>6254281.266699958</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9458,18 +8790,15 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9494,18 +8823,15 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9530,18 +8856,15 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9566,18 +8889,15 @@
         <v>6092928.083699958</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9604,16 +8924,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9640,16 +8957,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9676,16 +8990,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9712,16 +9023,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9748,16 +9056,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9784,16 +9089,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9820,16 +9122,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9856,16 +9155,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9892,16 +9188,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9928,16 +9221,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9964,16 +9254,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10000,16 +9287,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10036,16 +9320,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10072,16 +9353,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10108,16 +9386,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10144,16 +9419,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10180,16 +9452,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10216,16 +9485,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10252,16 +9518,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10288,16 +9551,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10324,16 +9584,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10360,16 +9617,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10396,16 +9650,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10432,16 +9683,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10468,16 +9716,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10504,16 +9749,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10540,16 +9782,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10576,16 +9815,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10612,16 +9848,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10648,16 +9881,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10682,18 +9912,15 @@
         <v>2083103.225499958</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10718,18 +9945,15 @@
         <v>2036805.434799958</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10754,18 +9978,15 @@
         <v>2160739.718399958</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10790,18 +10011,15 @@
         <v>2176676.288399958</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10826,18 +10044,15 @@
         <v>2182676.288399958</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10862,18 +10077,15 @@
         <v>2192638.334599958</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10898,18 +10110,15 @@
         <v>2127298.977699958</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10934,18 +10143,15 @@
         <v>2207098.977699958</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10970,18 +10176,15 @@
         <v>2409717.354299958</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11006,18 +10209,15 @@
         <v>2974835.204299958</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11042,18 +10242,15 @@
         <v>2977081.172999958</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11080,16 +10277,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11114,18 +10308,15 @@
         <v>2979595.848240158</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11152,16 +10343,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11188,16 +10376,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11224,16 +10409,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11258,18 +10440,15 @@
         <v>3533258.444060538</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11296,16 +10475,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11332,16 +10508,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11368,16 +10541,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11404,16 +10574,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11440,16 +10607,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11476,16 +10640,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11512,16 +10673,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11548,16 +10706,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11584,16 +10739,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11620,16 +10772,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11656,16 +10805,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11692,16 +10838,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11728,16 +10871,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11764,16 +10904,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11800,16 +10937,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11836,16 +10970,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11872,16 +11003,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11908,16 +11036,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11944,16 +11069,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11980,16 +11102,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12016,16 +11135,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12052,16 +11168,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12088,16 +11201,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12124,16 +11234,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12160,16 +11267,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12196,16 +11300,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12232,16 +11333,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12268,16 +11366,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12304,16 +11399,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12340,16 +11432,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12376,16 +11465,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12412,16 +11498,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12448,16 +11531,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12484,16 +11564,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12520,16 +11597,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12556,16 +11630,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12592,16 +11663,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12628,16 +11696,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12664,16 +11729,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12700,16 +11762,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12736,16 +11795,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12772,16 +11828,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12808,16 +11861,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12844,16 +11894,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12880,16 +11927,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12914,18 +11958,15 @@
         <v>4301590.890960538</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12950,18 +11991,15 @@
         <v>4340766.774460538</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12988,16 +12026,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13024,16 +12059,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13060,16 +12092,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13096,16 +12125,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13132,16 +12158,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13168,16 +12191,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13202,18 +12222,15 @@
         <v>3814676.196360539</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13238,18 +12255,15 @@
         <v>3819024.685860539</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13276,16 +12290,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13312,16 +12323,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13348,16 +12356,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13384,16 +12389,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13420,16 +12422,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13456,16 +12455,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13492,16 +12488,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13528,16 +12521,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13564,16 +12554,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13600,16 +12587,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13636,16 +12620,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13672,16 +12653,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13708,16 +12686,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13744,16 +12719,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13780,16 +12752,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13816,16 +12785,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13852,16 +12818,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13888,16 +12851,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13924,16 +12884,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13960,16 +12917,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13996,18 +12950,15 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest IOST.xlsx
+++ b/BackTest/2020-01-16 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>664006.90232727</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>621955.89212727</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>538414.53932727</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,7 +715,7 @@
         <v>857664.4834272701</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>6.221</v>
@@ -755,7 +723,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -786,7 +754,7 @@
         <v>963636.5224272701</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6.213</v>
@@ -825,7 +793,7 @@
         <v>848964.60462727</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.28</v>
@@ -864,7 +832,7 @@
         <v>803441.3116272701</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.24</v>
@@ -903,7 +871,7 @@
         <v>979863.2071272701</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.212</v>
@@ -942,7 +910,7 @@
         <v>917898.63572727</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6.28</v>
@@ -981,7 +949,7 @@
         <v>876216.5984272701</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6.212</v>
@@ -1020,7 +988,7 @@
         <v>970878.85002727</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6.21</v>
@@ -1059,7 +1027,7 @@
         <v>970878.85002727</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>6.213</v>
@@ -1098,7 +1066,7 @@
         <v>705685.3440272701</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>6.213</v>
@@ -1137,7 +1105,7 @@
         <v>843037.8866272701</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>6.202</v>
@@ -1176,9 +1144,11 @@
         <v>633977.2690272701</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.252</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1213,7 +1183,7 @@
         <v>793697.6273272701</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>6.237</v>
@@ -1252,9 +1222,11 @@
         <v>786818.8987272701</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.253</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1289,7 +1261,7 @@
         <v>783946.8987272701</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6.19</v>
@@ -1328,9 +1300,11 @@
         <v>716275.8987272701</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.113</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1365,7 +1339,7 @@
         <v>770964.9348272701</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>6.062</v>
@@ -1404,7 +1378,7 @@
         <v>914398.7306272701</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>6.15</v>
@@ -1443,7 +1417,7 @@
         <v>1113618.64852727</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6.18</v>
@@ -1482,9 +1456,11 @@
         <v>1155460.65632727</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.23</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1519,9 +1495,11 @@
         <v>1435536.57142436</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.243</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1556,9 +1534,11 @@
         <v>1390395.94932436</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.257</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1593,9 +1573,11 @@
         <v>1457255.68782436</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.22</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1630,9 +1612,11 @@
         <v>1177179.77282436</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.229</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1667,9 +1651,11 @@
         <v>1627519.78772436</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.143</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1704,9 +1690,11 @@
         <v>1459462.07082436</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.233</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1741,9 +1729,11 @@
         <v>1823364.19812436</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.224</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1852,9 +1842,11 @@
         <v>2004308.85332436</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.238</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2000,9 +1992,11 @@
         <v>1103960.90692436</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.111</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2037,9 +2031,11 @@
         <v>1465181.99542436</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.101</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2074,9 +2070,11 @@
         <v>1465081.99542436</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.149</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2148,9 +2146,11 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.12</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2185,9 +2185,11 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.139</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2222,9 +2224,11 @@
         <v>1543453.46992436</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.139</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2259,9 +2263,11 @@
         <v>1615453.46992436</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.159</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -4146,9 +4152,11 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4183,9 +4191,11 @@
         <v>4665368.837224361</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -6181,16 +6191,18 @@
         <v>5337118.12732436</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -6216,11 +6228,15 @@
         <v>5487638.69762436</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6249,11 +6265,15 @@
         <v>5720615.83432436</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6302,15 @@
         <v>5717374.97652436</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6315,11 +6339,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6348,11 +6376,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6413,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +6450,15 @@
         <v>5657929.386724359</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +6487,15 @@
         <v>5651923.439024359</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6480,11 +6524,15 @@
         <v>5415454.686424359</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6561,15 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6550,7 +6602,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6639,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6616,7 +6676,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6649,7 +6713,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6682,7 +6750,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6715,7 +6787,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6748,7 +6824,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6781,7 +6861,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6814,7 +6898,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6847,7 +6935,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6880,7 +6972,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6913,7 +7009,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6946,7 +7046,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6979,7 +7083,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7012,7 +7120,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7045,7 +7157,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7078,7 +7194,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7111,7 +7231,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7144,7 +7268,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7177,7 +7305,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7210,7 +7342,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7243,7 +7379,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7276,7 +7416,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7309,7 +7453,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +7490,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7375,7 +7527,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7404,11 +7560,15 @@
         <v>5124078.384124357</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7441,7 +7601,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7474,7 +7638,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7507,7 +7675,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7536,14 +7708,16 @@
         <v>5269072.789324356</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -7569,7 +7743,7 @@
         <v>5267209.789324356</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7602,7 +7776,7 @@
         <v>5324066.548124356</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7635,7 +7809,7 @@
         <v>5325559.672924357</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7668,7 +7842,7 @@
         <v>5375107.595924357</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7701,7 +7875,7 @@
         <v>5425071.996724357</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7734,7 +7908,7 @@
         <v>5436305.476824357</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7767,7 +7941,7 @@
         <v>5376239.476824357</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7800,7 +7974,7 @@
         <v>5601404.436924357</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7833,7 +8007,7 @@
         <v>5693038.436924357</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7866,7 +8040,7 @@
         <v>5721015.114324357</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7899,7 +8073,7 @@
         <v>5721015.114324357</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7932,7 +8106,7 @@
         <v>5800080.276524357</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7965,7 +8139,7 @@
         <v>5800080.276524357</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7998,7 +8172,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8031,7 +8205,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8064,7 +8238,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8097,7 +8271,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8394,7 +8568,7 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8427,7 +8601,7 @@
         <v>6736964.481721617</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8460,7 +8634,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8493,7 +8667,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8526,7 +8700,7 @@
         <v>6732241.987521618</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8559,7 +8733,7 @@
         <v>6267888.462221618</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8592,7 +8766,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8625,7 +8799,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8658,7 +8832,7 @@
         <v>6112565.366321618</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8691,7 +8865,7 @@
         <v>6121956.323321618</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8724,7 +8898,7 @@
         <v>6117643.320721618</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8757,7 +8931,7 @@
         <v>6254281.266699958</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8790,7 +8964,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8823,7 +8997,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8856,7 +9030,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8889,7 +9063,7 @@
         <v>6092928.083699958</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8922,7 +9096,7 @@
         <v>6034244.955099958</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8955,7 +9129,7 @@
         <v>6032579.272599958</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8988,7 +9162,7 @@
         <v>5608102.294499958</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9021,7 +9195,7 @@
         <v>5608248.462799958</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9054,7 +9228,7 @@
         <v>5676898.462799958</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9087,7 +9261,7 @@
         <v>5673053.462799958</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9120,7 +9294,7 @@
         <v>5676079.180799958</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9153,7 +9327,7 @@
         <v>5617396.052099958</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9186,7 +9360,7 @@
         <v>5552018.189599958</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9219,7 +9393,7 @@
         <v>5522922.096099958</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9252,7 +9426,7 @@
         <v>5540502.605899958</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9846,7 +10020,7 @@
         <v>2102119.544299958</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9879,7 +10053,7 @@
         <v>2083495.978299958</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9912,7 +10086,7 @@
         <v>2083103.225499958</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9945,7 +10119,7 @@
         <v>2036805.434799958</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9978,7 +10152,7 @@
         <v>2160739.718399958</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10011,7 +10185,7 @@
         <v>2176676.288399958</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10044,7 +10218,7 @@
         <v>2182676.288399958</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10077,7 +10251,7 @@
         <v>2192638.334599958</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10110,7 +10284,7 @@
         <v>2127298.977699958</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10143,7 +10317,7 @@
         <v>2207098.977699958</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10176,7 +10350,7 @@
         <v>2409717.354299958</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10209,7 +10383,7 @@
         <v>2974835.204299958</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10242,7 +10416,7 @@
         <v>2977081.172999958</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10308,7 +10482,7 @@
         <v>2979595.848240158</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10440,7 +10614,7 @@
         <v>3533258.444060538</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11958,7 +12132,7 @@
         <v>4301590.890960538</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11991,7 +12165,7 @@
         <v>4340766.774460538</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12222,7 +12396,7 @@
         <v>3814676.196360539</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12255,7 +12429,7 @@
         <v>3819024.685860539</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12288,7 +12462,7 @@
         <v>3917499.045260539</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12321,7 +12495,7 @@
         <v>3945636.034060539</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12354,7 +12528,7 @@
         <v>3837762.525360539</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12387,7 +12561,7 @@
         <v>3957269.961560539</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12618,7 +12792,7 @@
         <v>3780825.235360539</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12651,7 +12825,7 @@
         <v>3764841.079060539</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12684,7 +12858,7 @@
         <v>3788502.706860539</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12717,7 +12891,7 @@
         <v>3784396.425260539</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12750,7 +12924,7 @@
         <v>3845392.232660539</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12783,7 +12957,7 @@
         <v>3926581.893260539</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12816,7 +12990,7 @@
         <v>4049651.695260539</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12849,7 +13023,7 @@
         <v>4104651.695260539</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12882,7 +13056,7 @@
         <v>4119196.728860539</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12915,7 +13089,7 @@
         <v>4266499.148960539</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12948,7 +13122,7 @@
         <v>4200768.061060539</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12959,6 +13133,6 @@
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest IOST.xlsx
+++ b/BackTest/2020-01-16 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>664006.90232727</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>621955.89212727</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.249</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +671,15 @@
         <v>997448.99482727</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +708,15 @@
         <v>969011.32062727</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,15 +745,13 @@
         <v>857664.4834272701</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.221</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -754,11 +782,9 @@
         <v>963636.5224272701</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -793,11 +819,9 @@
         <v>848964.60462727</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -832,11 +856,9 @@
         <v>803441.3116272701</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.24</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -871,20 +893,16 @@
         <v>979863.2071272701</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.212</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -910,17 +928,11 @@
         <v>917898.63572727</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -949,17 +961,11 @@
         <v>876216.5984272701</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.212</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -988,17 +994,11 @@
         <v>970878.85002727</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1027,17 +1027,11 @@
         <v>970878.85002727</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1066,17 +1060,11 @@
         <v>705685.3440272701</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1105,17 +1093,11 @@
         <v>843037.8866272701</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6.202</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1144,17 +1126,11 @@
         <v>633977.2690272701</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.252</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1183,17 +1159,11 @@
         <v>793697.6273272701</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.237</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1222,17 +1192,11 @@
         <v>786818.8987272701</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.253</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1261,17 +1225,11 @@
         <v>783946.8987272701</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1300,17 +1258,11 @@
         <v>716275.8987272701</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.113</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1339,17 +1291,11 @@
         <v>770964.9348272701</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.062</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,17 +1324,11 @@
         <v>914398.7306272701</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6.15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1417,17 +1357,11 @@
         <v>1113618.64852727</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.18</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1456,17 +1390,11 @@
         <v>1155460.65632727</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1495,17 +1423,11 @@
         <v>1435536.57142436</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.243</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1534,17 +1456,11 @@
         <v>1390395.94932436</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.257</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,17 +1489,11 @@
         <v>1457255.68782436</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1612,17 +1522,11 @@
         <v>1177179.77282436</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.229</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1651,17 +1555,11 @@
         <v>1627519.78772436</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.143</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1690,17 +1588,11 @@
         <v>1459462.07082436</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.233</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1729,17 +1621,11 @@
         <v>1823364.19812436</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.224</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1768,15 +1654,11 @@
         <v>1817296.03922436</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1805,15 +1687,11 @@
         <v>2021059.27202436</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1842,17 +1720,11 @@
         <v>2004308.85332436</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.238</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1881,15 +1753,11 @@
         <v>1949961.41892436</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1918,15 +1786,11 @@
         <v>2011512.01102436</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1955,15 +1819,11 @@
         <v>2009235.62012436</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1992,17 +1852,11 @@
         <v>1103960.90692436</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6.111</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +1893,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2109,9 +1963,11 @@
         <v>1458983.14232436</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.14</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2302,9 +2158,11 @@
         <v>1615553.46992436</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.169</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2339,9 +2197,11 @@
         <v>1697553.83292436</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.195</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2635,9 +2495,11 @@
         <v>1668941.33162436</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.202</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3523,18 +3385,16 @@
         <v>2512917.42202436</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3560,15 +3420,11 @@
         <v>2514066.37642436</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3597,15 +3453,11 @@
         <v>2516754.13212436</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3634,15 +3486,11 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3671,15 +3519,11 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3708,15 +3552,11 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3745,15 +3585,11 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3782,15 +3618,11 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3819,15 +3651,11 @@
         <v>2695139.96192436</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3856,15 +3684,11 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3893,15 +3717,11 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3930,15 +3750,11 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3967,15 +3783,11 @@
         <v>2730124.56222436</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4004,15 +3816,11 @@
         <v>2688599.05082436</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4041,15 +3849,11 @@
         <v>2694334.34512436</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4078,15 +3882,11 @@
         <v>2523440.85212436</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4115,15 +3915,11 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +3948,11 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4191,17 +3981,11 @@
         <v>4665368.837224361</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>6.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4230,15 +4014,11 @@
         <v>4651422.044824361</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4267,15 +4047,11 @@
         <v>4662090.430424361</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4304,15 +4080,11 @@
         <v>4532433.121624361</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4341,15 +4113,11 @@
         <v>4536033.121624361</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +4146,11 @@
         <v>4424520.104124361</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4419,11 +4183,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +4216,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4489,15 +4245,11 @@
         <v>4560432.50462436</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4526,15 +4278,11 @@
         <v>4517810.73332436</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4563,15 +4311,11 @@
         <v>4591306.83582436</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4600,15 +4344,11 @@
         <v>4569699.95412436</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4641,11 +4381,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4674,15 +4410,11 @@
         <v>4583695.77872436</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4711,15 +4443,11 @@
         <v>4482247.19172436</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4748,15 +4476,11 @@
         <v>4552414.68432436</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +4513,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4546,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4859,15 +4575,11 @@
         <v>4601241.691824359</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4896,15 +4608,11 @@
         <v>4604647.662524359</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4933,15 +4641,11 @@
         <v>4578176.583224359</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4970,15 +4674,11 @@
         <v>4635876.984424359</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5007,15 +4707,11 @@
         <v>4657679.372724359</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5048,11 +4744,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +4777,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +4810,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +4843,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5196,11 +4876,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5229,15 +4905,11 @@
         <v>5006209.808424359</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5266,15 +4938,11 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5303,15 +4971,11 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5340,15 +5004,11 @@
         <v>5208313.176424359</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +5041,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +5074,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +5107,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5140,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5529,11 +5173,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5206,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5603,11 +5239,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5640,11 +5272,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5677,11 +5305,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5714,11 +5338,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5751,11 +5371,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5788,11 +5404,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5825,11 +5437,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5862,11 +5470,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5895,15 +5499,11 @@
         <v>5038599.68302436</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5932,15 +5532,11 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5969,15 +5565,11 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6006,15 +5598,11 @@
         <v>5028617.58302436</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6043,15 +5631,11 @@
         <v>5032957.939224361</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6080,15 +5664,11 @@
         <v>5086999.195724361</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6117,15 +5697,11 @@
         <v>5107279.847024361</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6154,15 +5730,11 @@
         <v>5351536.34832436</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6191,15 +5763,11 @@
         <v>5337118.12732436</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6228,15 +5796,11 @@
         <v>5487638.69762436</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6265,15 +5829,11 @@
         <v>5720615.83432436</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6302,15 +5862,11 @@
         <v>5717374.97652436</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6339,15 +5895,11 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6376,15 +5928,11 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6413,15 +5961,11 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6450,15 +5994,11 @@
         <v>5657929.386724359</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6491,11 +6031,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6528,11 +6064,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6561,15 +6093,11 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6598,15 +6126,11 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6635,15 +6159,11 @@
         <v>4337187.843324359</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6672,15 +6192,11 @@
         <v>4460783.666124359</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +6229,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6750,11 +6262,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6295,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6824,11 +6328,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6861,11 +6361,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6898,11 +6394,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6935,11 +6427,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6972,11 +6460,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7009,11 +6493,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7046,11 +6526,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +6559,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7120,11 +6592,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7157,11 +6625,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7194,11 +6658,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7231,11 +6691,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7268,11 +6724,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7305,11 +6757,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7342,11 +6790,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7379,11 +6823,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7416,11 +6856,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7453,11 +6889,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +6922,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7527,11 +6955,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7564,11 +6988,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7601,11 +7021,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7638,11 +7054,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7675,11 +7087,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7708,16 +7116,14 @@
         <v>5269072.789324356</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
       <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -7743,7 +7149,7 @@
         <v>5267209.789324356</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7776,7 +7182,7 @@
         <v>5324066.548124356</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7809,7 +7215,7 @@
         <v>5325559.672924357</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7842,7 +7248,7 @@
         <v>5375107.595924357</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7875,7 +7281,7 @@
         <v>5425071.996724357</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7908,7 +7314,7 @@
         <v>5436305.476824357</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7941,7 +7347,7 @@
         <v>5376239.476824357</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7974,7 +7380,7 @@
         <v>5601404.436924357</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8007,7 +7413,7 @@
         <v>5693038.436924357</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8040,7 +7446,7 @@
         <v>5721015.114324357</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8073,7 +7479,7 @@
         <v>5721015.114324357</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8106,7 +7512,7 @@
         <v>5800080.276524357</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8139,7 +7545,7 @@
         <v>5800080.276524357</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8172,7 +7578,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8205,7 +7611,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8238,7 +7644,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8271,7 +7677,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8601,7 +8007,7 @@
         <v>6736964.481721617</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8634,7 +8040,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8667,7 +8073,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8700,7 +8106,7 @@
         <v>6732241.987521618</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8733,7 +8139,7 @@
         <v>6267888.462221618</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8766,7 +8172,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8799,7 +8205,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8832,7 +8238,7 @@
         <v>6112565.366321618</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8865,7 +8271,7 @@
         <v>6121956.323321618</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8898,7 +8304,7 @@
         <v>6117643.320721618</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8931,7 +8337,7 @@
         <v>6254281.266699958</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8964,7 +8370,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8997,7 +8403,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9030,7 +8436,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9063,7 +8469,7 @@
         <v>6092928.083699958</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9096,7 +8502,7 @@
         <v>6034244.955099958</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9129,7 +8535,7 @@
         <v>6032579.272599958</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9162,7 +8568,7 @@
         <v>5608102.294499958</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9195,7 +8601,7 @@
         <v>5608248.462799958</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9228,7 +8634,7 @@
         <v>5676898.462799958</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9261,7 +8667,7 @@
         <v>5673053.462799958</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9294,7 +8700,7 @@
         <v>5676079.180799958</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9327,7 +8733,7 @@
         <v>5617396.052099958</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9360,7 +8766,7 @@
         <v>5552018.189599958</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9393,7 +8799,7 @@
         <v>5522922.096099958</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9426,7 +8832,7 @@
         <v>5540502.605899958</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10020,7 +9426,7 @@
         <v>2102119.544299958</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10053,7 +9459,7 @@
         <v>2083495.978299958</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10086,7 +9492,7 @@
         <v>2083103.225499958</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10119,7 +9525,7 @@
         <v>2036805.434799958</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10185,7 +9591,7 @@
         <v>2176676.288399958</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -12462,7 +11868,7 @@
         <v>3917499.045260539</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12495,7 +11901,7 @@
         <v>3945636.034060539</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12528,7 +11934,7 @@
         <v>3837762.525360539</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12561,7 +11967,7 @@
         <v>3957269.961560539</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12792,7 +12198,7 @@
         <v>3780825.235360539</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12825,7 +12231,7 @@
         <v>3764841.079060539</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12858,7 +12264,7 @@
         <v>3788502.706860539</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12891,7 +12297,7 @@
         <v>3784396.425260539</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12924,7 +12330,7 @@
         <v>3845392.232660539</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12957,7 +12363,7 @@
         <v>3926581.893260539</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12990,7 +12396,7 @@
         <v>4049651.695260539</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13023,7 +12429,7 @@
         <v>4104651.695260539</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13056,7 +12462,7 @@
         <v>4119196.728860539</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13089,7 +12495,7 @@
         <v>4266499.148960539</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13122,7 +12528,7 @@
         <v>4200768.061060539</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13133,6 +12539,6 @@
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest IOST.xlsx
+++ b/BackTest/2020-01-16 BackTest IOST.xlsx
@@ -523,9 +523,11 @@
         <v>538414.53932727</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.201</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -560,9 +562,11 @@
         <v>801269.33722727</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -597,9 +601,11 @@
         <v>742767.32672727</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.297</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -634,9 +640,11 @@
         <v>908976.7439272701</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -671,9 +679,11 @@
         <v>997448.99482727</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.221</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -708,9 +718,11 @@
         <v>969011.32062727</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.23</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -745,9 +757,11 @@
         <v>857664.4834272701</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.221</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -782,9 +796,11 @@
         <v>963636.5224272701</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.213</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -819,9 +835,11 @@
         <v>848964.60462727</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.28</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -856,9 +874,11 @@
         <v>803441.3116272701</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.24</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -893,16 +913,20 @@
         <v>979863.2071272701</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.212</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -928,11 +952,17 @@
         <v>917898.63572727</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.28</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -961,11 +991,17 @@
         <v>876216.5984272701</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.212</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -994,11 +1030,17 @@
         <v>970878.85002727</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.21</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1027,11 +1069,17 @@
         <v>970878.85002727</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.213</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1060,11 +1108,17 @@
         <v>705685.3440272701</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.213</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1093,11 +1147,17 @@
         <v>843037.8866272701</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.202</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1126,11 +1186,17 @@
         <v>633977.2690272701</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.252</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1159,11 +1225,17 @@
         <v>793697.6273272701</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.237</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1192,11 +1264,17 @@
         <v>786818.8987272701</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.253</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1225,11 +1303,17 @@
         <v>783946.8987272701</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.19</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1258,11 +1342,17 @@
         <v>716275.8987272701</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.113</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1291,11 +1381,17 @@
         <v>770964.9348272701</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.062</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1324,11 +1420,17 @@
         <v>914398.7306272701</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.15</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1357,11 +1459,15 @@
         <v>1113618.64852727</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1390,11 +1496,15 @@
         <v>1155460.65632727</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1423,11 +1533,15 @@
         <v>1435536.57142436</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1456,11 +1570,15 @@
         <v>1390395.94932436</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1607,15 @@
         <v>1457255.68782436</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1522,11 +1644,15 @@
         <v>1177179.77282436</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1555,11 +1681,15 @@
         <v>1627519.78772436</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1588,11 +1718,15 @@
         <v>1459462.07082436</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1755,15 @@
         <v>1823364.19812436</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1654,11 +1792,15 @@
         <v>1817296.03922436</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1687,11 +1829,15 @@
         <v>2021059.27202436</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1720,11 +1866,15 @@
         <v>2004308.85332436</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1753,11 +1903,15 @@
         <v>1949961.41892436</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1786,11 +1940,15 @@
         <v>2011512.01102436</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1819,11 +1977,15 @@
         <v>2009235.62012436</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1852,11 +2014,15 @@
         <v>1103960.90692436</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1885,15 +2051,13 @@
         <v>1465181.99542436</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1924,11 +2088,9 @@
         <v>1465081.99542436</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -1963,11 +2125,9 @@
         <v>1458983.14232436</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2002,11 +2162,9 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2041,11 +2199,9 @@
         <v>1482973.24472436</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2080,11 +2236,9 @@
         <v>1543453.46992436</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2119,11 +2273,9 @@
         <v>1615453.46992436</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2158,11 +2310,9 @@
         <v>1615553.46992436</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6.169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2197,11 +2347,9 @@
         <v>1697553.83292436</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6.195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2495,11 +2643,9 @@
         <v>1668941.33162436</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6.202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3385,16 +3531,18 @@
         <v>2512917.42202436</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3420,11 +3568,15 @@
         <v>2514066.37642436</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3605,15 @@
         <v>2516754.13212436</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3642,15 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3679,15 @@
         <v>2517601.09682436</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3716,15 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3585,11 +3753,15 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3790,15 @@
         <v>2690670.67042436</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3651,11 +3827,15 @@
         <v>2695139.96192436</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3684,11 +3864,15 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3717,11 +3901,15 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +3938,15 @@
         <v>2745623.81202436</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3783,11 +3975,15 @@
         <v>2730124.56222436</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +4012,15 @@
         <v>2688599.05082436</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +4049,15 @@
         <v>2694334.34512436</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3882,11 +4086,15 @@
         <v>2523440.85212436</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3915,11 +4123,15 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3948,11 +4160,15 @@
         <v>2343121.63382436</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3981,11 +4197,15 @@
         <v>4665368.837224361</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4014,11 +4234,15 @@
         <v>4651422.044824361</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4047,11 +4271,15 @@
         <v>4662090.430424361</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4080,11 +4308,15 @@
         <v>4532433.121624361</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4113,11 +4345,15 @@
         <v>4536033.121624361</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +4382,15 @@
         <v>4424520.104124361</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4183,7 +4423,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4216,7 +4460,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4245,11 +4493,15 @@
         <v>4560432.50462436</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +4530,15 @@
         <v>4517810.73332436</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4311,11 +4567,15 @@
         <v>4591306.83582436</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4344,11 +4604,15 @@
         <v>4569699.95412436</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4381,7 +4645,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4678,15 @@
         <v>4583695.77872436</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4715,15 @@
         <v>4482247.19172436</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4752,15 @@
         <v>4552414.68432436</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4513,7 +4793,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4546,7 +4830,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4575,11 +4863,15 @@
         <v>4601241.691824359</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +4900,15 @@
         <v>4604647.662524359</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4641,11 +4937,15 @@
         <v>4578176.583224359</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4674,11 +4974,15 @@
         <v>4635876.984424359</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4707,11 +5011,15 @@
         <v>4657679.372724359</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4744,7 +5052,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4777,7 +5089,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4810,7 +5126,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4843,7 +5163,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4876,7 +5200,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +5233,15 @@
         <v>5006209.808424359</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +5270,15 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4971,11 +5307,15 @@
         <v>5057735.808424359</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +5344,15 @@
         <v>5208313.176424359</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5041,7 +5385,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5074,7 +5422,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5107,7 +5459,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5140,7 +5496,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5173,7 +5533,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5206,7 +5570,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5239,7 +5607,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5272,7 +5644,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5305,7 +5681,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5338,7 +5718,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5371,7 +5755,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5404,7 +5792,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5437,7 +5829,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5470,7 +5866,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5899,15 @@
         <v>5038599.68302436</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5936,15 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5973,15 @@
         <v>5016559.66912436</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +6010,15 @@
         <v>5028617.58302436</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +6047,15 @@
         <v>5032957.939224361</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +6084,15 @@
         <v>5086999.195724361</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +6121,15 @@
         <v>5107279.847024361</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5730,11 +6158,15 @@
         <v>5351536.34832436</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +6195,15 @@
         <v>5337118.12732436</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +6232,15 @@
         <v>5487638.69762436</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5829,11 +6269,15 @@
         <v>5720615.83432436</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5862,11 +6306,15 @@
         <v>5717374.97652436</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +6343,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5928,11 +6380,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +6417,15 @@
         <v>5662228.133524359</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +6454,15 @@
         <v>5657929.386724359</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6031,7 +6495,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6064,7 +6532,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6093,11 +6565,15 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6126,11 +6602,15 @@
         <v>5274125.209924359</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +6639,15 @@
         <v>4337187.843324359</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +6676,15 @@
         <v>4460783.666124359</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6229,7 +6717,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6262,7 +6754,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6295,7 +6791,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6328,7 +6828,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6361,7 +6865,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6394,7 +6902,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6427,7 +6939,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6460,7 +6976,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6493,7 +7013,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6526,7 +7050,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6559,7 +7087,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6592,7 +7124,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6625,7 +7161,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6658,7 +7198,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6691,7 +7235,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6724,7 +7272,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6757,7 +7309,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6790,7 +7346,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6823,7 +7383,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6856,7 +7420,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6889,7 +7457,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6922,7 +7494,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6955,7 +7531,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6988,7 +7568,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7021,7 +7605,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7054,7 +7642,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7087,7 +7679,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7120,7 +7716,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7153,7 +7753,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7186,7 +7790,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7219,7 +7827,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7252,7 +7864,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7285,7 +7901,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7938,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7351,7 +7975,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7384,7 +8012,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7417,7 +8049,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7450,7 +8086,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7483,7 +8123,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7516,7 +8160,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7545,14 +8193,16 @@
         <v>5800080.276524357</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
@@ -7578,7 +8228,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7611,7 +8261,7 @@
         <v>5860389.608921617</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7644,7 +8294,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7677,7 +8327,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7710,7 +8360,7 @@
         <v>5740266.897221617</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7743,7 +8393,7 @@
         <v>5761266.897221617</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7776,7 +8426,7 @@
         <v>5761266.897221617</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7809,7 +8459,7 @@
         <v>6298401.234921617</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7842,7 +8492,7 @@
         <v>6298401.234921617</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7875,7 +8525,7 @@
         <v>6801485.197821617</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7908,7 +8558,7 @@
         <v>6741175.865521617</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7941,7 +8591,7 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7974,7 +8624,7 @@
         <v>6743771.865521617</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8007,7 +8657,7 @@
         <v>6736964.481721617</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8040,7 +8690,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8073,7 +8723,7 @@
         <v>6902381.194221618</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8106,7 +8756,7 @@
         <v>6732241.987521618</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8139,7 +8789,7 @@
         <v>6267888.462221618</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8172,7 +8822,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8205,7 +8855,7 @@
         <v>6094153.527621618</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8238,7 +8888,7 @@
         <v>6112565.366321618</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8271,7 +8921,7 @@
         <v>6121956.323321618</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8304,7 +8954,7 @@
         <v>6117643.320721618</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8337,7 +8987,7 @@
         <v>6254281.266699958</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8370,7 +9020,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8403,7 +9053,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8436,7 +9086,7 @@
         <v>6222451.206199958</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8469,7 +9119,7 @@
         <v>6092928.083699958</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8502,7 +9152,7 @@
         <v>6034244.955099958</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8535,7 +9185,7 @@
         <v>6032579.272599958</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8568,7 +9218,7 @@
         <v>5608102.294499958</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
